--- a/data/trans_orig/IP2904-Edad-trans_orig.xlsx
+++ b/data/trans_orig/IP2904-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_menores\trans_orig\Auxiliares\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{19E4E66F-94B1-4845-8CCB-7260462BCD15}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{4771D281-F873-49A2-91A9-6FFCAACA572B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1080" yWindow="1080" windowWidth="17280" windowHeight="8880" xr2:uid="{CA38AD1F-A001-4D06-A150-D12DB2C4C5B6}"/>
+    <workbookView xWindow="1080" yWindow="1080" windowWidth="17280" windowHeight="8880" xr2:uid="{3D38B334-CD25-4830-9335-46BFDCDF76EE}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="876" uniqueCount="368">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="892" uniqueCount="369">
   <si>
     <t>Menores según el tipo de lactancia recibido desde el 4º al 6º mes en 2007 (Tasa respuesta: 95,87%)</t>
   </si>
@@ -71,6 +71,99 @@
     <t>0/4</t>
   </si>
   <si>
+    <t>Pecho</t>
+  </si>
+  <si>
+    <t>30,88%</t>
+  </si>
+  <si>
+    <t>25,99%</t>
+  </si>
+  <si>
+    <t>36,37%</t>
+  </si>
+  <si>
+    <t>33,93%</t>
+  </si>
+  <si>
+    <t>29,04%</t>
+  </si>
+  <si>
+    <t>40,16%</t>
+  </si>
+  <si>
+    <t>32,36%</t>
+  </si>
+  <si>
+    <t>28,74%</t>
+  </si>
+  <si>
+    <t>36,71%</t>
+  </si>
+  <si>
+    <t>Pecho/biberon</t>
+  </si>
+  <si>
+    <t>22,42%</t>
+  </si>
+  <si>
+    <t>17,66%</t>
+  </si>
+  <si>
+    <t>26,47%</t>
+  </si>
+  <si>
+    <t>21,95%</t>
+  </si>
+  <si>
+    <t>17,27%</t>
+  </si>
+  <si>
+    <t>26,51%</t>
+  </si>
+  <si>
+    <t>22,19%</t>
+  </si>
+  <si>
+    <t>19,26%</t>
+  </si>
+  <si>
+    <t>26,01%</t>
+  </si>
+  <si>
+    <t>Solo biberon</t>
+  </si>
+  <si>
+    <t>46,7%</t>
+  </si>
+  <si>
+    <t>41,82%</t>
+  </si>
+  <si>
+    <t>53,11%</t>
+  </si>
+  <si>
+    <t>44,13%</t>
+  </si>
+  <si>
+    <t>38,63%</t>
+  </si>
+  <si>
+    <t>49,89%</t>
+  </si>
+  <si>
+    <t>45,45%</t>
+  </si>
+  <si>
+    <t>41,09%</t>
+  </si>
+  <si>
+    <t>49,46%</t>
+  </si>
+  <si>
+    <t>994.0</t>
+  </si>
+  <si>
     <t>0,0%</t>
   </si>
   <si>
@@ -86,102 +179,183 @@
     <t>0,32%</t>
   </si>
   <si>
-    <t>Pecho</t>
-  </si>
-  <si>
-    <t>30,88%</t>
-  </si>
-  <si>
-    <t>25,99%</t>
-  </si>
-  <si>
-    <t>36,37%</t>
-  </si>
-  <si>
-    <t>33,93%</t>
-  </si>
-  <si>
-    <t>29,04%</t>
-  </si>
-  <si>
-    <t>40,16%</t>
-  </si>
-  <si>
-    <t>32,36%</t>
-  </si>
-  <si>
-    <t>28,74%</t>
-  </si>
-  <si>
-    <t>36,71%</t>
-  </si>
-  <si>
-    <t>Pecho/biberon</t>
-  </si>
-  <si>
-    <t>22,42%</t>
-  </si>
-  <si>
-    <t>17,66%</t>
-  </si>
-  <si>
-    <t>26,47%</t>
-  </si>
-  <si>
-    <t>21,95%</t>
-  </si>
-  <si>
-    <t>17,27%</t>
-  </si>
-  <si>
-    <t>26,51%</t>
-  </si>
-  <si>
-    <t>22,19%</t>
-  </si>
-  <si>
-    <t>19,26%</t>
-  </si>
-  <si>
-    <t>26,01%</t>
-  </si>
-  <si>
-    <t>Solo biberon</t>
-  </si>
-  <si>
-    <t>46,7%</t>
-  </si>
-  <si>
-    <t>41,82%</t>
-  </si>
-  <si>
-    <t>53,11%</t>
-  </si>
-  <si>
-    <t>44,13%</t>
-  </si>
-  <si>
-    <t>38,63%</t>
-  </si>
-  <si>
-    <t>49,89%</t>
-  </si>
-  <si>
-    <t>45,45%</t>
-  </si>
-  <si>
-    <t>41,09%</t>
-  </si>
-  <si>
-    <t>49,46%</t>
-  </si>
-  <si>
     <t>100%</t>
   </si>
   <si>
+    <t>5/9</t>
+  </si>
+  <si>
+    <t>28,54%</t>
+  </si>
+  <si>
+    <t>23,85%</t>
+  </si>
+  <si>
+    <t>33,68%</t>
+  </si>
+  <si>
+    <t>26,81%</t>
+  </si>
+  <si>
+    <t>22,12%</t>
+  </si>
+  <si>
+    <t>32,17%</t>
+  </si>
+  <si>
+    <t>27,71%</t>
+  </si>
+  <si>
+    <t>24,18%</t>
+  </si>
+  <si>
+    <t>31,38%</t>
+  </si>
+  <si>
+    <t>26,39%</t>
+  </si>
+  <si>
+    <t>21,92%</t>
+  </si>
+  <si>
+    <t>31,84%</t>
+  </si>
+  <si>
+    <t>23,58%</t>
+  </si>
+  <si>
+    <t>18,86%</t>
+  </si>
+  <si>
+    <t>28,92%</t>
+  </si>
+  <si>
+    <t>25,04%</t>
+  </si>
+  <si>
+    <t>21,62%</t>
+  </si>
+  <si>
+    <t>28,57%</t>
+  </si>
+  <si>
+    <t>45,07%</t>
+  </si>
+  <si>
+    <t>39,78%</t>
+  </si>
+  <si>
+    <t>50,89%</t>
+  </si>
+  <si>
+    <t>49,61%</t>
+  </si>
+  <si>
+    <t>43,68%</t>
+  </si>
+  <si>
+    <t>55,49%</t>
+  </si>
+  <si>
+    <t>47,26%</t>
+  </si>
+  <si>
+    <t>43,26%</t>
+  </si>
+  <si>
+    <t>51,07%</t>
+  </si>
+  <si>
+    <t>0,59%</t>
+  </si>
+  <si>
+    <t>0,31%</t>
+  </si>
+  <si>
     <t>10/15</t>
   </si>
   <si>
+    <t>28,04%</t>
+  </si>
+  <si>
+    <t>23,77%</t>
+  </si>
+  <si>
+    <t>32,41%</t>
+  </si>
+  <si>
+    <t>33,69%</t>
+  </si>
+  <si>
+    <t>28,69%</t>
+  </si>
+  <si>
+    <t>38,44%</t>
+  </si>
+  <si>
+    <t>30,77%</t>
+  </si>
+  <si>
+    <t>27,55%</t>
+  </si>
+  <si>
+    <t>34,16%</t>
+  </si>
+  <si>
+    <t>29,55%</t>
+  </si>
+  <si>
+    <t>25,19%</t>
+  </si>
+  <si>
+    <t>34,23%</t>
+  </si>
+  <si>
+    <t>22,33%</t>
+  </si>
+  <si>
+    <t>17,91%</t>
+  </si>
+  <si>
+    <t>26,78%</t>
+  </si>
+  <si>
+    <t>26,06%</t>
+  </si>
+  <si>
+    <t>23,36%</t>
+  </si>
+  <si>
+    <t>29,12%</t>
+  </si>
+  <si>
+    <t>42,42%</t>
+  </si>
+  <si>
+    <t>37,79%</t>
+  </si>
+  <si>
+    <t>47,04%</t>
+  </si>
+  <si>
+    <t>43,98%</t>
+  </si>
+  <si>
+    <t>38,98%</t>
+  </si>
+  <si>
+    <t>49,15%</t>
+  </si>
+  <si>
+    <t>43,17%</t>
+  </si>
+  <si>
+    <t>39,56%</t>
+  </si>
+  <si>
+    <t>46,83%</t>
+  </si>
+  <si>
     <t>0,46%</t>
   </si>
   <si>
@@ -191,175 +365,82 @@
     <t>0,24%</t>
   </si>
   <si>
-    <t>28,04%</t>
-  </si>
-  <si>
-    <t>23,77%</t>
-  </si>
-  <si>
-    <t>32,41%</t>
-  </si>
-  <si>
-    <t>33,69%</t>
-  </si>
-  <si>
-    <t>28,69%</t>
-  </si>
-  <si>
-    <t>38,44%</t>
-  </si>
-  <si>
-    <t>30,77%</t>
-  </si>
-  <si>
-    <t>27,55%</t>
-  </si>
-  <si>
-    <t>34,16%</t>
-  </si>
-  <si>
-    <t>29,55%</t>
-  </si>
-  <si>
-    <t>25,19%</t>
-  </si>
-  <si>
-    <t>34,23%</t>
-  </si>
-  <si>
-    <t>22,33%</t>
-  </si>
-  <si>
-    <t>17,91%</t>
-  </si>
-  <si>
-    <t>26,78%</t>
-  </si>
-  <si>
-    <t>26,06%</t>
-  </si>
-  <si>
-    <t>23,36%</t>
-  </si>
-  <si>
-    <t>29,12%</t>
-  </si>
-  <si>
-    <t>42,42%</t>
-  </si>
-  <si>
-    <t>37,79%</t>
-  </si>
-  <si>
-    <t>47,04%</t>
-  </si>
-  <si>
-    <t>43,98%</t>
-  </si>
-  <si>
-    <t>38,98%</t>
-  </si>
-  <si>
-    <t>49,15%</t>
-  </si>
-  <si>
-    <t>43,17%</t>
-  </si>
-  <si>
-    <t>39,56%</t>
-  </si>
-  <si>
-    <t>46,83%</t>
-  </si>
-  <si>
-    <t>5/9</t>
-  </si>
-  <si>
-    <t>0,59%</t>
-  </si>
-  <si>
-    <t>0,31%</t>
-  </si>
-  <si>
-    <t>28,54%</t>
-  </si>
-  <si>
-    <t>23,85%</t>
-  </si>
-  <si>
-    <t>33,68%</t>
-  </si>
-  <si>
-    <t>26,81%</t>
-  </si>
-  <si>
-    <t>22,12%</t>
-  </si>
-  <si>
-    <t>32,17%</t>
-  </si>
-  <si>
-    <t>27,71%</t>
-  </si>
-  <si>
-    <t>24,18%</t>
-  </si>
-  <si>
-    <t>31,38%</t>
-  </si>
-  <si>
-    <t>26,39%</t>
-  </si>
-  <si>
-    <t>21,92%</t>
-  </si>
-  <si>
-    <t>31,84%</t>
-  </si>
-  <si>
-    <t>23,58%</t>
-  </si>
-  <si>
-    <t>18,86%</t>
-  </si>
-  <si>
-    <t>28,92%</t>
-  </si>
-  <si>
-    <t>25,04%</t>
-  </si>
-  <si>
-    <t>21,62%</t>
-  </si>
-  <si>
-    <t>28,57%</t>
-  </si>
-  <si>
-    <t>45,07%</t>
-  </si>
-  <si>
-    <t>39,78%</t>
-  </si>
-  <si>
-    <t>50,89%</t>
-  </si>
-  <si>
-    <t>49,61%</t>
-  </si>
-  <si>
-    <t>43,68%</t>
-  </si>
-  <si>
-    <t>55,49%</t>
-  </si>
-  <si>
-    <t>47,26%</t>
-  </si>
-  <si>
-    <t>43,26%</t>
-  </si>
-  <si>
-    <t>51,07%</t>
+    <t>29,03%</t>
+  </si>
+  <si>
+    <t>26,34%</t>
+  </si>
+  <si>
+    <t>31,88%</t>
+  </si>
+  <si>
+    <t>31,66%</t>
+  </si>
+  <si>
+    <t>28,41%</t>
+  </si>
+  <si>
+    <t>34,27%</t>
+  </si>
+  <si>
+    <t>30,3%</t>
+  </si>
+  <si>
+    <t>28,3%</t>
+  </si>
+  <si>
+    <t>32,31%</t>
+  </si>
+  <si>
+    <t>26,48%</t>
+  </si>
+  <si>
+    <t>23,86%</t>
+  </si>
+  <si>
+    <t>29,15%</t>
+  </si>
+  <si>
+    <t>22,6%</t>
+  </si>
+  <si>
+    <t>19,99%</t>
+  </si>
+  <si>
+    <t>25,2%</t>
+  </si>
+  <si>
+    <t>24,6%</t>
+  </si>
+  <si>
+    <t>22,94%</t>
+  </si>
+  <si>
+    <t>26,57%</t>
+  </si>
+  <si>
+    <t>44,5%</t>
+  </si>
+  <si>
+    <t>41,5%</t>
+  </si>
+  <si>
+    <t>47,34%</t>
+  </si>
+  <si>
+    <t>45,75%</t>
+  </si>
+  <si>
+    <t>49,08%</t>
+  </si>
+  <si>
+    <t>45,1%</t>
+  </si>
+  <si>
+    <t>42,99%</t>
+  </si>
+  <si>
+    <t>47,15%</t>
   </si>
   <si>
     <t>0,18%</t>
@@ -371,169 +452,250 @@
     <t>0,1%</t>
   </si>
   <si>
-    <t>29,03%</t>
-  </si>
-  <si>
-    <t>26,34%</t>
-  </si>
-  <si>
-    <t>31,88%</t>
-  </si>
-  <si>
-    <t>31,66%</t>
-  </si>
-  <si>
-    <t>28,41%</t>
-  </si>
-  <si>
-    <t>34,27%</t>
-  </si>
-  <si>
-    <t>30,3%</t>
-  </si>
-  <si>
-    <t>28,3%</t>
-  </si>
-  <si>
-    <t>32,31%</t>
-  </si>
-  <si>
-    <t>26,48%</t>
-  </si>
-  <si>
-    <t>23,86%</t>
-  </si>
-  <si>
-    <t>29,15%</t>
-  </si>
-  <si>
-    <t>22,6%</t>
-  </si>
-  <si>
-    <t>19,99%</t>
-  </si>
-  <si>
-    <t>25,2%</t>
-  </si>
-  <si>
-    <t>24,6%</t>
-  </si>
-  <si>
-    <t>22,94%</t>
-  </si>
-  <si>
-    <t>26,57%</t>
-  </si>
-  <si>
-    <t>44,5%</t>
-  </si>
-  <si>
-    <t>41,5%</t>
-  </si>
-  <si>
-    <t>47,34%</t>
-  </si>
-  <si>
-    <t>45,75%</t>
-  </si>
-  <si>
-    <t>49,08%</t>
-  </si>
-  <si>
-    <t>45,1%</t>
-  </si>
-  <si>
-    <t>42,99%</t>
-  </si>
-  <si>
-    <t>47,15%</t>
-  </si>
-  <si>
     <t>Menores según el tipo de lactancia recibido desde el 4º al 6º mes en 2012 (Tasa respuesta: 96,05%)</t>
   </si>
   <si>
+    <t>24,35%</t>
+  </si>
+  <si>
+    <t>19,93%</t>
+  </si>
+  <si>
+    <t>29,92%</t>
+  </si>
+  <si>
+    <t>29,1%</t>
+  </si>
+  <si>
+    <t>24,08%</t>
+  </si>
+  <si>
+    <t>34,25%</t>
+  </si>
+  <si>
+    <t>26,65%</t>
+  </si>
+  <si>
+    <t>23,44%</t>
+  </si>
+  <si>
+    <t>30,15%</t>
+  </si>
+  <si>
+    <t>27,43%</t>
+  </si>
+  <si>
+    <t>22,51%</t>
+  </si>
+  <si>
+    <t>33,06%</t>
+  </si>
+  <si>
+    <t>22,86%</t>
+  </si>
+  <si>
+    <t>18,68%</t>
+  </si>
+  <si>
+    <t>27,94%</t>
+  </si>
+  <si>
+    <t>25,22%</t>
+  </si>
+  <si>
+    <t>21,73%</t>
+  </si>
+  <si>
+    <t>28,63%</t>
+  </si>
+  <si>
+    <t>48,22%</t>
+  </si>
+  <si>
+    <t>43,03%</t>
+  </si>
+  <si>
+    <t>53,98%</t>
+  </si>
+  <si>
+    <t>48,04%</t>
+  </si>
+  <si>
+    <t>42,68%</t>
+  </si>
+  <si>
+    <t>53,67%</t>
+  </si>
+  <si>
+    <t>48,13%</t>
+  </si>
+  <si>
+    <t>44,31%</t>
+  </si>
+  <si>
+    <t>52,34%</t>
+  </si>
+  <si>
     <t>0,62%</t>
   </si>
   <si>
-    <t>24,35%</t>
-  </si>
-  <si>
-    <t>19,93%</t>
-  </si>
-  <si>
-    <t>29,92%</t>
-  </si>
-  <si>
-    <t>29,1%</t>
-  </si>
-  <si>
-    <t>24,08%</t>
-  </si>
-  <si>
-    <t>34,25%</t>
-  </si>
-  <si>
-    <t>26,65%</t>
-  </si>
-  <si>
-    <t>23,44%</t>
-  </si>
-  <si>
-    <t>30,15%</t>
-  </si>
-  <si>
-    <t>27,43%</t>
-  </si>
-  <si>
-    <t>22,51%</t>
-  </si>
-  <si>
-    <t>33,06%</t>
-  </si>
-  <si>
-    <t>22,86%</t>
-  </si>
-  <si>
-    <t>18,68%</t>
-  </si>
-  <si>
-    <t>27,94%</t>
-  </si>
-  <si>
-    <t>25,22%</t>
-  </si>
-  <si>
-    <t>21,73%</t>
-  </si>
-  <si>
-    <t>28,63%</t>
-  </si>
-  <si>
-    <t>48,22%</t>
-  </si>
-  <si>
-    <t>43,03%</t>
-  </si>
-  <si>
-    <t>53,98%</t>
-  </si>
-  <si>
-    <t>48,04%</t>
-  </si>
-  <si>
-    <t>42,68%</t>
-  </si>
-  <si>
-    <t>53,67%</t>
-  </si>
-  <si>
-    <t>48,13%</t>
-  </si>
-  <si>
-    <t>44,31%</t>
-  </si>
-  <si>
-    <t>52,34%</t>
+    <t>24,97%</t>
+  </si>
+  <si>
+    <t>20,56%</t>
+  </si>
+  <si>
+    <t>30,25%</t>
+  </si>
+  <si>
+    <t>29,0%</t>
+  </si>
+  <si>
+    <t>34,57%</t>
+  </si>
+  <si>
+    <t>26,94%</t>
+  </si>
+  <si>
+    <t>23,69%</t>
+  </si>
+  <si>
+    <t>30,59%</t>
+  </si>
+  <si>
+    <t>24,82%</t>
+  </si>
+  <si>
+    <t>19,82%</t>
+  </si>
+  <si>
+    <t>29,5%</t>
+  </si>
+  <si>
+    <t>21,27%</t>
+  </si>
+  <si>
+    <t>16,7%</t>
+  </si>
+  <si>
+    <t>23,09%</t>
+  </si>
+  <si>
+    <t>19,87%</t>
+  </si>
+  <si>
+    <t>26,3%</t>
+  </si>
+  <si>
+    <t>50,21%</t>
+  </si>
+  <si>
+    <t>45,24%</t>
+  </si>
+  <si>
+    <t>55,69%</t>
+  </si>
+  <si>
+    <t>49,73%</t>
+  </si>
+  <si>
+    <t>44,2%</t>
+  </si>
+  <si>
+    <t>55,26%</t>
+  </si>
+  <si>
+    <t>49,97%</t>
+  </si>
+  <si>
+    <t>45,93%</t>
+  </si>
+  <si>
+    <t>53,66%</t>
+  </si>
+  <si>
+    <t>0,58%</t>
+  </si>
+  <si>
+    <t>0,6%</t>
+  </si>
+  <si>
+    <t>0,29%</t>
+  </si>
+  <si>
+    <t>23,76%</t>
+  </si>
+  <si>
+    <t>28,53%</t>
+  </si>
+  <si>
+    <t>24,78%</t>
+  </si>
+  <si>
+    <t>20,03%</t>
+  </si>
+  <si>
+    <t>29,14%</t>
+  </si>
+  <si>
+    <t>24,26%</t>
+  </si>
+  <si>
+    <t>21,42%</t>
+  </si>
+  <si>
+    <t>27,37%</t>
+  </si>
+  <si>
+    <t>27,36%</t>
+  </si>
+  <si>
+    <t>22,58%</t>
+  </si>
+  <si>
+    <t>31,59%</t>
+  </si>
+  <si>
+    <t>28,82%</t>
+  </si>
+  <si>
+    <t>24,43%</t>
+  </si>
+  <si>
+    <t>33,84%</t>
+  </si>
+  <si>
+    <t>28,07%</t>
+  </si>
+  <si>
+    <t>24,75%</t>
+  </si>
+  <si>
+    <t>31,28%</t>
+  </si>
+  <si>
+    <t>48,88%</t>
+  </si>
+  <si>
+    <t>43,73%</t>
+  </si>
+  <si>
+    <t>54,06%</t>
+  </si>
+  <si>
+    <t>46,4%</t>
+  </si>
+  <si>
+    <t>41,18%</t>
+  </si>
+  <si>
+    <t>51,45%</t>
+  </si>
+  <si>
+    <t>47,67%</t>
+  </si>
+  <si>
+    <t>50,99%</t>
   </si>
   <si>
     <t>0,49%</t>
@@ -545,319 +707,235 @@
     <t>0,26%</t>
   </si>
   <si>
-    <t>23,76%</t>
-  </si>
-  <si>
-    <t>19,82%</t>
-  </si>
-  <si>
-    <t>28,53%</t>
-  </si>
-  <si>
-    <t>24,78%</t>
-  </si>
-  <si>
-    <t>20,03%</t>
-  </si>
-  <si>
-    <t>29,14%</t>
-  </si>
-  <si>
-    <t>24,26%</t>
-  </si>
-  <si>
-    <t>21,42%</t>
-  </si>
-  <si>
-    <t>27,37%</t>
-  </si>
-  <si>
-    <t>27,36%</t>
-  </si>
-  <si>
-    <t>22,58%</t>
-  </si>
-  <si>
-    <t>31,59%</t>
-  </si>
-  <si>
-    <t>28,82%</t>
-  </si>
-  <si>
-    <t>24,43%</t>
-  </si>
-  <si>
-    <t>33,84%</t>
-  </si>
-  <si>
-    <t>28,07%</t>
-  </si>
-  <si>
-    <t>24,75%</t>
-  </si>
-  <si>
-    <t>31,28%</t>
-  </si>
-  <si>
-    <t>48,88%</t>
-  </si>
-  <si>
-    <t>43,73%</t>
-  </si>
-  <si>
-    <t>54,06%</t>
-  </si>
-  <si>
-    <t>46,4%</t>
-  </si>
-  <si>
-    <t>41,18%</t>
-  </si>
-  <si>
-    <t>51,45%</t>
-  </si>
-  <si>
-    <t>47,67%</t>
-  </si>
-  <si>
-    <t>50,99%</t>
-  </si>
-  <si>
-    <t>0,58%</t>
-  </si>
-  <si>
-    <t>0,6%</t>
-  </si>
-  <si>
-    <t>0,29%</t>
-  </si>
-  <si>
-    <t>24,97%</t>
-  </si>
-  <si>
-    <t>20,56%</t>
-  </si>
-  <si>
-    <t>30,25%</t>
-  </si>
-  <si>
-    <t>29,0%</t>
-  </si>
-  <si>
-    <t>34,57%</t>
-  </si>
-  <si>
-    <t>26,94%</t>
-  </si>
-  <si>
-    <t>23,69%</t>
-  </si>
-  <si>
-    <t>30,59%</t>
-  </si>
-  <si>
-    <t>24,82%</t>
-  </si>
-  <si>
-    <t>29,5%</t>
-  </si>
-  <si>
-    <t>21,27%</t>
-  </si>
-  <si>
-    <t>16,7%</t>
-  </si>
-  <si>
-    <t>23,09%</t>
-  </si>
-  <si>
-    <t>19,87%</t>
-  </si>
-  <si>
-    <t>26,3%</t>
-  </si>
-  <si>
-    <t>50,21%</t>
-  </si>
-  <si>
-    <t>45,24%</t>
-  </si>
-  <si>
-    <t>55,69%</t>
-  </si>
-  <si>
-    <t>49,73%</t>
-  </si>
-  <si>
-    <t>44,2%</t>
-  </si>
-  <si>
-    <t>55,26%</t>
-  </si>
-  <si>
-    <t>49,97%</t>
-  </si>
-  <si>
-    <t>45,93%</t>
-  </si>
-  <si>
-    <t>53,66%</t>
+    <t>24,34%</t>
+  </si>
+  <si>
+    <t>21,74%</t>
+  </si>
+  <si>
+    <t>27,02%</t>
+  </si>
+  <si>
+    <t>27,47%</t>
+  </si>
+  <si>
+    <t>24,63%</t>
+  </si>
+  <si>
+    <t>25,86%</t>
+  </si>
+  <si>
+    <t>23,94%</t>
+  </si>
+  <si>
+    <t>27,63%</t>
+  </si>
+  <si>
+    <t>26,54%</t>
+  </si>
+  <si>
+    <t>23,96%</t>
+  </si>
+  <si>
+    <t>24,53%</t>
+  </si>
+  <si>
+    <t>21,81%</t>
+  </si>
+  <si>
+    <t>27,22%</t>
+  </si>
+  <si>
+    <t>25,56%</t>
+  </si>
+  <si>
+    <t>27,4%</t>
+  </si>
+  <si>
+    <t>49,12%</t>
+  </si>
+  <si>
+    <t>46,01%</t>
+  </si>
+  <si>
+    <t>51,91%</t>
+  </si>
+  <si>
+    <t>48,0%</t>
+  </si>
+  <si>
+    <t>44,91%</t>
+  </si>
+  <si>
+    <t>50,94%</t>
+  </si>
+  <si>
+    <t>48,57%</t>
+  </si>
+  <si>
+    <t>46,49%</t>
+  </si>
+  <si>
+    <t>51,18%</t>
   </si>
   <si>
     <t>0,19%</t>
   </si>
   <si>
-    <t>24,34%</t>
-  </si>
-  <si>
-    <t>21,74%</t>
-  </si>
-  <si>
-    <t>27,02%</t>
-  </si>
-  <si>
-    <t>27,47%</t>
-  </si>
-  <si>
-    <t>24,63%</t>
-  </si>
-  <si>
-    <t>25,86%</t>
-  </si>
-  <si>
-    <t>23,94%</t>
-  </si>
-  <si>
-    <t>27,63%</t>
-  </si>
-  <si>
-    <t>26,54%</t>
-  </si>
-  <si>
-    <t>23,96%</t>
-  </si>
-  <si>
-    <t>24,53%</t>
-  </si>
-  <si>
-    <t>21,81%</t>
-  </si>
-  <si>
-    <t>27,22%</t>
-  </si>
-  <si>
-    <t>25,56%</t>
-  </si>
-  <si>
-    <t>27,4%</t>
-  </si>
-  <si>
-    <t>49,12%</t>
-  </si>
-  <si>
-    <t>46,01%</t>
-  </si>
-  <si>
-    <t>51,91%</t>
-  </si>
-  <si>
-    <t>48,0%</t>
-  </si>
-  <si>
-    <t>44,91%</t>
-  </si>
-  <si>
-    <t>50,94%</t>
-  </si>
-  <si>
-    <t>48,57%</t>
-  </si>
-  <si>
-    <t>46,49%</t>
-  </si>
-  <si>
-    <t>51,18%</t>
-  </si>
-  <si>
     <t>Menores según el tipo de lactancia recibido desde el 4º al 6º mes en 2015 (Tasa respuesta: 95,81%)</t>
   </si>
   <si>
+    <t>27,81%</t>
+  </si>
+  <si>
+    <t>23,42%</t>
+  </si>
+  <si>
+    <t>33,08%</t>
+  </si>
+  <si>
+    <t>35,11%</t>
+  </si>
+  <si>
+    <t>40,6%</t>
+  </si>
+  <si>
+    <t>31,32%</t>
+  </si>
+  <si>
+    <t>27,12%</t>
+  </si>
+  <si>
+    <t>34,8%</t>
+  </si>
+  <si>
+    <t>27,28%</t>
+  </si>
+  <si>
+    <t>22,72%</t>
+  </si>
+  <si>
+    <t>33,29%</t>
+  </si>
+  <si>
+    <t>28,73%</t>
+  </si>
+  <si>
+    <t>23,35%</t>
+  </si>
+  <si>
+    <t>33,46%</t>
+  </si>
+  <si>
+    <t>27,98%</t>
+  </si>
+  <si>
+    <t>24,77%</t>
+  </si>
+  <si>
+    <t>32,07%</t>
+  </si>
+  <si>
+    <t>38,99%</t>
+  </si>
+  <si>
+    <t>50,51%</t>
+  </si>
+  <si>
+    <t>36,16%</t>
+  </si>
+  <si>
+    <t>31,41%</t>
+  </si>
+  <si>
+    <t>41,99%</t>
+  </si>
+  <si>
+    <t>40,7%</t>
+  </si>
+  <si>
+    <t>36,63%</t>
+  </si>
+  <si>
+    <t>44,46%</t>
+  </si>
+  <si>
     <t>0,64%</t>
   </si>
   <si>
-    <t>27,81%</t>
-  </si>
-  <si>
-    <t>23,42%</t>
-  </si>
-  <si>
-    <t>33,08%</t>
-  </si>
-  <si>
-    <t>35,11%</t>
-  </si>
-  <si>
-    <t>40,6%</t>
-  </si>
-  <si>
-    <t>31,32%</t>
-  </si>
-  <si>
-    <t>27,12%</t>
-  </si>
-  <si>
-    <t>34,8%</t>
-  </si>
-  <si>
-    <t>27,28%</t>
-  </si>
-  <si>
-    <t>22,72%</t>
-  </si>
-  <si>
-    <t>33,29%</t>
-  </si>
-  <si>
-    <t>28,73%</t>
-  </si>
-  <si>
-    <t>23,35%</t>
-  </si>
-  <si>
-    <t>33,46%</t>
-  </si>
-  <si>
-    <t>27,98%</t>
-  </si>
-  <si>
-    <t>24,77%</t>
-  </si>
-  <si>
-    <t>32,07%</t>
-  </si>
-  <si>
-    <t>38,99%</t>
-  </si>
-  <si>
-    <t>50,51%</t>
-  </si>
-  <si>
-    <t>36,16%</t>
-  </si>
-  <si>
-    <t>31,41%</t>
-  </si>
-  <si>
-    <t>41,99%</t>
-  </si>
-  <si>
-    <t>40,7%</t>
-  </si>
-  <si>
-    <t>36,63%</t>
-  </si>
-  <si>
-    <t>44,46%</t>
+    <t>33,91%</t>
+  </si>
+  <si>
+    <t>29,06%</t>
+  </si>
+  <si>
+    <t>39,05%</t>
+  </si>
+  <si>
+    <t>27,85%</t>
+  </si>
+  <si>
+    <t>22,92%</t>
+  </si>
+  <si>
+    <t>32,74%</t>
+  </si>
+  <si>
+    <t>30,97%</t>
+  </si>
+  <si>
+    <t>27,6%</t>
+  </si>
+  <si>
+    <t>34,21%</t>
+  </si>
+  <si>
+    <t>23,25%</t>
+  </si>
+  <si>
+    <t>27,35%</t>
+  </si>
+  <si>
+    <t>22,91%</t>
+  </si>
+  <si>
+    <t>32,23%</t>
+  </si>
+  <si>
+    <t>24,54%</t>
+  </si>
+  <si>
+    <t>31,3%</t>
+  </si>
+  <si>
+    <t>38,71%</t>
+  </si>
+  <si>
+    <t>33,7%</t>
+  </si>
+  <si>
+    <t>43,81%</t>
+  </si>
+  <si>
+    <t>44,79%</t>
+  </si>
+  <si>
+    <t>39,92%</t>
+  </si>
+  <si>
+    <t>50,77%</t>
+  </si>
+  <si>
+    <t>41,67%</t>
+  </si>
+  <si>
+    <t>38,13%</t>
+  </si>
+  <si>
+    <t>45,19%</t>
+  </si>
+  <si>
+    <t>0,54%</t>
   </si>
   <si>
     <t>0,27%</t>
@@ -935,159 +1013,93 @@
     <t>49,59%</t>
   </si>
   <si>
-    <t>0,54%</t>
-  </si>
-  <si>
-    <t>33,91%</t>
-  </si>
-  <si>
-    <t>29,06%</t>
-  </si>
-  <si>
-    <t>39,05%</t>
-  </si>
-  <si>
-    <t>27,85%</t>
-  </si>
-  <si>
-    <t>22,92%</t>
-  </si>
-  <si>
-    <t>32,74%</t>
-  </si>
-  <si>
-    <t>30,97%</t>
-  </si>
-  <si>
-    <t>27,6%</t>
-  </si>
-  <si>
-    <t>34,21%</t>
-  </si>
-  <si>
-    <t>23,25%</t>
-  </si>
-  <si>
-    <t>27,35%</t>
-  </si>
-  <si>
-    <t>22,91%</t>
-  </si>
-  <si>
-    <t>32,23%</t>
-  </si>
-  <si>
-    <t>24,54%</t>
-  </si>
-  <si>
-    <t>31,3%</t>
-  </si>
-  <si>
-    <t>38,71%</t>
-  </si>
-  <si>
-    <t>33,7%</t>
-  </si>
-  <si>
-    <t>43,81%</t>
-  </si>
-  <si>
-    <t>44,79%</t>
-  </si>
-  <si>
-    <t>39,92%</t>
-  </si>
-  <si>
-    <t>50,77%</t>
-  </si>
-  <si>
-    <t>41,67%</t>
-  </si>
-  <si>
-    <t>38,13%</t>
-  </si>
-  <si>
-    <t>45,19%</t>
+    <t>31,26%</t>
+  </si>
+  <si>
+    <t>28,36%</t>
+  </si>
+  <si>
+    <t>34,18%</t>
+  </si>
+  <si>
+    <t>29,79%</t>
+  </si>
+  <si>
+    <t>27,19%</t>
+  </si>
+  <si>
+    <t>32,93%</t>
+  </si>
+  <si>
+    <t>30,54%</t>
+  </si>
+  <si>
+    <t>28,58%</t>
+  </si>
+  <si>
+    <t>32,65%</t>
+  </si>
+  <si>
+    <t>23,71%</t>
+  </si>
+  <si>
+    <t>29,21%</t>
+  </si>
+  <si>
+    <t>26,42%</t>
+  </si>
+  <si>
+    <t>23,73%</t>
+  </si>
+  <si>
+    <t>29,26%</t>
+  </si>
+  <si>
+    <t>26,5%</t>
+  </si>
+  <si>
+    <t>24,58%</t>
+  </si>
+  <si>
+    <t>42,17%</t>
+  </si>
+  <si>
+    <t>39,39%</t>
+  </si>
+  <si>
+    <t>43,79%</t>
+  </si>
+  <si>
+    <t>40,81%</t>
+  </si>
+  <si>
+    <t>47,2%</t>
+  </si>
+  <si>
+    <t>42,96%</t>
+  </si>
+  <si>
+    <t>40,69%</t>
+  </si>
+  <si>
+    <t>44,96%</t>
   </si>
   <si>
     <t>0,09%</t>
   </si>
   <si>
-    <t>31,26%</t>
-  </si>
-  <si>
-    <t>28,36%</t>
-  </si>
-  <si>
-    <t>34,18%</t>
-  </si>
-  <si>
-    <t>29,79%</t>
-  </si>
-  <si>
-    <t>27,19%</t>
-  </si>
-  <si>
-    <t>32,93%</t>
-  </si>
-  <si>
-    <t>30,54%</t>
-  </si>
-  <si>
-    <t>28,58%</t>
-  </si>
-  <si>
-    <t>32,65%</t>
-  </si>
-  <si>
-    <t>23,71%</t>
-  </si>
-  <si>
-    <t>29,21%</t>
-  </si>
-  <si>
-    <t>26,42%</t>
-  </si>
-  <si>
-    <t>23,73%</t>
-  </si>
-  <si>
-    <t>29,26%</t>
-  </si>
-  <si>
-    <t>26,5%</t>
-  </si>
-  <si>
-    <t>24,58%</t>
-  </si>
-  <si>
-    <t>42,17%</t>
-  </si>
-  <si>
-    <t>39,39%</t>
-  </si>
-  <si>
-    <t>43,79%</t>
-  </si>
-  <si>
-    <t>40,81%</t>
-  </si>
-  <si>
-    <t>47,2%</t>
-  </si>
-  <si>
-    <t>42,96%</t>
-  </si>
-  <si>
-    <t>40,69%</t>
-  </si>
-  <si>
-    <t>44,96%</t>
-  </si>
-  <si>
     <t>Menores según el tipo de lactancia recibido desde el 4º al 6º mes en 2023 (Tasa respuesta: 100,0%)</t>
   </si>
   <si>
+    <t>0,84%</t>
+  </si>
+  <si>
+    <t>0,96%</t>
+  </si>
+  <si>
+    <t>0,45%</t>
+  </si>
+  <si>
     <t>100,0%</t>
   </si>
   <si>
@@ -1100,13 +1112,28 @@
     <t>99,55%</t>
   </si>
   <si>
-    <t>0,84%</t>
-  </si>
-  <si>
-    <t>0,96%</t>
-  </si>
-  <si>
-    <t>0,45%</t>
+    <t>0,71%</t>
+  </si>
+  <si>
+    <t>0,68%</t>
+  </si>
+  <si>
+    <t>0,35%</t>
+  </si>
+  <si>
+    <t>99,29%</t>
+  </si>
+  <si>
+    <t>99,32%</t>
+  </si>
+  <si>
+    <t>99,65%</t>
+  </si>
+  <si>
+    <t>0,4%</t>
+  </si>
+  <si>
+    <t>0,41%</t>
   </si>
   <si>
     <t>99,6%</t>
@@ -1116,30 +1143,6 @@
   </si>
   <si>
     <t>99,8%</t>
-  </si>
-  <si>
-    <t>0,4%</t>
-  </si>
-  <si>
-    <t>0,41%</t>
-  </si>
-  <si>
-    <t>99,29%</t>
-  </si>
-  <si>
-    <t>99,32%</t>
-  </si>
-  <si>
-    <t>99,65%</t>
-  </si>
-  <si>
-    <t>0,71%</t>
-  </si>
-  <si>
-    <t>0,68%</t>
-  </si>
-  <si>
-    <t>0,35%</t>
   </si>
   <si>
     <t>99,9%</t>
@@ -1534,7 +1537,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{659B32BB-7540-4B0F-9296-655DBD501D93}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{310AF61E-37A1-4249-9DE0-5F0ED3BD10D2}">
   <dimension ref="A1:Q23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1648,206 +1651,206 @@
       <c r="A4" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="5">
-        <v>994</v>
+      <c r="B4" s="5" t="s">
+        <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>0</v>
+        <v>95</v>
       </c>
       <c r="D4" s="7">
-        <v>0</v>
+        <v>63026</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H4" s="7">
-        <v>0</v>
+        <v>98</v>
       </c>
       <c r="I4" s="7">
-        <v>0</v>
+        <v>65687</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="M4" s="7">
-        <v>0</v>
+        <v>193</v>
       </c>
       <c r="N4" s="7">
-        <v>0</v>
+        <v>128713</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>95</v>
+        <v>68</v>
       </c>
       <c r="D5" s="7">
-        <v>63026</v>
+        <v>45771</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="H5" s="7">
-        <v>98</v>
+        <v>65</v>
       </c>
       <c r="I5" s="7">
-        <v>65687</v>
+        <v>42492</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="M5" s="7">
-        <v>193</v>
+        <v>133</v>
       </c>
       <c r="N5" s="7">
-        <v>128713</v>
+        <v>88262</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="5" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="C6" s="7">
-        <v>68</v>
+        <v>143</v>
       </c>
       <c r="D6" s="7">
-        <v>45771</v>
+        <v>95328</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="H6" s="7">
-        <v>65</v>
+        <v>132</v>
       </c>
       <c r="I6" s="7">
-        <v>42492</v>
+        <v>85439</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="M6" s="7">
-        <v>133</v>
+        <v>275</v>
       </c>
       <c r="N6" s="7">
-        <v>88262</v>
+        <v>180767</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
       <c r="B7" s="5" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="C7" s="7">
-        <v>143</v>
+        <v>0</v>
       </c>
       <c r="D7" s="7">
-        <v>95328</v>
+        <v>0</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="H7" s="7">
-        <v>132</v>
+        <v>0</v>
       </c>
       <c r="I7" s="7">
-        <v>85439</v>
+        <v>0</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="M7" s="7">
-        <v>275</v>
+        <v>0</v>
       </c>
       <c r="N7" s="7">
-        <v>180767</v>
+        <v>0</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -1862,13 +1865,13 @@
         <v>204124</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H8" s="7">
         <v>295</v>
@@ -1877,13 +1880,13 @@
         <v>193618</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="M8" s="7">
         <v>601</v>
@@ -1892,216 +1895,216 @@
         <v>397742</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="B9" s="5">
-        <v>994</v>
+        <v>47</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>10</v>
       </c>
       <c r="C9" s="7">
-        <v>0</v>
+        <v>93</v>
       </c>
       <c r="D9" s="7">
-        <v>0</v>
+        <v>61065</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>10</v>
+        <v>48</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>11</v>
+        <v>49</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="H9" s="7">
-        <v>0</v>
+        <v>79</v>
       </c>
       <c r="I9" s="7">
-        <v>0</v>
+        <v>53330</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>10</v>
+        <v>51</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>11</v>
+        <v>52</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="M9" s="7">
-        <v>0</v>
+        <v>172</v>
       </c>
       <c r="N9" s="7">
-        <v>0</v>
+        <v>114396</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>10</v>
+        <v>54</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>11</v>
+        <v>55</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1"/>
       <c r="B10" s="5" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C10" s="7">
-        <v>116</v>
+        <v>85</v>
       </c>
       <c r="D10" s="7">
-        <v>77341</v>
+        <v>56475</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>52</v>
+        <v>59</v>
       </c>
       <c r="H10" s="7">
-        <v>130</v>
+        <v>69</v>
       </c>
       <c r="I10" s="7">
-        <v>86860</v>
+        <v>46903</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>54</v>
+        <v>61</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>55</v>
+        <v>62</v>
       </c>
       <c r="M10" s="7">
-        <v>246</v>
+        <v>154</v>
       </c>
       <c r="N10" s="7">
-        <v>164201</v>
+        <v>103378</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>56</v>
+        <v>63</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>57</v>
+        <v>64</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>58</v>
+        <v>65</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="C11" s="7">
-        <v>121</v>
+        <v>146</v>
       </c>
       <c r="D11" s="7">
-        <v>81508</v>
+        <v>96449</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>59</v>
+        <v>66</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>60</v>
+        <v>67</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>61</v>
+        <v>68</v>
       </c>
       <c r="H11" s="7">
-        <v>85</v>
+        <v>147</v>
       </c>
       <c r="I11" s="7">
-        <v>57566</v>
+        <v>98668</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>62</v>
+        <v>69</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>64</v>
+        <v>71</v>
       </c>
       <c r="M11" s="7">
-        <v>206</v>
+        <v>293</v>
       </c>
       <c r="N11" s="7">
-        <v>139074</v>
+        <v>195118</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>65</v>
+        <v>72</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>67</v>
+        <v>74</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1"/>
       <c r="B12" s="5" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="C12" s="7">
-        <v>177</v>
+        <v>0</v>
       </c>
       <c r="D12" s="7">
-        <v>117020</v>
+        <v>0</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>68</v>
+        <v>41</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>69</v>
+        <v>42</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="H12" s="7">
-        <v>168</v>
+        <v>0</v>
       </c>
       <c r="I12" s="7">
-        <v>113391</v>
+        <v>0</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>71</v>
+        <v>41</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>72</v>
+        <v>42</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>73</v>
+        <v>44</v>
       </c>
       <c r="M12" s="7">
-        <v>345</v>
+        <v>0</v>
       </c>
       <c r="N12" s="7">
-        <v>230411</v>
+        <v>0</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>74</v>
+        <v>41</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>75</v>
+        <v>42</v>
       </c>
       <c r="Q12" s="7" t="s">
         <v>76</v>
@@ -2113,255 +2116,255 @@
         <v>3</v>
       </c>
       <c r="C13" s="7">
-        <v>414</v>
+        <v>324</v>
       </c>
       <c r="D13" s="7">
-        <v>275868</v>
+        <v>213989</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H13" s="7">
-        <v>383</v>
+        <v>295</v>
       </c>
       <c r="I13" s="7">
-        <v>257817</v>
+        <v>198901</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="M13" s="7">
-        <v>797</v>
+        <v>619</v>
       </c>
       <c r="N13" s="7">
-        <v>533685</v>
+        <v>412891</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="B14" s="5">
-        <v>994</v>
+      <c r="B14" s="5" t="s">
+        <v>10</v>
       </c>
       <c r="C14" s="7">
-        <v>0</v>
+        <v>116</v>
       </c>
       <c r="D14" s="7">
-        <v>0</v>
+        <v>77341</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>10</v>
+        <v>78</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>11</v>
+        <v>79</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="H14" s="7">
-        <v>0</v>
+        <v>130</v>
       </c>
       <c r="I14" s="7">
-        <v>0</v>
+        <v>86860</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>10</v>
+        <v>81</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>11</v>
+        <v>82</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>13</v>
+        <v>83</v>
       </c>
       <c r="M14" s="7">
-        <v>0</v>
+        <v>246</v>
       </c>
       <c r="N14" s="7">
-        <v>0</v>
+        <v>164201</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>10</v>
+        <v>84</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>11</v>
+        <v>85</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>79</v>
+        <v>86</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A15" s="1"/>
       <c r="B15" s="5" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C15" s="7">
+        <v>121</v>
+      </c>
+      <c r="D15" s="7">
+        <v>81508</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="H15" s="7">
+        <v>85</v>
+      </c>
+      <c r="I15" s="7">
+        <v>57566</v>
+      </c>
+      <c r="J15" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="K15" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="L15" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="M15" s="7">
+        <v>206</v>
+      </c>
+      <c r="N15" s="7">
+        <v>139074</v>
+      </c>
+      <c r="O15" s="7" t="s">
         <v>93</v>
       </c>
-      <c r="D15" s="7">
-        <v>61065</v>
-      </c>
-      <c r="E15" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>81</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>82</v>
-      </c>
-      <c r="H15" s="7">
-        <v>79</v>
-      </c>
-      <c r="I15" s="7">
-        <v>53330</v>
-      </c>
-      <c r="J15" s="7" t="s">
-        <v>83</v>
-      </c>
-      <c r="K15" s="7" t="s">
-        <v>84</v>
-      </c>
-      <c r="L15" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="M15" s="7">
-        <v>172</v>
-      </c>
-      <c r="N15" s="7">
-        <v>114396</v>
-      </c>
-      <c r="O15" s="7" t="s">
-        <v>86</v>
-      </c>
       <c r="P15" s="7" t="s">
-        <v>87</v>
+        <v>94</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>88</v>
+        <v>95</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1"/>
       <c r="B16" s="5" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="C16" s="7">
-        <v>85</v>
+        <v>177</v>
       </c>
       <c r="D16" s="7">
-        <v>56475</v>
+        <v>117020</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>89</v>
+        <v>96</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>90</v>
+        <v>97</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>91</v>
+        <v>98</v>
       </c>
       <c r="H16" s="7">
-        <v>69</v>
+        <v>168</v>
       </c>
       <c r="I16" s="7">
-        <v>46903</v>
+        <v>113391</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>92</v>
+        <v>99</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>93</v>
+        <v>100</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>94</v>
+        <v>101</v>
       </c>
       <c r="M16" s="7">
-        <v>154</v>
+        <v>345</v>
       </c>
       <c r="N16" s="7">
-        <v>103378</v>
+        <v>230411</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>95</v>
+        <v>102</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>96</v>
+        <v>103</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="C17" s="7">
-        <v>146</v>
+        <v>0</v>
       </c>
       <c r="D17" s="7">
-        <v>96449</v>
+        <v>0</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>98</v>
+        <v>41</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>99</v>
+        <v>42</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="H17" s="7">
-        <v>147</v>
+        <v>0</v>
       </c>
       <c r="I17" s="7">
-        <v>98668</v>
+        <v>0</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>101</v>
+        <v>41</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>102</v>
+        <v>42</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="M17" s="7">
-        <v>293</v>
+        <v>0</v>
       </c>
       <c r="N17" s="7">
-        <v>195118</v>
+        <v>0</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>104</v>
+        <v>41</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>105</v>
+        <v>42</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2370,255 +2373,255 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>324</v>
+        <v>414</v>
       </c>
       <c r="D18" s="7">
-        <v>213989</v>
+        <v>275868</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H18" s="7">
-        <v>295</v>
+        <v>383</v>
       </c>
       <c r="I18" s="7">
-        <v>198901</v>
+        <v>257817</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="M18" s="7">
-        <v>619</v>
+        <v>797</v>
       </c>
       <c r="N18" s="7">
-        <v>412891</v>
+        <v>533685</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B19" s="5">
-        <v>994</v>
+      <c r="B19" s="5" t="s">
+        <v>10</v>
       </c>
       <c r="C19" s="7">
-        <v>0</v>
+        <v>304</v>
       </c>
       <c r="D19" s="7">
-        <v>0</v>
+        <v>201431</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>10</v>
+        <v>108</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>11</v>
+        <v>109</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="H19" s="7">
-        <v>0</v>
+        <v>307</v>
       </c>
       <c r="I19" s="7">
-        <v>0</v>
+        <v>205878</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>10</v>
+        <v>111</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>11</v>
+        <v>112</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>108</v>
+        <v>113</v>
       </c>
       <c r="M19" s="7">
-        <v>0</v>
+        <v>611</v>
       </c>
       <c r="N19" s="7">
-        <v>0</v>
+        <v>407309</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>10</v>
+        <v>114</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>11</v>
+        <v>115</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>109</v>
+        <v>116</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="5" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C20" s="7">
-        <v>304</v>
+        <v>274</v>
       </c>
       <c r="D20" s="7">
-        <v>201431</v>
+        <v>183754</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>110</v>
+        <v>117</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>111</v>
+        <v>118</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>112</v>
+        <v>119</v>
       </c>
       <c r="H20" s="7">
-        <v>307</v>
+        <v>219</v>
       </c>
       <c r="I20" s="7">
-        <v>205878</v>
+        <v>146960</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>113</v>
+        <v>120</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>114</v>
+        <v>121</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>115</v>
+        <v>122</v>
       </c>
       <c r="M20" s="7">
-        <v>611</v>
+        <v>493</v>
       </c>
       <c r="N20" s="7">
-        <v>407309</v>
+        <v>330714</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>116</v>
+        <v>123</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>117</v>
+        <v>124</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>118</v>
+        <v>125</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A21" s="1"/>
       <c r="B21" s="5" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="C21" s="7">
-        <v>274</v>
+        <v>466</v>
       </c>
       <c r="D21" s="7">
-        <v>183754</v>
+        <v>308797</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>119</v>
+        <v>126</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>120</v>
+        <v>127</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>121</v>
+        <v>128</v>
       </c>
       <c r="H21" s="7">
-        <v>219</v>
+        <v>447</v>
       </c>
       <c r="I21" s="7">
-        <v>146960</v>
+        <v>297498</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>122</v>
+        <v>129</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>123</v>
+        <v>96</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>124</v>
+        <v>130</v>
       </c>
       <c r="M21" s="7">
-        <v>493</v>
+        <v>913</v>
       </c>
       <c r="N21" s="7">
-        <v>330714</v>
+        <v>606295</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>125</v>
+        <v>131</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>126</v>
+        <v>132</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>127</v>
+        <v>133</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1"/>
       <c r="B22" s="5" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="C22" s="7">
-        <v>466</v>
+        <v>0</v>
       </c>
       <c r="D22" s="7">
-        <v>308797</v>
+        <v>0</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>128</v>
+        <v>41</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>129</v>
+        <v>42</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="H22" s="7">
-        <v>447</v>
+        <v>0</v>
       </c>
       <c r="I22" s="7">
-        <v>297498</v>
+        <v>0</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>131</v>
+        <v>41</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>68</v>
+        <v>42</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="M22" s="7">
-        <v>913</v>
+        <v>0</v>
       </c>
       <c r="N22" s="7">
-        <v>606295</v>
+        <v>0</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>133</v>
+        <v>41</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>134</v>
+        <v>42</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2633,13 +2636,13 @@
         <v>693982</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H23" s="7">
         <v>973</v>
@@ -2648,13 +2651,13 @@
         <v>650336</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="M23" s="7">
         <v>2017</v>
@@ -2663,13 +2666,13 @@
         <v>1344318</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
   </sheetData>
@@ -2688,7 +2691,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{749D9276-6DE6-43BF-8863-ED2572D1B77F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8E08FF6F-9905-443F-B5E1-CB168074FB99}">
   <dimension ref="A1:Q23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2705,7 +2708,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2802,206 +2805,206 @@
       <c r="A4" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="5">
-        <v>994</v>
+      <c r="B4" s="5" t="s">
+        <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>0</v>
+        <v>71</v>
       </c>
       <c r="D4" s="7">
-        <v>0</v>
+        <v>52993</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>10</v>
+        <v>138</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>11</v>
+        <v>139</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="H4" s="7">
-        <v>0</v>
+        <v>87</v>
       </c>
       <c r="I4" s="7">
-        <v>0</v>
+        <v>59309</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>10</v>
+        <v>141</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>11</v>
+        <v>142</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>137</v>
+        <v>143</v>
       </c>
       <c r="M4" s="7">
-        <v>0</v>
+        <v>158</v>
       </c>
       <c r="N4" s="7">
-        <v>0</v>
+        <v>112302</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>10</v>
+        <v>144</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>11</v>
+        <v>145</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>79</v>
+        <v>146</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>71</v>
+        <v>84</v>
       </c>
       <c r="D5" s="7">
-        <v>52993</v>
+        <v>59682</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>138</v>
+        <v>147</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>139</v>
+        <v>148</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>140</v>
+        <v>149</v>
       </c>
       <c r="H5" s="7">
-        <v>87</v>
+        <v>70</v>
       </c>
       <c r="I5" s="7">
-        <v>59309</v>
+        <v>46600</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>141</v>
+        <v>150</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>142</v>
+        <v>151</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>143</v>
+        <v>152</v>
       </c>
       <c r="M5" s="7">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="N5" s="7">
-        <v>112302</v>
+        <v>106283</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>144</v>
+        <v>153</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>145</v>
+        <v>154</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>146</v>
+        <v>155</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="5" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="C6" s="7">
-        <v>84</v>
+        <v>153</v>
       </c>
       <c r="D6" s="7">
-        <v>59682</v>
+        <v>104934</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>147</v>
+        <v>156</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>148</v>
+        <v>157</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>149</v>
+        <v>158</v>
       </c>
       <c r="H6" s="7">
-        <v>70</v>
+        <v>150</v>
       </c>
       <c r="I6" s="7">
-        <v>46600</v>
+        <v>97910</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>150</v>
+        <v>159</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>151</v>
+        <v>160</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>152</v>
+        <v>161</v>
       </c>
       <c r="M6" s="7">
-        <v>154</v>
+        <v>303</v>
       </c>
       <c r="N6" s="7">
-        <v>106283</v>
+        <v>202845</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>153</v>
+        <v>162</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>154</v>
+        <v>163</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>155</v>
+        <v>164</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
       <c r="B7" s="5" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="C7" s="7">
-        <v>153</v>
+        <v>0</v>
       </c>
       <c r="D7" s="7">
-        <v>104934</v>
+        <v>0</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>156</v>
+        <v>41</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>157</v>
+        <v>42</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>158</v>
+        <v>165</v>
       </c>
       <c r="H7" s="7">
-        <v>150</v>
+        <v>0</v>
       </c>
       <c r="I7" s="7">
-        <v>97910</v>
+        <v>0</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>159</v>
+        <v>41</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>160</v>
+        <v>42</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="M7" s="7">
-        <v>303</v>
+        <v>0</v>
       </c>
       <c r="N7" s="7">
-        <v>202845</v>
+        <v>0</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>162</v>
+        <v>41</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>163</v>
+        <v>42</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>164</v>
+        <v>76</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3016,13 +3019,13 @@
         <v>217610</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H8" s="7">
         <v>307</v>
@@ -3031,13 +3034,13 @@
         <v>203820</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="M8" s="7">
         <v>615</v>
@@ -3046,216 +3049,216 @@
         <v>421430</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="B9" s="5">
-        <v>994</v>
+        <v>47</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>10</v>
       </c>
       <c r="C9" s="7">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="D9" s="7">
-        <v>0</v>
+        <v>59574</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>10</v>
+        <v>166</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>11</v>
+        <v>167</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="H9" s="7">
-        <v>0</v>
+        <v>93</v>
       </c>
       <c r="I9" s="7">
-        <v>0</v>
+        <v>66145</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>10</v>
+        <v>169</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>11</v>
+        <v>55</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="M9" s="7">
-        <v>0</v>
+        <v>173</v>
       </c>
       <c r="N9" s="7">
-        <v>0</v>
+        <v>125718</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>10</v>
+        <v>171</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>11</v>
+        <v>172</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>167</v>
+        <v>173</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1"/>
       <c r="B10" s="5" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C10" s="7">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="D10" s="7">
-        <v>63276</v>
+        <v>59215</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>168</v>
+        <v>174</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>169</v>
+        <v>175</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>170</v>
+        <v>176</v>
       </c>
       <c r="H10" s="7">
-        <v>89</v>
+        <v>66</v>
       </c>
       <c r="I10" s="7">
-        <v>62457</v>
+        <v>48513</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>171</v>
+        <v>177</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>172</v>
+        <v>178</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>173</v>
+        <v>12</v>
       </c>
       <c r="M10" s="7">
+        <v>151</v>
+      </c>
+      <c r="N10" s="7">
+        <v>107728</v>
+      </c>
+      <c r="O10" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="P10" s="7" t="s">
         <v>180</v>
       </c>
-      <c r="N10" s="7">
-        <v>125733</v>
-      </c>
-      <c r="O10" s="7" t="s">
-        <v>174</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>175</v>
-      </c>
       <c r="Q10" s="7" t="s">
-        <v>176</v>
+        <v>181</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="C11" s="7">
-        <v>110</v>
+        <v>166</v>
       </c>
       <c r="D11" s="7">
-        <v>72863</v>
+        <v>119773</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>177</v>
+        <v>182</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>178</v>
+        <v>183</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>179</v>
+        <v>184</v>
       </c>
       <c r="H11" s="7">
-        <v>103</v>
+        <v>160</v>
       </c>
       <c r="I11" s="7">
-        <v>72656</v>
+        <v>113429</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>180</v>
+        <v>185</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>181</v>
+        <v>186</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>182</v>
+        <v>187</v>
       </c>
       <c r="M11" s="7">
-        <v>213</v>
+        <v>326</v>
       </c>
       <c r="N11" s="7">
-        <v>145518</v>
+        <v>233201</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>183</v>
+        <v>188</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>184</v>
+        <v>189</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>185</v>
+        <v>190</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1"/>
       <c r="B12" s="5" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="C12" s="7">
+        <v>0</v>
+      </c>
+      <c r="D12" s="7">
+        <v>0</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="G12" s="7" t="s">
         <v>191</v>
       </c>
-      <c r="D12" s="7">
-        <v>130150</v>
-      </c>
-      <c r="E12" s="7" t="s">
-        <v>186</v>
-      </c>
-      <c r="F12" s="7" t="s">
-        <v>187</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>188</v>
-      </c>
       <c r="H12" s="7">
-        <v>167</v>
+        <v>0</v>
       </c>
       <c r="I12" s="7">
-        <v>116975</v>
+        <v>0</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>189</v>
+        <v>41</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>190</v>
+        <v>42</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="M12" s="7">
-        <v>358</v>
+        <v>0</v>
       </c>
       <c r="N12" s="7">
-        <v>247125</v>
+        <v>0</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>192</v>
+        <v>41</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>187</v>
+        <v>42</v>
       </c>
       <c r="Q12" s="7" t="s">
         <v>193</v>
@@ -3267,255 +3270,255 @@
         <v>3</v>
       </c>
       <c r="C13" s="7">
-        <v>392</v>
+        <v>331</v>
       </c>
       <c r="D13" s="7">
-        <v>266289</v>
+        <v>238561</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H13" s="7">
-        <v>359</v>
+        <v>319</v>
       </c>
       <c r="I13" s="7">
-        <v>252087</v>
+        <v>228087</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="M13" s="7">
-        <v>751</v>
+        <v>650</v>
       </c>
       <c r="N13" s="7">
-        <v>518376</v>
+        <v>466648</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="B14" s="5">
-        <v>994</v>
+      <c r="B14" s="5" t="s">
+        <v>10</v>
       </c>
       <c r="C14" s="7">
-        <v>0</v>
+        <v>91</v>
       </c>
       <c r="D14" s="7">
-        <v>0</v>
+        <v>63276</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>10</v>
+        <v>194</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>11</v>
+        <v>175</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="H14" s="7">
-        <v>0</v>
+        <v>89</v>
       </c>
       <c r="I14" s="7">
-        <v>0</v>
+        <v>62457</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>10</v>
+        <v>196</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>11</v>
+        <v>197</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="M14" s="7">
-        <v>0</v>
+        <v>180</v>
       </c>
       <c r="N14" s="7">
-        <v>0</v>
+        <v>125733</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>10</v>
+        <v>199</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>11</v>
+        <v>200</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>196</v>
+        <v>201</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A15" s="1"/>
       <c r="B15" s="5" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C15" s="7">
-        <v>80</v>
+        <v>110</v>
       </c>
       <c r="D15" s="7">
-        <v>59574</v>
+        <v>72863</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>197</v>
+        <v>202</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>198</v>
+        <v>203</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>199</v>
+        <v>204</v>
       </c>
       <c r="H15" s="7">
-        <v>93</v>
+        <v>103</v>
       </c>
       <c r="I15" s="7">
-        <v>66145</v>
+        <v>72656</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>200</v>
+        <v>205</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>87</v>
+        <v>206</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>201</v>
+        <v>207</v>
       </c>
       <c r="M15" s="7">
-        <v>173</v>
+        <v>213</v>
       </c>
       <c r="N15" s="7">
-        <v>125718</v>
+        <v>145518</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>202</v>
+        <v>208</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>203</v>
+        <v>209</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>204</v>
+        <v>210</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1"/>
       <c r="B16" s="5" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="C16" s="7">
-        <v>85</v>
+        <v>191</v>
       </c>
       <c r="D16" s="7">
-        <v>59215</v>
+        <v>130150</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>205</v>
+        <v>211</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>169</v>
+        <v>212</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>206</v>
+        <v>213</v>
       </c>
       <c r="H16" s="7">
-        <v>66</v>
+        <v>167</v>
       </c>
       <c r="I16" s="7">
-        <v>48513</v>
+        <v>116975</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>207</v>
+        <v>214</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>208</v>
+        <v>215</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>17</v>
+        <v>216</v>
       </c>
       <c r="M16" s="7">
-        <v>151</v>
+        <v>358</v>
       </c>
       <c r="N16" s="7">
-        <v>107728</v>
+        <v>247125</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>209</v>
+        <v>217</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>211</v>
+        <v>218</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="C17" s="7">
-        <v>166</v>
+        <v>0</v>
       </c>
       <c r="D17" s="7">
-        <v>119773</v>
+        <v>0</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>212</v>
+        <v>41</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>213</v>
+        <v>42</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>214</v>
+        <v>219</v>
       </c>
       <c r="H17" s="7">
-        <v>160</v>
+        <v>0</v>
       </c>
       <c r="I17" s="7">
-        <v>113429</v>
+        <v>0</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>215</v>
+        <v>41</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>216</v>
+        <v>42</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="M17" s="7">
-        <v>326</v>
+        <v>0</v>
       </c>
       <c r="N17" s="7">
-        <v>233201</v>
+        <v>0</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>218</v>
+        <v>41</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>219</v>
+        <v>42</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3524,255 +3527,255 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>331</v>
+        <v>392</v>
       </c>
       <c r="D18" s="7">
-        <v>238561</v>
+        <v>266289</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H18" s="7">
-        <v>319</v>
+        <v>359</v>
       </c>
       <c r="I18" s="7">
-        <v>228087</v>
+        <v>252087</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="M18" s="7">
-        <v>650</v>
+        <v>751</v>
       </c>
       <c r="N18" s="7">
-        <v>466648</v>
+        <v>518376</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B19" s="5">
-        <v>994</v>
+      <c r="B19" s="5" t="s">
+        <v>10</v>
       </c>
       <c r="C19" s="7">
-        <v>0</v>
+        <v>242</v>
       </c>
       <c r="D19" s="7">
-        <v>0</v>
+        <v>175843</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>10</v>
+        <v>222</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>11</v>
+        <v>223</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="H19" s="7">
-        <v>0</v>
+        <v>269</v>
       </c>
       <c r="I19" s="7">
-        <v>0</v>
+        <v>187910</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>10</v>
+        <v>225</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>11</v>
+        <v>226</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>221</v>
+        <v>114</v>
       </c>
       <c r="M19" s="7">
-        <v>0</v>
+        <v>511</v>
       </c>
       <c r="N19" s="7">
-        <v>0</v>
+        <v>363754</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>10</v>
+        <v>227</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>11</v>
+        <v>228</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>109</v>
+        <v>229</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="5" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C20" s="7">
-        <v>242</v>
+        <v>279</v>
       </c>
       <c r="D20" s="7">
-        <v>175843</v>
+        <v>191760</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>222</v>
+        <v>230</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>223</v>
+        <v>231</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>224</v>
+        <v>141</v>
       </c>
       <c r="H20" s="7">
-        <v>269</v>
+        <v>239</v>
       </c>
       <c r="I20" s="7">
-        <v>187910</v>
+        <v>167769</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>225</v>
+        <v>232</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>226</v>
+        <v>233</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>116</v>
+        <v>234</v>
       </c>
       <c r="M20" s="7">
-        <v>511</v>
+        <v>518</v>
       </c>
       <c r="N20" s="7">
-        <v>363754</v>
+        <v>359530</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>227</v>
+        <v>235</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>228</v>
+        <v>172</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>229</v>
+        <v>236</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A21" s="1"/>
       <c r="B21" s="5" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="C21" s="7">
-        <v>279</v>
+        <v>510</v>
       </c>
       <c r="D21" s="7">
-        <v>191760</v>
+        <v>354857</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>230</v>
+        <v>237</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>231</v>
+        <v>238</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>141</v>
+        <v>239</v>
       </c>
       <c r="H21" s="7">
-        <v>239</v>
+        <v>477</v>
       </c>
       <c r="I21" s="7">
-        <v>167769</v>
+        <v>328314</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>232</v>
+        <v>240</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>233</v>
+        <v>241</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>234</v>
+        <v>242</v>
       </c>
       <c r="M21" s="7">
-        <v>518</v>
+        <v>987</v>
       </c>
       <c r="N21" s="7">
-        <v>359530</v>
+        <v>683171</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>235</v>
+        <v>243</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>203</v>
+        <v>244</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>236</v>
+        <v>245</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1"/>
       <c r="B22" s="5" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="C22" s="7">
-        <v>510</v>
+        <v>0</v>
       </c>
       <c r="D22" s="7">
-        <v>354857</v>
+        <v>0</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>237</v>
+        <v>41</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>238</v>
+        <v>42</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>239</v>
+        <v>246</v>
       </c>
       <c r="H22" s="7">
-        <v>477</v>
+        <v>0</v>
       </c>
       <c r="I22" s="7">
-        <v>328314</v>
+        <v>0</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>240</v>
+        <v>41</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>241</v>
+        <v>42</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>242</v>
+        <v>246</v>
       </c>
       <c r="M22" s="7">
-        <v>987</v>
+        <v>0</v>
       </c>
       <c r="N22" s="7">
-        <v>683171</v>
+        <v>0</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>243</v>
+        <v>41</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>244</v>
+        <v>42</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>245</v>
+        <v>136</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3787,13 +3790,13 @@
         <v>722460</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H23" s="7">
         <v>985</v>
@@ -3802,13 +3805,13 @@
         <v>683994</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="M23" s="7">
         <v>2016</v>
@@ -3817,13 +3820,13 @@
         <v>1406454</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
   </sheetData>
@@ -3842,7 +3845,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F1AF3D9B-FE62-422E-BC8D-E8277948F61B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{80850BDF-FE8E-4854-B1C8-139E59DCAEAC}">
   <dimension ref="A1:Q23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3859,7 +3862,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3956,206 +3959,206 @@
       <c r="A4" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="5">
-        <v>994</v>
+      <c r="B4" s="5" t="s">
+        <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>0</v>
+        <v>82</v>
       </c>
       <c r="D4" s="7">
-        <v>0</v>
+        <v>55686</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>10</v>
+        <v>248</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>11</v>
+        <v>249</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>12</v>
+        <v>250</v>
       </c>
       <c r="H4" s="7">
-        <v>0</v>
+        <v>103</v>
       </c>
       <c r="I4" s="7">
-        <v>0</v>
+        <v>65066</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>10</v>
+        <v>251</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>11</v>
+        <v>146</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>247</v>
+        <v>252</v>
       </c>
       <c r="M4" s="7">
-        <v>0</v>
+        <v>185</v>
       </c>
       <c r="N4" s="7">
-        <v>0</v>
+        <v>120752</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>10</v>
+        <v>253</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>11</v>
+        <v>254</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>14</v>
+        <v>255</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D5" s="7">
-        <v>55686</v>
+        <v>54626</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>248</v>
+        <v>256</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>249</v>
+        <v>257</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>250</v>
+        <v>258</v>
       </c>
       <c r="H5" s="7">
-        <v>103</v>
+        <v>85</v>
       </c>
       <c r="I5" s="7">
-        <v>65066</v>
+        <v>53240</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>251</v>
+        <v>259</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>146</v>
+        <v>260</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>252</v>
+        <v>261</v>
       </c>
       <c r="M5" s="7">
-        <v>185</v>
+        <v>168</v>
       </c>
       <c r="N5" s="7">
-        <v>120752</v>
+        <v>107866</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>253</v>
+        <v>262</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>254</v>
+        <v>263</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>255</v>
+        <v>264</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="5" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="C6" s="7">
-        <v>83</v>
+        <v>137</v>
       </c>
       <c r="D6" s="7">
-        <v>54626</v>
+        <v>89916</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>256</v>
+        <v>241</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>257</v>
+        <v>265</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>258</v>
+        <v>266</v>
       </c>
       <c r="H6" s="7">
-        <v>85</v>
+        <v>113</v>
       </c>
       <c r="I6" s="7">
-        <v>53240</v>
+        <v>67007</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>259</v>
+        <v>267</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>260</v>
+        <v>268</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>261</v>
+        <v>269</v>
       </c>
       <c r="M6" s="7">
-        <v>168</v>
+        <v>250</v>
       </c>
       <c r="N6" s="7">
-        <v>107866</v>
+        <v>156923</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>262</v>
+        <v>270</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>263</v>
+        <v>271</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>264</v>
+        <v>272</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
       <c r="B7" s="5" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="C7" s="7">
-        <v>137</v>
+        <v>0</v>
       </c>
       <c r="D7" s="7">
-        <v>89916</v>
+        <v>0</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>241</v>
+        <v>41</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>265</v>
+        <v>42</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>266</v>
+        <v>43</v>
       </c>
       <c r="H7" s="7">
-        <v>113</v>
+        <v>0</v>
       </c>
       <c r="I7" s="7">
-        <v>67007</v>
+        <v>0</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>267</v>
+        <v>41</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>268</v>
+        <v>42</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="M7" s="7">
-        <v>250</v>
+        <v>0</v>
       </c>
       <c r="N7" s="7">
-        <v>156923</v>
+        <v>0</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>270</v>
+        <v>41</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>271</v>
+        <v>42</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>272</v>
+        <v>45</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4170,13 +4173,13 @@
         <v>200228</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H8" s="7">
         <v>301</v>
@@ -4185,13 +4188,13 @@
         <v>185313</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="M8" s="7">
         <v>603</v>
@@ -4200,219 +4203,219 @@
         <v>385541</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="B9" s="5">
-        <v>994</v>
+        <v>47</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>10</v>
       </c>
       <c r="C9" s="7">
-        <v>0</v>
+        <v>117</v>
       </c>
       <c r="D9" s="7">
-        <v>0</v>
+        <v>83483</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>10</v>
+        <v>274</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>11</v>
+        <v>275</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>166</v>
+        <v>276</v>
       </c>
       <c r="H9" s="7">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I9" s="7">
-        <v>0</v>
+        <v>64885</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>10</v>
+        <v>277</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>11</v>
+        <v>278</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>166</v>
+        <v>279</v>
       </c>
       <c r="M9" s="7">
-        <v>0</v>
+        <v>217</v>
       </c>
       <c r="N9" s="7">
-        <v>0</v>
+        <v>148369</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>10</v>
+        <v>280</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>11</v>
+        <v>281</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>273</v>
+        <v>282</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1"/>
       <c r="B10" s="5" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C10" s="7">
-        <v>112</v>
+        <v>98</v>
       </c>
       <c r="D10" s="7">
-        <v>83518</v>
+        <v>67383</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>274</v>
+        <v>201</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>275</v>
+        <v>283</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>276</v>
+        <v>80</v>
       </c>
       <c r="H10" s="7">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="I10" s="7">
-        <v>71655</v>
+        <v>63710</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>277</v>
+        <v>284</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>278</v>
+        <v>285</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>52</v>
+        <v>286</v>
       </c>
       <c r="M10" s="7">
-        <v>213</v>
+        <v>194</v>
       </c>
       <c r="N10" s="7">
-        <v>155173</v>
+        <v>131093</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>279</v>
+        <v>202</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>280</v>
+        <v>287</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>281</v>
+        <v>288</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="C11" s="7">
-        <v>90</v>
+        <v>142</v>
       </c>
       <c r="D11" s="7">
-        <v>67252</v>
+        <v>95295</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>282</v>
+        <v>289</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>283</v>
+        <v>290</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>284</v>
+        <v>291</v>
       </c>
       <c r="H11" s="7">
-        <v>83</v>
+        <v>160</v>
       </c>
       <c r="I11" s="7">
-        <v>61859</v>
+        <v>104346</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>285</v>
+        <v>292</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>286</v>
+        <v>293</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>94</v>
+        <v>294</v>
       </c>
       <c r="M11" s="7">
-        <v>173</v>
+        <v>302</v>
       </c>
       <c r="N11" s="7">
-        <v>129112</v>
+        <v>199641</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>287</v>
+        <v>295</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>288</v>
+        <v>296</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>50</v>
+        <v>297</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1"/>
       <c r="B12" s="5" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="C12" s="7">
-        <v>157</v>
+        <v>0</v>
       </c>
       <c r="D12" s="7">
-        <v>115176</v>
+        <v>0</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>289</v>
+        <v>41</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>290</v>
+        <v>42</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>291</v>
+        <v>298</v>
       </c>
       <c r="H12" s="7">
-        <v>178</v>
+        <v>0</v>
       </c>
       <c r="I12" s="7">
-        <v>124990</v>
+        <v>0</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>292</v>
+        <v>41</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>293</v>
+        <v>42</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>294</v>
+        <v>298</v>
       </c>
       <c r="M12" s="7">
-        <v>335</v>
+        <v>0</v>
       </c>
       <c r="N12" s="7">
-        <v>240167</v>
+        <v>0</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>295</v>
+        <v>41</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>296</v>
+        <v>42</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -4421,255 +4424,255 @@
         <v>3</v>
       </c>
       <c r="C13" s="7">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="D13" s="7">
-        <v>265946</v>
+        <v>246161</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H13" s="7">
-        <v>362</v>
+        <v>356</v>
       </c>
       <c r="I13" s="7">
-        <v>258505</v>
+        <v>232941</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="M13" s="7">
-        <v>721</v>
+        <v>713</v>
       </c>
       <c r="N13" s="7">
-        <v>524452</v>
+        <v>479103</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="B14" s="5">
-        <v>994</v>
+      <c r="B14" s="5" t="s">
+        <v>10</v>
       </c>
       <c r="C14" s="7">
-        <v>0</v>
+        <v>112</v>
       </c>
       <c r="D14" s="7">
-        <v>0</v>
+        <v>83518</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>10</v>
+        <v>300</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>11</v>
+        <v>301</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>298</v>
+        <v>302</v>
       </c>
       <c r="H14" s="7">
-        <v>0</v>
+        <v>101</v>
       </c>
       <c r="I14" s="7">
-        <v>0</v>
+        <v>71655</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>10</v>
+        <v>303</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>11</v>
+        <v>304</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>298</v>
+        <v>80</v>
       </c>
       <c r="M14" s="7">
-        <v>0</v>
+        <v>213</v>
       </c>
       <c r="N14" s="7">
-        <v>0</v>
+        <v>155173</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>10</v>
+        <v>305</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>11</v>
+        <v>306</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>273</v>
+        <v>307</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A15" s="1"/>
       <c r="B15" s="5" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C15" s="7">
-        <v>117</v>
+        <v>90</v>
       </c>
       <c r="D15" s="7">
-        <v>83483</v>
+        <v>67252</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>299</v>
+        <v>308</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>300</v>
+        <v>309</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>301</v>
+        <v>310</v>
       </c>
       <c r="H15" s="7">
-        <v>100</v>
+        <v>83</v>
       </c>
       <c r="I15" s="7">
-        <v>64885</v>
+        <v>61859</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>302</v>
+        <v>311</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>303</v>
+        <v>312</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>304</v>
+        <v>62</v>
       </c>
       <c r="M15" s="7">
-        <v>217</v>
+        <v>173</v>
       </c>
       <c r="N15" s="7">
-        <v>148369</v>
+        <v>129112</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>305</v>
+        <v>313</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>306</v>
+        <v>314</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>307</v>
+        <v>78</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1"/>
       <c r="B16" s="5" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="C16" s="7">
-        <v>98</v>
+        <v>157</v>
       </c>
       <c r="D16" s="7">
-        <v>67383</v>
+        <v>115176</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>176</v>
+        <v>315</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>308</v>
+        <v>316</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>52</v>
+        <v>317</v>
       </c>
       <c r="H16" s="7">
-        <v>96</v>
+        <v>178</v>
       </c>
       <c r="I16" s="7">
-        <v>63710</v>
+        <v>124990</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>309</v>
+        <v>318</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>310</v>
+        <v>319</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>311</v>
+        <v>320</v>
       </c>
       <c r="M16" s="7">
-        <v>194</v>
+        <v>335</v>
       </c>
       <c r="N16" s="7">
-        <v>131093</v>
+        <v>240167</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>177</v>
+        <v>321</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>312</v>
+        <v>322</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>313</v>
+        <v>323</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="C17" s="7">
-        <v>142</v>
+        <v>0</v>
       </c>
       <c r="D17" s="7">
-        <v>95295</v>
+        <v>0</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>314</v>
+        <v>41</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>315</v>
+        <v>42</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>316</v>
+        <v>220</v>
       </c>
       <c r="H17" s="7">
-        <v>160</v>
+        <v>0</v>
       </c>
       <c r="I17" s="7">
-        <v>104346</v>
+        <v>0</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>317</v>
+        <v>41</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>318</v>
+        <v>42</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>319</v>
+        <v>220</v>
       </c>
       <c r="M17" s="7">
-        <v>302</v>
+        <v>0</v>
       </c>
       <c r="N17" s="7">
-        <v>199641</v>
+        <v>0</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>320</v>
+        <v>41</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>321</v>
+        <v>42</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>322</v>
+        <v>299</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4678,255 +4681,255 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="D18" s="7">
-        <v>246161</v>
+        <v>265946</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H18" s="7">
-        <v>356</v>
+        <v>362</v>
       </c>
       <c r="I18" s="7">
-        <v>232941</v>
+        <v>258505</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="M18" s="7">
-        <v>713</v>
+        <v>721</v>
       </c>
       <c r="N18" s="7">
-        <v>479103</v>
+        <v>524452</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B19" s="5">
-        <v>994</v>
+      <c r="B19" s="5" t="s">
+        <v>10</v>
       </c>
       <c r="C19" s="7">
-        <v>0</v>
+        <v>311</v>
       </c>
       <c r="D19" s="7">
-        <v>0</v>
+        <v>222687</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>10</v>
+        <v>324</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>11</v>
+        <v>325</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>221</v>
+        <v>326</v>
       </c>
       <c r="H19" s="7">
-        <v>0</v>
+        <v>304</v>
       </c>
       <c r="I19" s="7">
-        <v>0</v>
+        <v>201607</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>10</v>
+        <v>327</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>11</v>
+        <v>328</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>221</v>
+        <v>329</v>
       </c>
       <c r="M19" s="7">
-        <v>0</v>
+        <v>615</v>
       </c>
       <c r="N19" s="7">
-        <v>0</v>
+        <v>424294</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>10</v>
+        <v>330</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>11</v>
+        <v>331</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>323</v>
+        <v>332</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="5" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C20" s="7">
-        <v>311</v>
+        <v>271</v>
       </c>
       <c r="D20" s="7">
-        <v>222687</v>
+        <v>189261</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>324</v>
+        <v>125</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>325</v>
+        <v>333</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>326</v>
+        <v>334</v>
       </c>
       <c r="H20" s="7">
-        <v>304</v>
+        <v>264</v>
       </c>
       <c r="I20" s="7">
-        <v>201607</v>
+        <v>178810</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>327</v>
+        <v>335</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>328</v>
+        <v>336</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>329</v>
+        <v>337</v>
       </c>
       <c r="M20" s="7">
-        <v>615</v>
+        <v>535</v>
       </c>
       <c r="N20" s="7">
-        <v>424294</v>
+        <v>368071</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>330</v>
+        <v>338</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>331</v>
+        <v>339</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>332</v>
+        <v>48</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A21" s="1"/>
       <c r="B21" s="5" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="C21" s="7">
-        <v>271</v>
+        <v>436</v>
       </c>
       <c r="D21" s="7">
-        <v>189261</v>
+        <v>300387</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>127</v>
+        <v>340</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>333</v>
+        <v>341</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>334</v>
+        <v>37</v>
       </c>
       <c r="H21" s="7">
-        <v>264</v>
+        <v>451</v>
       </c>
       <c r="I21" s="7">
-        <v>178810</v>
+        <v>296343</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>335</v>
+        <v>342</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>336</v>
+        <v>343</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>337</v>
+        <v>344</v>
       </c>
       <c r="M21" s="7">
-        <v>535</v>
+        <v>887</v>
       </c>
       <c r="N21" s="7">
-        <v>368071</v>
+        <v>596731</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>338</v>
+        <v>345</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>339</v>
+        <v>346</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>80</v>
+        <v>347</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1"/>
       <c r="B22" s="5" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="C22" s="7">
-        <v>436</v>
+        <v>0</v>
       </c>
       <c r="D22" s="7">
-        <v>300387</v>
+        <v>0</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>340</v>
+        <v>41</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>341</v>
+        <v>42</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>42</v>
+        <v>246</v>
       </c>
       <c r="H22" s="7">
-        <v>451</v>
+        <v>0</v>
       </c>
       <c r="I22" s="7">
-        <v>296343</v>
+        <v>0</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>342</v>
+        <v>41</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>343</v>
+        <v>42</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>344</v>
+        <v>246</v>
       </c>
       <c r="M22" s="7">
-        <v>887</v>
+        <v>0</v>
       </c>
       <c r="N22" s="7">
-        <v>596731</v>
+        <v>0</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>345</v>
+        <v>41</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>346</v>
+        <v>42</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4941,13 +4944,13 @@
         <v>712335</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H23" s="7">
         <v>1019</v>
@@ -4956,13 +4959,13 @@
         <v>676760</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="M23" s="7">
         <v>2037</v>
@@ -4971,13 +4974,13 @@
         <v>1389096</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
   </sheetData>
@@ -4996,7 +4999,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D4C3C42A-6E39-4789-8F85-43DD3968CA06}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A69BAB8F-01F9-4C54-B54E-5BA1CD03BA01}">
   <dimension ref="A1:Q23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5013,7 +5016,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5110,59 +5113,59 @@
       <c r="A4" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="5">
-        <v>994</v>
+      <c r="B4" s="5" t="s">
+        <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>227</v>
+        <v>0</v>
       </c>
       <c r="D4" s="7">
-        <v>117938</v>
+        <v>0</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>349</v>
+        <v>41</v>
       </c>
       <c r="F4" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="G4" s="7" t="s">
         <v>350</v>
       </c>
-      <c r="G4" s="7" t="s">
-        <v>45</v>
-      </c>
       <c r="H4" s="7">
-        <v>199</v>
+        <v>0</v>
       </c>
       <c r="I4" s="7">
-        <v>103803</v>
+        <v>0</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>349</v>
+        <v>41</v>
       </c>
       <c r="K4" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="L4" s="7" t="s">
         <v>351</v>
       </c>
-      <c r="L4" s="7" t="s">
-        <v>45</v>
-      </c>
       <c r="M4" s="7">
-        <v>426</v>
+        <v>0</v>
       </c>
       <c r="N4" s="7">
-        <v>221741</v>
+        <v>0</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>349</v>
+        <v>41</v>
       </c>
       <c r="P4" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q4" s="7" t="s">
         <v>352</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C5" s="7">
         <v>0</v>
@@ -5171,13 +5174,13 @@
         <v>0</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>10</v>
+        <v>41</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>11</v>
+        <v>42</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="H5" s="7">
         <v>0</v>
@@ -5186,13 +5189,13 @@
         <v>0</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>10</v>
+        <v>41</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>11</v>
+        <v>42</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="M5" s="7">
         <v>0</v>
@@ -5201,19 +5204,19 @@
         <v>0</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>10</v>
+        <v>41</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>11</v>
+        <v>42</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="5" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="C6" s="7">
         <v>0</v>
@@ -5222,13 +5225,13 @@
         <v>0</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>10</v>
+        <v>41</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>11</v>
+        <v>42</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="H6" s="7">
         <v>0</v>
@@ -5237,13 +5240,13 @@
         <v>0</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>10</v>
+        <v>41</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>11</v>
+        <v>42</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="M6" s="7">
         <v>0</v>
@@ -5252,64 +5255,64 @@
         <v>0</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>10</v>
+        <v>41</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>11</v>
+        <v>42</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
       <c r="B7" s="5" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="C7" s="7">
-        <v>0</v>
+        <v>227</v>
       </c>
       <c r="D7" s="7">
-        <v>0</v>
+        <v>117938</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>10</v>
+        <v>353</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>11</v>
+        <v>354</v>
       </c>
       <c r="G7" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="H7" s="7">
+        <v>199</v>
+      </c>
+      <c r="I7" s="7">
+        <v>103803</v>
+      </c>
+      <c r="J7" s="7" t="s">
         <v>353</v>
       </c>
-      <c r="H7" s="7">
-        <v>0</v>
-      </c>
-      <c r="I7" s="7">
-        <v>0</v>
-      </c>
-      <c r="J7" s="7" t="s">
-        <v>10</v>
-      </c>
       <c r="K7" s="7" t="s">
-        <v>11</v>
+        <v>355</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>354</v>
+        <v>46</v>
       </c>
       <c r="M7" s="7">
-        <v>0</v>
+        <v>426</v>
       </c>
       <c r="N7" s="7">
-        <v>0</v>
+        <v>221741</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>10</v>
+        <v>353</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>11</v>
+        <v>356</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>355</v>
+        <v>46</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5324,13 +5327,13 @@
         <v>117938</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H8" s="7">
         <v>199</v>
@@ -5339,13 +5342,13 @@
         <v>103803</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="M8" s="7">
         <v>426</v>
@@ -5354,72 +5357,72 @@
         <v>221741</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="B9" s="5">
-        <v>994</v>
+        <v>47</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>10</v>
       </c>
       <c r="C9" s="7">
-        <v>479</v>
+        <v>0</v>
       </c>
       <c r="D9" s="7">
-        <v>402710</v>
+        <v>0</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>349</v>
+        <v>41</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>356</v>
+        <v>42</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>45</v>
+        <v>357</v>
       </c>
       <c r="H9" s="7">
-        <v>463</v>
+        <v>0</v>
       </c>
       <c r="I9" s="7">
-        <v>351641</v>
+        <v>0</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>349</v>
+        <v>41</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>357</v>
+        <v>42</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>45</v>
+        <v>358</v>
       </c>
       <c r="M9" s="7">
-        <v>942</v>
+        <v>0</v>
       </c>
       <c r="N9" s="7">
-        <v>754351</v>
+        <v>0</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>349</v>
+        <v>41</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>358</v>
+        <v>42</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>45</v>
+        <v>359</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1"/>
       <c r="B10" s="5" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C10" s="7">
         <v>0</v>
@@ -5428,49 +5431,49 @@
         <v>0</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>10</v>
+        <v>41</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>11</v>
+        <v>42</v>
       </c>
       <c r="G10" s="7" t="s">
+        <v>357</v>
+      </c>
+      <c r="H10" s="7">
+        <v>0</v>
+      </c>
+      <c r="I10" s="7">
+        <v>0</v>
+      </c>
+      <c r="J10" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="L10" s="7" t="s">
+        <v>358</v>
+      </c>
+      <c r="M10" s="7">
+        <v>0</v>
+      </c>
+      <c r="N10" s="7">
+        <v>0</v>
+      </c>
+      <c r="O10" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="P10" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>359</v>
-      </c>
-      <c r="H10" s="7">
-        <v>0</v>
-      </c>
-      <c r="I10" s="7">
-        <v>0</v>
-      </c>
-      <c r="J10" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>360</v>
-      </c>
-      <c r="M10" s="7">
-        <v>0</v>
-      </c>
-      <c r="N10" s="7">
-        <v>0</v>
-      </c>
-      <c r="O10" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>108</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="C11" s="7">
         <v>0</v>
@@ -5479,94 +5482,94 @@
         <v>0</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>10</v>
+        <v>41</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>11</v>
+        <v>42</v>
       </c>
       <c r="G11" s="7" t="s">
+        <v>357</v>
+      </c>
+      <c r="H11" s="7">
+        <v>0</v>
+      </c>
+      <c r="I11" s="7">
+        <v>0</v>
+      </c>
+      <c r="J11" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="L11" s="7" t="s">
+        <v>358</v>
+      </c>
+      <c r="M11" s="7">
+        <v>0</v>
+      </c>
+      <c r="N11" s="7">
+        <v>0</v>
+      </c>
+      <c r="O11" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="P11" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q11" s="7" t="s">
         <v>359</v>
-      </c>
-      <c r="H11" s="7">
-        <v>0</v>
-      </c>
-      <c r="I11" s="7">
-        <v>0</v>
-      </c>
-      <c r="J11" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>360</v>
-      </c>
-      <c r="M11" s="7">
-        <v>0</v>
-      </c>
-      <c r="N11" s="7">
-        <v>0</v>
-      </c>
-      <c r="O11" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>108</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1"/>
       <c r="B12" s="5" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="C12" s="7">
-        <v>0</v>
+        <v>271</v>
       </c>
       <c r="D12" s="7">
-        <v>0</v>
+        <v>205055</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>10</v>
+        <v>353</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>11</v>
+        <v>360</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>359</v>
+        <v>46</v>
       </c>
       <c r="H12" s="7">
-        <v>0</v>
+        <v>281</v>
       </c>
       <c r="I12" s="7">
-        <v>0</v>
+        <v>198267</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>10</v>
+        <v>353</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>11</v>
+        <v>361</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>360</v>
+        <v>46</v>
       </c>
       <c r="M12" s="7">
-        <v>0</v>
+        <v>552</v>
       </c>
       <c r="N12" s="7">
-        <v>0</v>
+        <v>403323</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>10</v>
+        <v>353</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>11</v>
+        <v>362</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>108</v>
+        <v>46</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -5575,108 +5578,108 @@
         <v>3</v>
       </c>
       <c r="C13" s="7">
-        <v>479</v>
+        <v>271</v>
       </c>
       <c r="D13" s="7">
-        <v>402710</v>
+        <v>205055</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H13" s="7">
-        <v>463</v>
+        <v>281</v>
       </c>
       <c r="I13" s="7">
-        <v>351641</v>
+        <v>198267</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="M13" s="7">
-        <v>942</v>
+        <v>552</v>
       </c>
       <c r="N13" s="7">
-        <v>754351</v>
+        <v>403323</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="B14" s="5">
-        <v>994</v>
+      <c r="B14" s="5" t="s">
+        <v>10</v>
       </c>
       <c r="C14" s="7">
-        <v>271</v>
+        <v>0</v>
       </c>
       <c r="D14" s="7">
-        <v>205055</v>
+        <v>0</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>349</v>
+        <v>41</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>361</v>
+        <v>42</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>45</v>
+        <v>363</v>
       </c>
       <c r="H14" s="7">
-        <v>281</v>
+        <v>0</v>
       </c>
       <c r="I14" s="7">
-        <v>198267</v>
+        <v>0</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>349</v>
+        <v>41</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>362</v>
+        <v>42</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>45</v>
+        <v>364</v>
       </c>
       <c r="M14" s="7">
-        <v>552</v>
+        <v>0</v>
       </c>
       <c r="N14" s="7">
-        <v>403323</v>
+        <v>0</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>349</v>
+        <v>41</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>363</v>
+        <v>42</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>45</v>
+        <v>135</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A15" s="1"/>
       <c r="B15" s="5" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C15" s="7">
         <v>0</v>
@@ -5685,29 +5688,29 @@
         <v>0</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>10</v>
+        <v>41</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>11</v>
+        <v>42</v>
       </c>
       <c r="G15" s="7" t="s">
+        <v>363</v>
+      </c>
+      <c r="H15" s="7">
+        <v>0</v>
+      </c>
+      <c r="I15" s="7">
+        <v>0</v>
+      </c>
+      <c r="J15" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="K15" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="L15" s="7" t="s">
         <v>364</v>
       </c>
-      <c r="H15" s="7">
-        <v>0</v>
-      </c>
-      <c r="I15" s="7">
-        <v>0</v>
-      </c>
-      <c r="J15" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="K15" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="L15" s="7" t="s">
-        <v>365</v>
-      </c>
       <c r="M15" s="7">
         <v>0</v>
       </c>
@@ -5715,19 +5718,19 @@
         <v>0</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>10</v>
+        <v>41</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>11</v>
+        <v>42</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>366</v>
+        <v>135</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1"/>
       <c r="B16" s="5" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="C16" s="7">
         <v>0</v>
@@ -5736,29 +5739,29 @@
         <v>0</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>10</v>
+        <v>41</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>11</v>
+        <v>42</v>
       </c>
       <c r="G16" s="7" t="s">
+        <v>363</v>
+      </c>
+      <c r="H16" s="7">
+        <v>0</v>
+      </c>
+      <c r="I16" s="7">
+        <v>0</v>
+      </c>
+      <c r="J16" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="L16" s="7" t="s">
         <v>364</v>
       </c>
-      <c r="H16" s="7">
-        <v>0</v>
-      </c>
-      <c r="I16" s="7">
-        <v>0</v>
-      </c>
-      <c r="J16" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>365</v>
-      </c>
       <c r="M16" s="7">
         <v>0</v>
       </c>
@@ -5766,64 +5769,64 @@
         <v>0</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>10</v>
+        <v>41</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>11</v>
+        <v>42</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>366</v>
+        <v>135</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="C17" s="7">
-        <v>0</v>
+        <v>479</v>
       </c>
       <c r="D17" s="7">
-        <v>0</v>
+        <v>402710</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>10</v>
+        <v>353</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>11</v>
+        <v>365</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>364</v>
+        <v>46</v>
       </c>
       <c r="H17" s="7">
-        <v>0</v>
+        <v>463</v>
       </c>
       <c r="I17" s="7">
-        <v>0</v>
+        <v>351641</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>10</v>
+        <v>353</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>11</v>
+        <v>366</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>365</v>
+        <v>46</v>
       </c>
       <c r="M17" s="7">
-        <v>0</v>
+        <v>942</v>
       </c>
       <c r="N17" s="7">
-        <v>0</v>
+        <v>754351</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>10</v>
+        <v>353</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>11</v>
+        <v>367</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>366</v>
+        <v>46</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5832,108 +5835,108 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>271</v>
+        <v>479</v>
       </c>
       <c r="D18" s="7">
-        <v>205055</v>
+        <v>402710</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H18" s="7">
-        <v>281</v>
+        <v>463</v>
       </c>
       <c r="I18" s="7">
-        <v>198267</v>
+        <v>351641</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="M18" s="7">
-        <v>552</v>
+        <v>942</v>
       </c>
       <c r="N18" s="7">
-        <v>403323</v>
+        <v>754351</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B19" s="5">
-        <v>994</v>
+      <c r="B19" s="5" t="s">
+        <v>10</v>
       </c>
       <c r="C19" s="7">
-        <v>977</v>
+        <v>0</v>
       </c>
       <c r="D19" s="7">
-        <v>725704</v>
+        <v>0</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>349</v>
+        <v>41</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>358</v>
+        <v>42</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>45</v>
+        <v>135</v>
       </c>
       <c r="H19" s="7">
-        <v>943</v>
+        <v>0</v>
       </c>
       <c r="I19" s="7">
-        <v>653712</v>
+        <v>0</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>349</v>
+        <v>41</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>358</v>
+        <v>42</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>45</v>
+        <v>135</v>
       </c>
       <c r="M19" s="7">
-        <v>1920</v>
+        <v>0</v>
       </c>
       <c r="N19" s="7">
-        <v>1379416</v>
+        <v>0</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>349</v>
+        <v>41</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>367</v>
+        <v>42</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>45</v>
+        <v>136</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="5" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C20" s="7">
         <v>0</v>
@@ -5942,13 +5945,13 @@
         <v>0</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>10</v>
+        <v>41</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>11</v>
+        <v>42</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>108</v>
+        <v>135</v>
       </c>
       <c r="H20" s="7">
         <v>0</v>
@@ -5957,13 +5960,13 @@
         <v>0</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>10</v>
+        <v>41</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>11</v>
+        <v>42</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>108</v>
+        <v>135</v>
       </c>
       <c r="M20" s="7">
         <v>0</v>
@@ -5972,19 +5975,19 @@
         <v>0</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>10</v>
+        <v>41</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>11</v>
+        <v>42</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>109</v>
+        <v>136</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A21" s="1"/>
       <c r="B21" s="5" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="C21" s="7">
         <v>0</v>
@@ -5993,13 +5996,13 @@
         <v>0</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>10</v>
+        <v>41</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>11</v>
+        <v>42</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>108</v>
+        <v>135</v>
       </c>
       <c r="H21" s="7">
         <v>0</v>
@@ -6008,13 +6011,13 @@
         <v>0</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>10</v>
+        <v>41</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>11</v>
+        <v>42</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>108</v>
+        <v>135</v>
       </c>
       <c r="M21" s="7">
         <v>0</v>
@@ -6023,64 +6026,64 @@
         <v>0</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>10</v>
+        <v>41</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>11</v>
+        <v>42</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>109</v>
+        <v>136</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1"/>
       <c r="B22" s="5" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="C22" s="7">
-        <v>0</v>
+        <v>977</v>
       </c>
       <c r="D22" s="7">
-        <v>0</v>
+        <v>725704</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>10</v>
+        <v>353</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>11</v>
+        <v>367</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>108</v>
+        <v>46</v>
       </c>
       <c r="H22" s="7">
-        <v>0</v>
+        <v>943</v>
       </c>
       <c r="I22" s="7">
-        <v>0</v>
+        <v>653712</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>10</v>
+        <v>353</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>11</v>
+        <v>367</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>108</v>
+        <v>46</v>
       </c>
       <c r="M22" s="7">
-        <v>0</v>
+        <v>1920</v>
       </c>
       <c r="N22" s="7">
-        <v>0</v>
+        <v>1379416</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>10</v>
+        <v>353</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>11</v>
+        <v>368</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>109</v>
+        <v>46</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6095,13 +6098,13 @@
         <v>725704</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H23" s="7">
         <v>943</v>
@@ -6110,13 +6113,13 @@
         <v>653712</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="M23" s="7">
         <v>1920</v>
@@ -6125,13 +6128,13 @@
         <v>1379416</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/IP2904-Edad-trans_orig.xlsx
+++ b/data/trans_orig/IP2904-Edad-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8C16CA65-ACE0-4FA8-9F64-6480CE136140}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{9AAFC612-86E0-49D4-BBDA-17A3AD604FC6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{EB54088D-5DAB-41F0-8A00-523A0BA683DD}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{0CAF96AB-3B56-44D6-AF7C-8D217BAD8487}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="675" uniqueCount="407">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="675" uniqueCount="406">
   <si>
     <t>Menores según el tipo de lactancia recibido desde el 4º al 6º mes en 2007 (Tasa respuesta: 95,87%)</t>
   </si>
@@ -76,28 +76,28 @@
     <t>53,08%</t>
   </si>
   <si>
-    <t>44,9%</t>
-  </si>
-  <si>
-    <t>60,67%</t>
+    <t>44,91%</t>
+  </si>
+  <si>
+    <t>60,52%</t>
   </si>
   <si>
     <t>44,34%</t>
   </si>
   <si>
-    <t>36,03%</t>
-  </si>
-  <si>
-    <t>52,03%</t>
+    <t>36,17%</t>
+  </si>
+  <si>
+    <t>52,36%</t>
   </si>
   <si>
     <t>49,01%</t>
   </si>
   <si>
-    <t>43,25%</t>
-  </si>
-  <si>
-    <t>54,83%</t>
+    <t>43,02%</t>
+  </si>
+  <si>
+    <t>54,79%</t>
   </si>
   <si>
     <t>Pecho/biberon</t>
@@ -106,1159 +106,1156 @@
     <t>18,38%</t>
   </si>
   <si>
-    <t>13,21%</t>
+    <t>12,73%</t>
+  </si>
+  <si>
+    <t>24,58%</t>
+  </si>
+  <si>
+    <t>22,5%</t>
+  </si>
+  <si>
+    <t>16,14%</t>
+  </si>
+  <si>
+    <t>29,87%</t>
+  </si>
+  <si>
+    <t>20,3%</t>
+  </si>
+  <si>
+    <t>16,15%</t>
+  </si>
+  <si>
+    <t>25,35%</t>
+  </si>
+  <si>
+    <t>Pecho</t>
+  </si>
+  <si>
+    <t>28,53%</t>
+  </si>
+  <si>
+    <t>22,21%</t>
+  </si>
+  <si>
+    <t>36,24%</t>
+  </si>
+  <si>
+    <t>33,15%</t>
+  </si>
+  <si>
+    <t>25,41%</t>
+  </si>
+  <si>
+    <t>41,53%</t>
+  </si>
+  <si>
+    <t>30,69%</t>
+  </si>
+  <si>
+    <t>25,76%</t>
+  </si>
+  <si>
+    <t>36,2%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>3-7</t>
+  </si>
+  <si>
+    <t>41,43%</t>
+  </si>
+  <si>
+    <t>36,13%</t>
+  </si>
+  <si>
+    <t>46,35%</t>
+  </si>
+  <si>
+    <t>46,61%</t>
+  </si>
+  <si>
+    <t>41,98%</t>
+  </si>
+  <si>
+    <t>52,0%</t>
+  </si>
+  <si>
+    <t>44,01%</t>
+  </si>
+  <si>
+    <t>40,5%</t>
+  </si>
+  <si>
+    <t>47,42%</t>
+  </si>
+  <si>
+    <t>27,41%</t>
+  </si>
+  <si>
+    <t>23,2%</t>
+  </si>
+  <si>
+    <t>31,79%</t>
+  </si>
+  <si>
+    <t>23,64%</t>
+  </si>
+  <si>
+    <t>19,89%</t>
+  </si>
+  <si>
+    <t>28,25%</t>
+  </si>
+  <si>
+    <t>25,53%</t>
+  </si>
+  <si>
+    <t>22,48%</t>
+  </si>
+  <si>
+    <t>28,82%</t>
+  </si>
+  <si>
+    <t>31,16%</t>
+  </si>
+  <si>
+    <t>26,73%</t>
+  </si>
+  <si>
+    <t>36,28%</t>
+  </si>
+  <si>
+    <t>29,75%</t>
+  </si>
+  <si>
+    <t>25,57%</t>
+  </si>
+  <si>
+    <t>35,12%</t>
+  </si>
+  <si>
+    <t>30,46%</t>
+  </si>
+  <si>
+    <t>27,58%</t>
+  </si>
+  <si>
+    <t>33,86%</t>
+  </si>
+  <si>
+    <t>8-11</t>
+  </si>
+  <si>
+    <t>51,45%</t>
+  </si>
+  <si>
+    <t>44,84%</t>
+  </si>
+  <si>
+    <t>58,79%</t>
+  </si>
+  <si>
+    <t>48,83%</t>
+  </si>
+  <si>
+    <t>42,03%</t>
+  </si>
+  <si>
+    <t>56,11%</t>
+  </si>
+  <si>
+    <t>50,22%</t>
+  </si>
+  <si>
+    <t>45,63%</t>
+  </si>
+  <si>
+    <t>55,36%</t>
+  </si>
+  <si>
+    <t>27,65%</t>
+  </si>
+  <si>
+    <t>22,02%</t>
+  </si>
+  <si>
+    <t>34,3%</t>
+  </si>
+  <si>
+    <t>18,49%</t>
+  </si>
+  <si>
+    <t>13,51%</t>
+  </si>
+  <si>
+    <t>24,88%</t>
+  </si>
+  <si>
+    <t>23,33%</t>
+  </si>
+  <si>
+    <t>19,38%</t>
+  </si>
+  <si>
+    <t>27,93%</t>
+  </si>
+  <si>
+    <t>20,9%</t>
+  </si>
+  <si>
+    <t>15,36%</t>
+  </si>
+  <si>
+    <t>26,83%</t>
+  </si>
+  <si>
+    <t>32,67%</t>
+  </si>
+  <si>
+    <t>26,5%</t>
+  </si>
+  <si>
+    <t>39,7%</t>
+  </si>
+  <si>
+    <t>26,45%</t>
+  </si>
+  <si>
+    <t>22,08%</t>
+  </si>
+  <si>
+    <t>30,75%</t>
+  </si>
+  <si>
+    <t>12-15</t>
+  </si>
+  <si>
+    <t>39,13%</t>
+  </si>
+  <si>
+    <t>33,64%</t>
+  </si>
+  <si>
+    <t>44,42%</t>
+  </si>
+  <si>
+    <t>43,28%</t>
+  </si>
+  <si>
+    <t>37,37%</t>
+  </si>
+  <si>
+    <t>48,54%</t>
+  </si>
+  <si>
+    <t>41,13%</t>
+  </si>
+  <si>
+    <t>37,16%</t>
+  </si>
+  <si>
+    <t>45,06%</t>
+  </si>
+  <si>
+    <t>28,72%</t>
+  </si>
+  <si>
+    <t>24,07%</t>
+  </si>
+  <si>
+    <t>34,06%</t>
+  </si>
+  <si>
+    <t>23,94%</t>
+  </si>
+  <si>
+    <t>18,94%</t>
+  </si>
+  <si>
+    <t>29,32%</t>
+  </si>
+  <si>
+    <t>26,41%</t>
+  </si>
+  <si>
+    <t>23,02%</t>
+  </si>
+  <si>
+    <t>30,34%</t>
+  </si>
+  <si>
+    <t>32,16%</t>
+  </si>
+  <si>
+    <t>27,22%</t>
+  </si>
+  <si>
+    <t>37,22%</t>
+  </si>
+  <si>
+    <t>32,79%</t>
+  </si>
+  <si>
+    <t>27,74%</t>
+  </si>
+  <si>
+    <t>38,63%</t>
+  </si>
+  <si>
+    <t>32,46%</t>
+  </si>
+  <si>
+    <t>28,84%</t>
+  </si>
+  <si>
+    <t>36,53%</t>
+  </si>
+  <si>
+    <t>44,5%</t>
+  </si>
+  <si>
+    <t>41,63%</t>
+  </si>
+  <si>
+    <t>48,09%</t>
+  </si>
+  <si>
+    <t>45,75%</t>
+  </si>
+  <si>
+    <t>42,36%</t>
+  </si>
+  <si>
+    <t>48,86%</t>
+  </si>
+  <si>
+    <t>45,1%</t>
+  </si>
+  <si>
+    <t>42,98%</t>
+  </si>
+  <si>
+    <t>47,21%</t>
+  </si>
+  <si>
+    <t>26,48%</t>
+  </si>
+  <si>
+    <t>23,81%</t>
+  </si>
+  <si>
+    <t>29,24%</t>
+  </si>
+  <si>
+    <t>22,6%</t>
+  </si>
+  <si>
+    <t>20,06%</t>
   </si>
   <si>
     <t>25,24%</t>
   </si>
   <si>
-    <t>22,5%</t>
-  </si>
-  <si>
-    <t>16,4%</t>
-  </si>
-  <si>
-    <t>30,8%</t>
-  </si>
-  <si>
-    <t>20,3%</t>
-  </si>
-  <si>
-    <t>15,97%</t>
-  </si>
-  <si>
-    <t>25,22%</t>
-  </si>
-  <si>
-    <t>Pecho</t>
-  </si>
-  <si>
-    <t>28,53%</t>
-  </si>
-  <si>
-    <t>22,06%</t>
-  </si>
-  <si>
-    <t>35,48%</t>
-  </si>
-  <si>
-    <t>33,15%</t>
-  </si>
-  <si>
-    <t>26,34%</t>
-  </si>
-  <si>
-    <t>42,46%</t>
-  </si>
-  <si>
-    <t>30,69%</t>
-  </si>
-  <si>
-    <t>25,58%</t>
-  </si>
-  <si>
-    <t>36,15%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>3-7</t>
-  </si>
-  <si>
-    <t>41,43%</t>
-  </si>
-  <si>
-    <t>36,78%</t>
-  </si>
-  <si>
-    <t>46,53%</t>
-  </si>
-  <si>
-    <t>46,61%</t>
-  </si>
-  <si>
-    <t>41,57%</t>
-  </si>
-  <si>
-    <t>51,82%</t>
-  </si>
-  <si>
-    <t>44,01%</t>
-  </si>
-  <si>
-    <t>40,25%</t>
-  </si>
-  <si>
-    <t>47,65%</t>
-  </si>
-  <si>
-    <t>27,41%</t>
+    <t>24,6%</t>
+  </si>
+  <si>
+    <t>22,79%</t>
+  </si>
+  <si>
+    <t>26,57%</t>
+  </si>
+  <si>
+    <t>29,03%</t>
+  </si>
+  <si>
+    <t>26,04%</t>
+  </si>
+  <si>
+    <t>31,76%</t>
+  </si>
+  <si>
+    <t>31,66%</t>
+  </si>
+  <si>
+    <t>28,76%</t>
+  </si>
+  <si>
+    <t>34,84%</t>
+  </si>
+  <si>
+    <t>30,3%</t>
+  </si>
+  <si>
+    <t>28,31%</t>
+  </si>
+  <si>
+    <t>32,24%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
+  </si>
+  <si>
+    <t>Menores según el tipo de lactancia recibido desde el 4º al 6º mes en 2012 (Tasa respuesta: 96,05%)</t>
+  </si>
+  <si>
+    <t>47,25%</t>
+  </si>
+  <si>
+    <t>39,94%</t>
+  </si>
+  <si>
+    <t>54,93%</t>
+  </si>
+  <si>
+    <t>48,12%</t>
+  </si>
+  <si>
+    <t>40,91%</t>
+  </si>
+  <si>
+    <t>47,68%</t>
+  </si>
+  <si>
+    <t>42,41%</t>
+  </si>
+  <si>
+    <t>52,15%</t>
+  </si>
+  <si>
+    <t>29,01%</t>
+  </si>
+  <si>
+    <t>22,59%</t>
+  </si>
+  <si>
+    <t>36,1%</t>
+  </si>
+  <si>
+    <t>20,91%</t>
+  </si>
+  <si>
+    <t>15,37%</t>
+  </si>
+  <si>
+    <t>27,1%</t>
+  </si>
+  <si>
+    <t>24,96%</t>
+  </si>
+  <si>
+    <t>21,3%</t>
+  </si>
+  <si>
+    <t>30,08%</t>
+  </si>
+  <si>
+    <t>23,74%</t>
+  </si>
+  <si>
+    <t>17,5%</t>
+  </si>
+  <si>
+    <t>30,36%</t>
+  </si>
+  <si>
+    <t>30,96%</t>
+  </si>
+  <si>
+    <t>24,38%</t>
+  </si>
+  <si>
+    <t>38,64%</t>
+  </si>
+  <si>
+    <t>27,35%</t>
+  </si>
+  <si>
+    <t>22,84%</t>
+  </si>
+  <si>
+    <t>32,15%</t>
+  </si>
+  <si>
+    <t>49,15%</t>
+  </si>
+  <si>
+    <t>43,95%</t>
+  </si>
+  <si>
+    <t>54,39%</t>
+  </si>
+  <si>
+    <t>49,29%</t>
+  </si>
+  <si>
+    <t>44,41%</t>
+  </si>
+  <si>
+    <t>54,75%</t>
+  </si>
+  <si>
+    <t>49,22%</t>
+  </si>
+  <si>
+    <t>45,77%</t>
+  </si>
+  <si>
+    <t>53,15%</t>
+  </si>
+  <si>
+    <t>25,7%</t>
+  </si>
+  <si>
+    <t>21,59%</t>
+  </si>
+  <si>
+    <t>30,0%</t>
+  </si>
+  <si>
+    <t>25,55%</t>
+  </si>
+  <si>
+    <t>20,99%</t>
+  </si>
+  <si>
+    <t>30,16%</t>
+  </si>
+  <si>
+    <t>25,63%</t>
+  </si>
+  <si>
+    <t>22,67%</t>
+  </si>
+  <si>
+    <t>29,49%</t>
+  </si>
+  <si>
+    <t>25,14%</t>
+  </si>
+  <si>
+    <t>20,64%</t>
+  </si>
+  <si>
+    <t>29,57%</t>
+  </si>
+  <si>
+    <t>25,16%</t>
+  </si>
+  <si>
+    <t>29,99%</t>
+  </si>
+  <si>
+    <t>25,15%</t>
+  </si>
+  <si>
+    <t>21,84%</t>
+  </si>
+  <si>
+    <t>28,16%</t>
+  </si>
+  <si>
+    <t>52,26%</t>
+  </si>
+  <si>
+    <t>46,26%</t>
+  </si>
+  <si>
+    <t>58,99%</t>
+  </si>
+  <si>
+    <t>49,19%</t>
+  </si>
+  <si>
+    <t>42,7%</t>
+  </si>
+  <si>
+    <t>55,35%</t>
+  </si>
+  <si>
+    <t>50,72%</t>
+  </si>
+  <si>
+    <t>46,29%</t>
+  </si>
+  <si>
+    <t>55,66%</t>
+  </si>
+  <si>
+    <t>25,49%</t>
+  </si>
+  <si>
+    <t>20,15%</t>
+  </si>
+  <si>
+    <t>31,56%</t>
+  </si>
+  <si>
+    <t>19,61%</t>
+  </si>
+  <si>
+    <t>14,82%</t>
+  </si>
+  <si>
+    <t>24,98%</t>
+  </si>
+  <si>
+    <t>22,54%</t>
+  </si>
+  <si>
+    <t>18,58%</t>
+  </si>
+  <si>
+    <t>26,9%</t>
+  </si>
+  <si>
+    <t>22,25%</t>
+  </si>
+  <si>
+    <t>17,13%</t>
+  </si>
+  <si>
+    <t>28,63%</t>
+  </si>
+  <si>
+    <t>31,19%</t>
+  </si>
+  <si>
+    <t>25,43%</t>
+  </si>
+  <si>
+    <t>37,99%</t>
+  </si>
+  <si>
+    <t>26,74%</t>
+  </si>
+  <si>
+    <t>23,08%</t>
+  </si>
+  <si>
+    <t>31,18%</t>
+  </si>
+  <si>
+    <t>47,62%</t>
+  </si>
+  <si>
+    <t>41,28%</t>
+  </si>
+  <si>
+    <t>53,55%</t>
+  </si>
+  <si>
+    <t>44,98%</t>
+  </si>
+  <si>
+    <t>39,33%</t>
+  </si>
+  <si>
+    <t>51,69%</t>
+  </si>
+  <si>
+    <t>46,33%</t>
+  </si>
+  <si>
+    <t>42,39%</t>
+  </si>
+  <si>
+    <t>50,8%</t>
+  </si>
+  <si>
+    <t>26,98%</t>
+  </si>
+  <si>
+    <t>22,16%</t>
+  </si>
+  <si>
+    <t>30,43%</t>
+  </si>
+  <si>
+    <t>24,48%</t>
+  </si>
+  <si>
+    <t>36,44%</t>
+  </si>
+  <si>
+    <t>28,66%</t>
+  </si>
+  <si>
+    <t>24,64%</t>
+  </si>
+  <si>
+    <t>32,6%</t>
+  </si>
+  <si>
+    <t>25,4%</t>
+  </si>
+  <si>
+    <t>20,32%</t>
+  </si>
+  <si>
+    <t>31,2%</t>
+  </si>
+  <si>
+    <t>24,59%</t>
+  </si>
+  <si>
+    <t>19,74%</t>
+  </si>
+  <si>
+    <t>30,72%</t>
+  </si>
+  <si>
+    <t>25,01%</t>
+  </si>
+  <si>
+    <t>21,15%</t>
+  </si>
+  <si>
+    <t>28,77%</t>
+  </si>
+  <si>
+    <t>49,12%</t>
+  </si>
+  <si>
+    <t>46,31%</t>
+  </si>
+  <si>
+    <t>52,45%</t>
+  </si>
+  <si>
+    <t>48,0%</t>
+  </si>
+  <si>
+    <t>51,1%</t>
+  </si>
+  <si>
+    <t>48,57%</t>
+  </si>
+  <si>
+    <t>46,43%</t>
+  </si>
+  <si>
+    <t>50,62%</t>
+  </si>
+  <si>
+    <t>26,54%</t>
+  </si>
+  <si>
+    <t>23,68%</t>
+  </si>
+  <si>
+    <t>29,16%</t>
+  </si>
+  <si>
+    <t>24,53%</t>
+  </si>
+  <si>
+    <t>21,85%</t>
+  </si>
+  <si>
+    <t>27,43%</t>
+  </si>
+  <si>
+    <t>25,56%</t>
+  </si>
+  <si>
+    <t>23,84%</t>
+  </si>
+  <si>
+    <t>27,4%</t>
+  </si>
+  <si>
+    <t>24,34%</t>
+  </si>
+  <si>
+    <t>21,68%</t>
+  </si>
+  <si>
+    <t>27,25%</t>
+  </si>
+  <si>
+    <t>27,47%</t>
+  </si>
+  <si>
+    <t>24,78%</t>
+  </si>
+  <si>
+    <t>30,41%</t>
+  </si>
+  <si>
+    <t>25,86%</t>
+  </si>
+  <si>
+    <t>23,85%</t>
+  </si>
+  <si>
+    <t>27,82%</t>
+  </si>
+  <si>
+    <t>Menores según el tipo de lactancia recibido desde el 4º al 6º mes en 2016 (Tasa respuesta: 95,81%)</t>
+  </si>
+  <si>
+    <t>45,82%</t>
+  </si>
+  <si>
+    <t>38,57%</t>
+  </si>
+  <si>
+    <t>53,37%</t>
+  </si>
+  <si>
+    <t>34,68%</t>
+  </si>
+  <si>
+    <t>28,23%</t>
+  </si>
+  <si>
+    <t>42,14%</t>
+  </si>
+  <si>
+    <t>40,14%</t>
+  </si>
+  <si>
+    <t>35,19%</t>
+  </si>
+  <si>
+    <t>45,23%</t>
+  </si>
+  <si>
+    <t>27,46%</t>
+  </si>
+  <si>
+    <t>34,78%</t>
+  </si>
+  <si>
+    <t>20,95%</t>
+  </si>
+  <si>
+    <t>34,39%</t>
+  </si>
+  <si>
+    <t>27,28%</t>
+  </si>
+  <si>
+    <t>22,64%</t>
+  </si>
+  <si>
+    <t>20,35%</t>
+  </si>
+  <si>
+    <t>34,27%</t>
+  </si>
+  <si>
+    <t>38,22%</t>
+  </si>
+  <si>
+    <t>31,17%</t>
+  </si>
+  <si>
+    <t>46,27%</t>
+  </si>
+  <si>
+    <t>32,59%</t>
+  </si>
+  <si>
+    <t>27,79%</t>
+  </si>
+  <si>
+    <t>37,9%</t>
+  </si>
+  <si>
+    <t>39,41%</t>
+  </si>
+  <si>
+    <t>34,75%</t>
+  </si>
+  <si>
+    <t>44,66%</t>
+  </si>
+  <si>
+    <t>42,64%</t>
+  </si>
+  <si>
+    <t>37,44%</t>
+  </si>
+  <si>
+    <t>47,94%</t>
+  </si>
+  <si>
+    <t>40,86%</t>
+  </si>
+  <si>
+    <t>36,99%</t>
+  </si>
+  <si>
+    <t>44,26%</t>
+  </si>
+  <si>
+    <t>28,39%</t>
+  </si>
+  <si>
+    <t>23,25%</t>
+  </si>
+  <si>
+    <t>32,64%</t>
+  </si>
+  <si>
+    <t>26,85%</t>
+  </si>
+  <si>
+    <t>32,28%</t>
+  </si>
+  <si>
+    <t>27,69%</t>
+  </si>
+  <si>
+    <t>24,51%</t>
+  </si>
+  <si>
+    <t>30,98%</t>
+  </si>
+  <si>
+    <t>32,21%</t>
+  </si>
+  <si>
+    <t>27,62%</t>
+  </si>
+  <si>
+    <t>37,41%</t>
+  </si>
+  <si>
+    <t>30,51%</t>
+  </si>
+  <si>
+    <t>25,72%</t>
+  </si>
+  <si>
+    <t>35,66%</t>
+  </si>
+  <si>
+    <t>31,44%</t>
+  </si>
+  <si>
+    <t>28,0%</t>
+  </si>
+  <si>
+    <t>34,81%</t>
+  </si>
+  <si>
+    <t>40,72%</t>
+  </si>
+  <si>
+    <t>35,21%</t>
+  </si>
+  <si>
+    <t>47,13%</t>
+  </si>
+  <si>
+    <t>44,79%</t>
+  </si>
+  <si>
+    <t>38,92%</t>
+  </si>
+  <si>
+    <t>50,74%</t>
+  </si>
+  <si>
+    <t>42,76%</t>
+  </si>
+  <si>
+    <t>38,38%</t>
+  </si>
+  <si>
+    <t>47,08%</t>
+  </si>
+  <si>
+    <t>22,72%</t>
+  </si>
+  <si>
+    <t>18,03%</t>
+  </si>
+  <si>
+    <t>28,32%</t>
+  </si>
+  <si>
+    <t>30,14%</t>
+  </si>
+  <si>
+    <t>24,91%</t>
+  </si>
+  <si>
+    <t>22,8%</t>
+  </si>
+  <si>
+    <t>30,99%</t>
+  </si>
+  <si>
+    <t>36,57%</t>
+  </si>
+  <si>
+    <t>30,04%</t>
+  </si>
+  <si>
+    <t>42,02%</t>
+  </si>
+  <si>
+    <t>25,07%</t>
+  </si>
+  <si>
+    <t>19,69%</t>
+  </si>
+  <si>
+    <t>30,39%</t>
+  </si>
+  <si>
+    <t>30,79%</t>
+  </si>
+  <si>
+    <t>26,89%</t>
+  </si>
+  <si>
+    <t>35,11%</t>
+  </si>
+  <si>
+    <t>45,67%</t>
+  </si>
+  <si>
+    <t>39,48%</t>
+  </si>
+  <si>
+    <t>52,93%</t>
+  </si>
+  <si>
+    <t>50,51%</t>
+  </si>
+  <si>
+    <t>43,83%</t>
+  </si>
+  <si>
+    <t>57,0%</t>
+  </si>
+  <si>
+    <t>43,37%</t>
+  </si>
+  <si>
+    <t>53,02%</t>
+  </si>
+  <si>
+    <t>27,48%</t>
+  </si>
+  <si>
+    <t>21,96%</t>
+  </si>
+  <si>
+    <t>33,72%</t>
+  </si>
+  <si>
+    <t>21,22%</t>
+  </si>
+  <si>
+    <t>16,51%</t>
+  </si>
+  <si>
+    <t>24,31%</t>
+  </si>
+  <si>
+    <t>20,27%</t>
+  </si>
+  <si>
+    <t>28,47%</t>
+  </si>
+  <si>
+    <t>20,96%</t>
+  </si>
+  <si>
+    <t>33,06%</t>
+  </si>
+  <si>
+    <t>28,27%</t>
+  </si>
+  <si>
+    <t>23,1%</t>
+  </si>
+  <si>
+    <t>34,13%</t>
+  </si>
+  <si>
+    <t>27,57%</t>
   </si>
   <si>
     <t>23,3%</t>
   </si>
   <si>
-    <t>31,96%</t>
-  </si>
-  <si>
-    <t>23,64%</t>
-  </si>
-  <si>
-    <t>19,53%</t>
-  </si>
-  <si>
-    <t>28,22%</t>
-  </si>
-  <si>
-    <t>25,53%</t>
-  </si>
-  <si>
-    <t>22,65%</t>
-  </si>
-  <si>
-    <t>28,76%</t>
-  </si>
-  <si>
-    <t>31,16%</t>
-  </si>
-  <si>
-    <t>26,7%</t>
-  </si>
-  <si>
-    <t>35,64%</t>
-  </si>
-  <si>
-    <t>29,75%</t>
-  </si>
-  <si>
-    <t>25,1%</t>
-  </si>
-  <si>
-    <t>34,56%</t>
-  </si>
-  <si>
-    <t>30,46%</t>
-  </si>
-  <si>
-    <t>27,23%</t>
-  </si>
-  <si>
-    <t>33,64%</t>
-  </si>
-  <si>
-    <t>8-11</t>
-  </si>
-  <si>
-    <t>51,45%</t>
-  </si>
-  <si>
-    <t>44,74%</t>
-  </si>
-  <si>
-    <t>58,18%</t>
-  </si>
-  <si>
-    <t>48,83%</t>
-  </si>
-  <si>
-    <t>41,37%</t>
-  </si>
-  <si>
-    <t>55,77%</t>
-  </si>
-  <si>
-    <t>50,22%</t>
-  </si>
-  <si>
-    <t>45,29%</t>
-  </si>
-  <si>
-    <t>55,41%</t>
-  </si>
-  <si>
-    <t>27,65%</t>
-  </si>
-  <si>
-    <t>21,93%</t>
-  </si>
-  <si>
-    <t>33,87%</t>
-  </si>
-  <si>
-    <t>18,49%</t>
-  </si>
-  <si>
-    <t>13,07%</t>
-  </si>
-  <si>
-    <t>24,81%</t>
-  </si>
-  <si>
-    <t>23,33%</t>
-  </si>
-  <si>
-    <t>19,43%</t>
-  </si>
-  <si>
-    <t>27,83%</t>
-  </si>
-  <si>
-    <t>20,9%</t>
-  </si>
-  <si>
-    <t>15,86%</t>
-  </si>
-  <si>
-    <t>26,65%</t>
-  </si>
-  <si>
-    <t>32,67%</t>
-  </si>
-  <si>
-    <t>26,03%</t>
-  </si>
-  <si>
-    <t>39,56%</t>
-  </si>
-  <si>
-    <t>26,45%</t>
-  </si>
-  <si>
-    <t>22,14%</t>
-  </si>
-  <si>
-    <t>31,0%</t>
-  </si>
-  <si>
-    <t>12-15</t>
-  </si>
-  <si>
-    <t>39,13%</t>
-  </si>
-  <si>
-    <t>33,67%</t>
-  </si>
-  <si>
-    <t>44,35%</t>
-  </si>
-  <si>
-    <t>43,28%</t>
-  </si>
-  <si>
-    <t>37,81%</t>
-  </si>
-  <si>
-    <t>49,16%</t>
-  </si>
-  <si>
-    <t>41,13%</t>
-  </si>
-  <si>
-    <t>37,2%</t>
-  </si>
-  <si>
-    <t>45,33%</t>
-  </si>
-  <si>
-    <t>28,72%</t>
-  </si>
-  <si>
-    <t>23,91%</t>
-  </si>
-  <si>
-    <t>33,85%</t>
-  </si>
-  <si>
-    <t>23,94%</t>
-  </si>
-  <si>
-    <t>19,39%</t>
-  </si>
-  <si>
-    <t>29,83%</t>
-  </si>
-  <si>
-    <t>26,41%</t>
-  </si>
-  <si>
-    <t>23,14%</t>
-  </si>
-  <si>
-    <t>30,2%</t>
-  </si>
-  <si>
-    <t>32,16%</t>
-  </si>
-  <si>
-    <t>27,07%</t>
-  </si>
-  <si>
-    <t>37,39%</t>
-  </si>
-  <si>
-    <t>32,79%</t>
-  </si>
-  <si>
-    <t>27,97%</t>
-  </si>
-  <si>
-    <t>38,54%</t>
-  </si>
-  <si>
-    <t>32,46%</t>
-  </si>
-  <si>
-    <t>28,75%</t>
-  </si>
-  <si>
-    <t>36,36%</t>
-  </si>
-  <si>
-    <t>44,5%</t>
-  </si>
-  <si>
-    <t>47,46%</t>
-  </si>
-  <si>
-    <t>45,75%</t>
-  </si>
-  <si>
-    <t>42,81%</t>
-  </si>
-  <si>
-    <t>48,96%</t>
-  </si>
-  <si>
-    <t>45,1%</t>
-  </si>
-  <si>
-    <t>42,9%</t>
-  </si>
-  <si>
-    <t>47,27%</t>
-  </si>
-  <si>
-    <t>26,48%</t>
-  </si>
-  <si>
-    <t>29,17%</t>
-  </si>
-  <si>
-    <t>22,6%</t>
-  </si>
-  <si>
-    <t>19,9%</t>
-  </si>
-  <si>
-    <t>25,25%</t>
-  </si>
-  <si>
-    <t>24,6%</t>
-  </si>
-  <si>
-    <t>22,76%</t>
-  </si>
-  <si>
-    <t>26,46%</t>
-  </si>
-  <si>
-    <t>29,03%</t>
-  </si>
-  <si>
-    <t>26,5%</t>
-  </si>
-  <si>
-    <t>31,9%</t>
-  </si>
-  <si>
-    <t>31,66%</t>
-  </si>
-  <si>
-    <t>28,84%</t>
-  </si>
-  <si>
-    <t>34,43%</t>
-  </si>
-  <si>
-    <t>30,3%</t>
-  </si>
-  <si>
-    <t>28,33%</t>
-  </si>
-  <si>
-    <t>32,29%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
-  </si>
-  <si>
-    <t>Menores según el tipo de lactancia recibido desde el 4º al 6º mes en 2012 (Tasa respuesta: 96,05%)</t>
-  </si>
-  <si>
-    <t>47,25%</t>
+    <t>31,83%</t>
+  </si>
+  <si>
+    <t>42,17%</t>
   </si>
   <si>
     <t>39,23%</t>
   </si>
   <si>
-    <t>54,35%</t>
-  </si>
-  <si>
-    <t>48,12%</t>
-  </si>
-  <si>
-    <t>40,66%</t>
-  </si>
-  <si>
-    <t>55,37%</t>
-  </si>
-  <si>
-    <t>47,68%</t>
-  </si>
-  <si>
-    <t>42,72%</t>
-  </si>
-  <si>
-    <t>52,83%</t>
-  </si>
-  <si>
-    <t>29,01%</t>
-  </si>
-  <si>
-    <t>22,66%</t>
-  </si>
-  <si>
-    <t>36,66%</t>
-  </si>
-  <si>
-    <t>20,91%</t>
-  </si>
-  <si>
-    <t>15,19%</t>
-  </si>
-  <si>
-    <t>27,27%</t>
-  </si>
-  <si>
-    <t>24,96%</t>
-  </si>
-  <si>
-    <t>20,6%</t>
-  </si>
-  <si>
-    <t>29,16%</t>
-  </si>
-  <si>
-    <t>23,74%</t>
-  </si>
-  <si>
-    <t>17,89%</t>
-  </si>
-  <si>
-    <t>30,9%</t>
-  </si>
-  <si>
-    <t>30,96%</t>
-  </si>
-  <si>
-    <t>24,22%</t>
-  </si>
-  <si>
-    <t>37,82%</t>
-  </si>
-  <si>
-    <t>27,35%</t>
-  </si>
-  <si>
-    <t>22,83%</t>
-  </si>
-  <si>
-    <t>32,05%</t>
-  </si>
-  <si>
-    <t>49,15%</t>
-  </si>
-  <si>
-    <t>44,16%</t>
-  </si>
-  <si>
-    <t>54,61%</t>
-  </si>
-  <si>
-    <t>49,29%</t>
-  </si>
-  <si>
-    <t>43,91%</t>
-  </si>
-  <si>
-    <t>54,47%</t>
-  </si>
-  <si>
-    <t>49,22%</t>
-  </si>
-  <si>
-    <t>45,35%</t>
-  </si>
-  <si>
-    <t>52,76%</t>
-  </si>
-  <si>
-    <t>25,7%</t>
-  </si>
-  <si>
-    <t>21,58%</t>
-  </si>
-  <si>
-    <t>30,4%</t>
-  </si>
-  <si>
-    <t>25,55%</t>
-  </si>
-  <si>
-    <t>21,24%</t>
-  </si>
-  <si>
-    <t>30,77%</t>
-  </si>
-  <si>
-    <t>25,63%</t>
-  </si>
-  <si>
-    <t>22,64%</t>
-  </si>
-  <si>
-    <t>28,96%</t>
-  </si>
-  <si>
-    <t>25,14%</t>
-  </si>
-  <si>
-    <t>20,32%</t>
+    <t>45,11%</t>
+  </si>
+  <si>
+    <t>43,79%</t>
+  </si>
+  <si>
+    <t>40,48%</t>
+  </si>
+  <si>
+    <t>46,8%</t>
+  </si>
+  <si>
+    <t>42,96%</t>
+  </si>
+  <si>
+    <t>40,8%</t>
+  </si>
+  <si>
+    <t>45,04%</t>
+  </si>
+  <si>
+    <t>23,98%</t>
+  </si>
+  <si>
+    <t>29,43%</t>
+  </si>
+  <si>
+    <t>26,42%</t>
+  </si>
+  <si>
+    <t>23,82%</t>
+  </si>
+  <si>
+    <t>29,48%</t>
+  </si>
+  <si>
+    <t>24,74%</t>
+  </si>
+  <si>
+    <t>28,68%</t>
+  </si>
+  <si>
+    <t>31,26%</t>
+  </si>
+  <si>
+    <t>34,23%</t>
   </si>
   <si>
     <t>29,79%</t>
   </si>
   <si>
-    <t>25,16%</t>
-  </si>
-  <si>
-    <t>21,13%</t>
-  </si>
-  <si>
-    <t>30,74%</t>
-  </si>
-  <si>
-    <t>25,15%</t>
-  </si>
-  <si>
-    <t>22,16%</t>
-  </si>
-  <si>
-    <t>28,65%</t>
-  </si>
-  <si>
-    <t>52,26%</t>
-  </si>
-  <si>
-    <t>45,68%</t>
-  </si>
-  <si>
-    <t>58,55%</t>
-  </si>
-  <si>
-    <t>49,19%</t>
-  </si>
-  <si>
-    <t>42,39%</t>
-  </si>
-  <si>
-    <t>56,12%</t>
-  </si>
-  <si>
-    <t>50,72%</t>
-  </si>
-  <si>
-    <t>46,1%</t>
-  </si>
-  <si>
-    <t>55,46%</t>
-  </si>
-  <si>
-    <t>25,49%</t>
-  </si>
-  <si>
-    <t>20,15%</t>
-  </si>
-  <si>
-    <t>31,03%</t>
-  </si>
-  <si>
-    <t>19,61%</t>
-  </si>
-  <si>
-    <t>14,88%</t>
-  </si>
-  <si>
-    <t>25,41%</t>
-  </si>
-  <si>
-    <t>22,54%</t>
-  </si>
-  <si>
-    <t>18,72%</t>
-  </si>
-  <si>
-    <t>26,64%</t>
-  </si>
-  <si>
-    <t>22,25%</t>
-  </si>
-  <si>
-    <t>17,23%</t>
-  </si>
-  <si>
-    <t>27,94%</t>
-  </si>
-  <si>
-    <t>31,19%</t>
-  </si>
-  <si>
-    <t>25,72%</t>
-  </si>
-  <si>
-    <t>37,62%</t>
-  </si>
-  <si>
-    <t>26,74%</t>
-  </si>
-  <si>
-    <t>22,29%</t>
-  </si>
-  <si>
-    <t>30,82%</t>
-  </si>
-  <si>
-    <t>47,62%</t>
-  </si>
-  <si>
-    <t>40,96%</t>
-  </si>
-  <si>
-    <t>54,0%</t>
-  </si>
-  <si>
-    <t>44,98%</t>
-  </si>
-  <si>
-    <t>38,35%</t>
-  </si>
-  <si>
-    <t>51,32%</t>
-  </si>
-  <si>
-    <t>46,33%</t>
-  </si>
-  <si>
-    <t>41,88%</t>
-  </si>
-  <si>
-    <t>51,16%</t>
-  </si>
-  <si>
-    <t>26,98%</t>
-  </si>
-  <si>
-    <t>21,06%</t>
-  </si>
-  <si>
-    <t>32,91%</t>
-  </si>
-  <si>
-    <t>30,43%</t>
-  </si>
-  <si>
-    <t>25,0%</t>
-  </si>
-  <si>
-    <t>36,54%</t>
-  </si>
-  <si>
-    <t>28,66%</t>
-  </si>
-  <si>
-    <t>24,34%</t>
-  </si>
-  <si>
-    <t>32,62%</t>
-  </si>
-  <si>
-    <t>25,4%</t>
-  </si>
-  <si>
-    <t>20,67%</t>
-  </si>
-  <si>
-    <t>31,27%</t>
-  </si>
-  <si>
-    <t>24,59%</t>
-  </si>
-  <si>
-    <t>19,48%</t>
-  </si>
-  <si>
-    <t>30,53%</t>
-  </si>
-  <si>
-    <t>25,01%</t>
-  </si>
-  <si>
-    <t>21,39%</t>
-  </si>
-  <si>
-    <t>29,06%</t>
-  </si>
-  <si>
-    <t>49,12%</t>
-  </si>
-  <si>
-    <t>45,83%</t>
-  </si>
-  <si>
-    <t>52,18%</t>
-  </si>
-  <si>
-    <t>48,0%</t>
-  </si>
-  <si>
-    <t>45,02%</t>
-  </si>
-  <si>
-    <t>48,57%</t>
-  </si>
-  <si>
-    <t>46,22%</t>
-  </si>
-  <si>
-    <t>50,82%</t>
-  </si>
-  <si>
-    <t>26,54%</t>
-  </si>
-  <si>
-    <t>24,07%</t>
-  </si>
-  <si>
-    <t>29,62%</t>
-  </si>
-  <si>
-    <t>24,53%</t>
-  </si>
-  <si>
-    <t>21,95%</t>
-  </si>
-  <si>
-    <t>27,26%</t>
-  </si>
-  <si>
-    <t>25,56%</t>
-  </si>
-  <si>
-    <t>27,51%</t>
-  </si>
-  <si>
-    <t>21,65%</t>
-  </si>
-  <si>
-    <t>26,86%</t>
-  </si>
-  <si>
-    <t>27,47%</t>
-  </si>
-  <si>
-    <t>24,65%</t>
-  </si>
-  <si>
-    <t>30,14%</t>
-  </si>
-  <si>
-    <t>25,86%</t>
-  </si>
-  <si>
-    <t>23,88%</t>
-  </si>
-  <si>
-    <t>27,81%</t>
-  </si>
-  <si>
-    <t>Menores según el tipo de lactancia recibido desde el 4º al 6º mes en 2015 (Tasa respuesta: 95,81%)</t>
-  </si>
-  <si>
-    <t>45,82%</t>
-  </si>
-  <si>
-    <t>38,33%</t>
-  </si>
-  <si>
-    <t>53,49%</t>
-  </si>
-  <si>
-    <t>34,68%</t>
-  </si>
-  <si>
-    <t>28,9%</t>
-  </si>
-  <si>
-    <t>41,73%</t>
-  </si>
-  <si>
-    <t>40,14%</t>
-  </si>
-  <si>
-    <t>35,15%</t>
-  </si>
-  <si>
-    <t>45,17%</t>
-  </si>
-  <si>
-    <t>27,46%</t>
-  </si>
-  <si>
-    <t>21,4%</t>
-  </si>
-  <si>
-    <t>33,95%</t>
-  </si>
-  <si>
-    <t>27,1%</t>
-  </si>
-  <si>
-    <t>33,62%</t>
-  </si>
-  <si>
-    <t>27,28%</t>
-  </si>
-  <si>
-    <t>22,9%</t>
-  </si>
-  <si>
-    <t>32,42%</t>
-  </si>
-  <si>
-    <t>26,73%</t>
-  </si>
-  <si>
-    <t>20,27%</t>
-  </si>
-  <si>
-    <t>33,94%</t>
-  </si>
-  <si>
-    <t>38,22%</t>
-  </si>
-  <si>
-    <t>31,49%</t>
-  </si>
-  <si>
-    <t>45,52%</t>
-  </si>
-  <si>
-    <t>32,59%</t>
-  </si>
-  <si>
-    <t>27,71%</t>
-  </si>
-  <si>
-    <t>37,49%</t>
-  </si>
-  <si>
-    <t>39,41%</t>
-  </si>
-  <si>
-    <t>34,65%</t>
-  </si>
-  <si>
-    <t>44,56%</t>
-  </si>
-  <si>
-    <t>42,64%</t>
-  </si>
-  <si>
-    <t>37,05%</t>
-  </si>
-  <si>
-    <t>48,1%</t>
-  </si>
-  <si>
-    <t>40,86%</t>
-  </si>
-  <si>
-    <t>37,26%</t>
-  </si>
-  <si>
-    <t>44,54%</t>
-  </si>
-  <si>
-    <t>28,39%</t>
-  </si>
-  <si>
-    <t>24,03%</t>
-  </si>
-  <si>
-    <t>33,09%</t>
-  </si>
-  <si>
-    <t>26,85%</t>
-  </si>
-  <si>
-    <t>22,21%</t>
-  </si>
-  <si>
-    <t>31,67%</t>
-  </si>
-  <si>
-    <t>27,69%</t>
-  </si>
-  <si>
-    <t>24,38%</t>
-  </si>
-  <si>
-    <t>31,02%</t>
-  </si>
-  <si>
-    <t>32,21%</t>
-  </si>
-  <si>
-    <t>26,84%</t>
-  </si>
-  <si>
-    <t>36,83%</t>
-  </si>
-  <si>
-    <t>30,51%</t>
-  </si>
-  <si>
-    <t>25,81%</t>
-  </si>
-  <si>
-    <t>36,3%</t>
-  </si>
-  <si>
-    <t>31,44%</t>
-  </si>
-  <si>
-    <t>28,08%</t>
-  </si>
-  <si>
-    <t>34,67%</t>
-  </si>
-  <si>
-    <t>40,72%</t>
-  </si>
-  <si>
-    <t>34,88%</t>
-  </si>
-  <si>
-    <t>46,96%</t>
-  </si>
-  <si>
-    <t>44,79%</t>
-  </si>
-  <si>
-    <t>38,81%</t>
-  </si>
-  <si>
-    <t>50,87%</t>
-  </si>
-  <si>
-    <t>42,76%</t>
-  </si>
-  <si>
-    <t>38,64%</t>
-  </si>
-  <si>
-    <t>46,81%</t>
-  </si>
-  <si>
-    <t>22,72%</t>
-  </si>
-  <si>
-    <t>17,66%</t>
-  </si>
-  <si>
-    <t>28,23%</t>
-  </si>
-  <si>
-    <t>24,91%</t>
-  </si>
-  <si>
-    <t>36,18%</t>
-  </si>
-  <si>
-    <t>22,63%</t>
-  </si>
-  <si>
-    <t>30,23%</t>
-  </si>
-  <si>
-    <t>36,57%</t>
-  </si>
-  <si>
-    <t>42,13%</t>
-  </si>
-  <si>
-    <t>25,07%</t>
-  </si>
-  <si>
-    <t>19,75%</t>
-  </si>
-  <si>
-    <t>30,58%</t>
-  </si>
-  <si>
-    <t>30,79%</t>
-  </si>
-  <si>
-    <t>34,97%</t>
-  </si>
-  <si>
-    <t>45,67%</t>
-  </si>
-  <si>
-    <t>38,31%</t>
-  </si>
-  <si>
-    <t>53,01%</t>
-  </si>
-  <si>
-    <t>50,51%</t>
-  </si>
-  <si>
-    <t>44,33%</t>
-  </si>
-  <si>
-    <t>56,93%</t>
-  </si>
-  <si>
-    <t>44,02%</t>
-  </si>
-  <si>
-    <t>52,67%</t>
-  </si>
-  <si>
-    <t>27,48%</t>
-  </si>
-  <si>
-    <t>22,26%</t>
-  </si>
-  <si>
-    <t>33,82%</t>
-  </si>
-  <si>
-    <t>21,22%</t>
-  </si>
-  <si>
-    <t>16,59%</t>
-  </si>
-  <si>
-    <t>27,36%</t>
-  </si>
-  <si>
-    <t>24,31%</t>
-  </si>
-  <si>
-    <t>20,41%</t>
-  </si>
-  <si>
-    <t>28,25%</t>
-  </si>
-  <si>
-    <t>32,83%</t>
-  </si>
-  <si>
-    <t>28,27%</t>
-  </si>
-  <si>
-    <t>21,94%</t>
-  </si>
-  <si>
-    <t>34,06%</t>
-  </si>
-  <si>
-    <t>27,57%</t>
-  </si>
-  <si>
-    <t>23,49%</t>
-  </si>
-  <si>
-    <t>31,64%</t>
-  </si>
-  <si>
-    <t>42,17%</t>
-  </si>
-  <si>
-    <t>39,21%</t>
-  </si>
-  <si>
-    <t>45,28%</t>
-  </si>
-  <si>
-    <t>43,79%</t>
-  </si>
-  <si>
-    <t>40,77%</t>
-  </si>
-  <si>
-    <t>46,62%</t>
-  </si>
-  <si>
-    <t>42,96%</t>
-  </si>
-  <si>
-    <t>45,07%</t>
-  </si>
-  <si>
-    <t>26,57%</t>
-  </si>
-  <si>
-    <t>24,16%</t>
-  </si>
-  <si>
-    <t>29,28%</t>
-  </si>
-  <si>
-    <t>26,42%</t>
-  </si>
-  <si>
-    <t>23,99%</t>
-  </si>
-  <si>
-    <t>29,2%</t>
-  </si>
-  <si>
-    <t>24,61%</t>
-  </si>
-  <si>
-    <t>28,52%</t>
-  </si>
-  <si>
-    <t>31,26%</t>
-  </si>
-  <si>
-    <t>28,5%</t>
-  </si>
-  <si>
-    <t>32,43%</t>
+    <t>26,99%</t>
+  </si>
+  <si>
+    <t>32,54%</t>
   </si>
   <si>
     <t>30,54%</t>
-  </si>
-  <si>
-    <t>28,61%</t>
-  </si>
-  <si>
-    <t>32,63%</t>
   </si>
 </sst>
 </file>
@@ -1670,7 +1667,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8E460B15-EF19-46C0-A57A-1EDF412A1AA7}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F1DFB40A-124F-4E62-8ACE-A0528B6352B0}">
   <dimension ref="A1:Q24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2621,10 +2618,10 @@
         <v>125</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>46</v>
+        <v>126</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="H20" s="7">
         <v>447</v>
@@ -2633,13 +2630,13 @@
         <v>297498</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="M20" s="7">
         <v>913</v>
@@ -2648,13 +2645,13 @@
         <v>606295</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2669,13 +2666,13 @@
         <v>183754</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>110</v>
+        <v>135</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="H21" s="7">
         <v>219</v>
@@ -2684,13 +2681,13 @@
         <v>146960</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="M21" s="7">
         <v>493</v>
@@ -2699,13 +2696,13 @@
         <v>330714</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -2720,13 +2717,13 @@
         <v>201431</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="H22" s="7">
         <v>307</v>
@@ -2735,13 +2732,13 @@
         <v>205878</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="M22" s="7">
         <v>611</v>
@@ -2750,13 +2747,13 @@
         <v>407309</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2812,7 +2809,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
     </row>
   </sheetData>
@@ -2832,7 +2829,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{31FCF0A7-65A0-4AA8-864E-CA837B65AA0F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BC553447-2CE5-4B3B-9C62-E7A233248DE4}">
   <dimension ref="A1:Q24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2849,7 +2846,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2956,13 +2953,13 @@
         <v>59415</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="H4" s="7">
         <v>93</v>
@@ -2971,13 +2968,13 @@
         <v>60465</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>157</v>
+        <v>78</v>
       </c>
       <c r="M4" s="7">
         <v>181</v>
@@ -2986,13 +2983,13 @@
         <v>119880</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3007,13 +3004,13 @@
         <v>36484</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="H5" s="7">
         <v>39</v>
@@ -3022,13 +3019,13 @@
         <v>26281</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="M5" s="7">
         <v>90</v>
@@ -3037,13 +3034,13 @@
         <v>62765</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3058,13 +3055,13 @@
         <v>29859</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="H6" s="7">
         <v>56</v>
@@ -3073,13 +3070,13 @@
         <v>38909</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="M6" s="7">
         <v>96</v>
@@ -3088,13 +3085,13 @@
         <v>68768</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -3162,13 +3159,13 @@
         <v>130215</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="H8" s="7">
         <v>167</v>
@@ -3177,13 +3174,13 @@
         <v>115475</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="M8" s="7">
         <v>349</v>
@@ -3192,13 +3189,13 @@
         <v>245690</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3213,13 +3210,13 @@
         <v>68086</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="H9" s="7">
         <v>84</v>
@@ -3228,13 +3225,13 @@
         <v>59860</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="M9" s="7">
         <v>182</v>
@@ -3243,13 +3240,13 @@
         <v>127946</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -3264,13 +3261,13 @@
         <v>66611</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="H10" s="7">
         <v>86</v>
@@ -3279,10 +3276,10 @@
         <v>58947</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>201</v>
+        <v>88</v>
       </c>
       <c r="L10" s="7" t="s">
         <v>202</v>
@@ -3631,7 +3628,7 @@
         <v>243</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>244</v>
+        <v>151</v>
       </c>
       <c r="H17" s="7">
         <v>72</v>
@@ -3640,13 +3637,13 @@
         <v>50828</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>244</v>
+      </c>
+      <c r="K17" s="7" t="s">
         <v>245</v>
       </c>
-      <c r="K17" s="7" t="s">
+      <c r="L17" s="7" t="s">
         <v>246</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>247</v>
       </c>
       <c r="M17" s="7">
         <v>144</v>
@@ -3655,13 +3652,13 @@
         <v>98303</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>247</v>
+      </c>
+      <c r="P17" s="7" t="s">
         <v>248</v>
       </c>
-      <c r="P17" s="7" t="s">
+      <c r="Q17" s="7" t="s">
         <v>249</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>250</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3676,13 +3673,13 @@
         <v>44697</v>
       </c>
       <c r="E18" s="7" t="s">
+        <v>250</v>
+      </c>
+      <c r="F18" s="7" t="s">
         <v>251</v>
       </c>
-      <c r="F18" s="7" t="s">
+      <c r="G18" s="7" t="s">
         <v>252</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>253</v>
       </c>
       <c r="H18" s="7">
         <v>58</v>
@@ -3691,13 +3688,13 @@
         <v>41068</v>
       </c>
       <c r="J18" s="7" t="s">
+        <v>253</v>
+      </c>
+      <c r="K18" s="7" t="s">
         <v>254</v>
       </c>
-      <c r="K18" s="7" t="s">
+      <c r="L18" s="7" t="s">
         <v>255</v>
-      </c>
-      <c r="L18" s="7" t="s">
-        <v>256</v>
       </c>
       <c r="M18" s="7">
         <v>122</v>
@@ -3706,13 +3703,13 @@
         <v>85765</v>
       </c>
       <c r="O18" s="7" t="s">
+        <v>256</v>
+      </c>
+      <c r="P18" s="7" t="s">
         <v>257</v>
       </c>
-      <c r="P18" s="7" t="s">
+      <c r="Q18" s="7" t="s">
         <v>258</v>
-      </c>
-      <c r="Q18" s="7" t="s">
-        <v>259</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -3780,13 +3777,13 @@
         <v>354857</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>259</v>
+      </c>
+      <c r="F20" s="7" t="s">
         <v>260</v>
       </c>
-      <c r="F20" s="7" t="s">
+      <c r="G20" s="7" t="s">
         <v>261</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>262</v>
       </c>
       <c r="H20" s="7">
         <v>477</v>
@@ -3795,13 +3792,13 @@
         <v>328314</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>262</v>
+      </c>
+      <c r="K20" s="7" t="s">
+        <v>236</v>
+      </c>
+      <c r="L20" s="7" t="s">
         <v>263</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>264</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>238</v>
       </c>
       <c r="M20" s="7">
         <v>987</v>
@@ -3810,13 +3807,13 @@
         <v>683171</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>264</v>
+      </c>
+      <c r="P20" s="7" t="s">
         <v>265</v>
       </c>
-      <c r="P20" s="7" t="s">
+      <c r="Q20" s="7" t="s">
         <v>266</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>267</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3831,13 +3828,13 @@
         <v>191760</v>
       </c>
       <c r="E21" s="7" t="s">
+        <v>267</v>
+      </c>
+      <c r="F21" s="7" t="s">
         <v>268</v>
       </c>
-      <c r="F21" s="7" t="s">
+      <c r="G21" s="7" t="s">
         <v>269</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>270</v>
       </c>
       <c r="H21" s="7">
         <v>239</v>
@@ -3846,13 +3843,13 @@
         <v>167769</v>
       </c>
       <c r="J21" s="7" t="s">
+        <v>270</v>
+      </c>
+      <c r="K21" s="7" t="s">
         <v>271</v>
       </c>
-      <c r="K21" s="7" t="s">
+      <c r="L21" s="7" t="s">
         <v>272</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>273</v>
       </c>
       <c r="M21" s="7">
         <v>518</v>
@@ -3861,10 +3858,10 @@
         <v>359530</v>
       </c>
       <c r="O21" s="7" t="s">
+        <v>273</v>
+      </c>
+      <c r="P21" s="7" t="s">
         <v>274</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>54</v>
       </c>
       <c r="Q21" s="7" t="s">
         <v>275</v>
@@ -3882,13 +3879,13 @@
         <v>175843</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>249</v>
+        <v>276</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="H22" s="7">
         <v>269</v>
@@ -3897,13 +3894,13 @@
         <v>187910</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="M22" s="7">
         <v>511</v>
@@ -3912,13 +3909,13 @@
         <v>363754</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3974,7 +3971,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
     </row>
   </sheetData>
@@ -3994,7 +3991,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2CF44CAC-CBDE-4772-A4CD-B264E5CACA2A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2E07E8B5-CA5D-4338-8C2D-459E2FCC47B6}">
   <dimension ref="A1:Q24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4011,7 +4008,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4118,13 +4115,13 @@
         <v>51236</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="H4" s="7">
         <v>69</v>
@@ -4133,13 +4130,13 @@
         <v>40360</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="M4" s="7">
         <v>146</v>
@@ -4148,13 +4145,13 @@
         <v>91595</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4169,10 +4166,10 @@
         <v>30705</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>295</v>
+        <v>193</v>
       </c>
       <c r="G5" s="7" t="s">
         <v>296</v>
@@ -4184,10 +4181,10 @@
         <v>31539</v>
       </c>
       <c r="J5" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="K5" s="7" t="s">
         <v>297</v>
-      </c>
-      <c r="K5" s="7" t="s">
-        <v>168</v>
       </c>
       <c r="L5" s="7" t="s">
         <v>298</v>
@@ -4205,7 +4202,7 @@
         <v>300</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>301</v>
+        <v>179</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4220,13 +4217,13 @@
         <v>29888</v>
       </c>
       <c r="E6" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>301</v>
+      </c>
+      <c r="G6" s="7" t="s">
         <v>302</v>
-      </c>
-      <c r="F6" s="7" t="s">
-        <v>303</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>304</v>
       </c>
       <c r="H6" s="7">
         <v>69</v>
@@ -4235,13 +4232,13 @@
         <v>44472</v>
       </c>
       <c r="J6" s="7" t="s">
+        <v>303</v>
+      </c>
+      <c r="K6" s="7" t="s">
+        <v>304</v>
+      </c>
+      <c r="L6" s="7" t="s">
         <v>305</v>
-      </c>
-      <c r="K6" s="7" t="s">
-        <v>306</v>
-      </c>
-      <c r="L6" s="7" t="s">
-        <v>307</v>
       </c>
       <c r="M6" s="7">
         <v>114</v>
@@ -4250,13 +4247,13 @@
         <v>74359</v>
       </c>
       <c r="O6" s="7" t="s">
+        <v>306</v>
+      </c>
+      <c r="P6" s="7" t="s">
+        <v>307</v>
+      </c>
+      <c r="Q6" s="7" t="s">
         <v>308</v>
-      </c>
-      <c r="P6" s="7" t="s">
-        <v>309</v>
-      </c>
-      <c r="Q6" s="7" t="s">
-        <v>310</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -4324,13 +4321,13 @@
         <v>100439</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>309</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>310</v>
+      </c>
+      <c r="G8" s="7" t="s">
         <v>311</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>312</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>313</v>
       </c>
       <c r="H8" s="7">
         <v>141</v>
@@ -4339,13 +4336,13 @@
         <v>88982</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>312</v>
+      </c>
+      <c r="K8" s="7" t="s">
+        <v>313</v>
+      </c>
+      <c r="L8" s="7" t="s">
         <v>314</v>
-      </c>
-      <c r="K8" s="7" t="s">
-        <v>315</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>316</v>
       </c>
       <c r="M8" s="7">
         <v>294</v>
@@ -4354,13 +4351,13 @@
         <v>189421</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>315</v>
+      </c>
+      <c r="P8" s="7" t="s">
+        <v>316</v>
+      </c>
+      <c r="Q8" s="7" t="s">
         <v>317</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>318</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>319</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4375,13 +4372,13 @@
         <v>72356</v>
       </c>
       <c r="E9" s="7" t="s">
+        <v>318</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>319</v>
+      </c>
+      <c r="G9" s="7" t="s">
         <v>320</v>
-      </c>
-      <c r="F9" s="7" t="s">
-        <v>321</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>322</v>
       </c>
       <c r="H9" s="7">
         <v>88</v>
@@ -4390,13 +4387,13 @@
         <v>56023</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>324</v>
+        <v>32</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="M9" s="7">
         <v>195</v>
@@ -4405,13 +4402,13 @@
         <v>128379</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -4426,13 +4423,13 @@
         <v>82088</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="H10" s="7">
         <v>100</v>
@@ -4441,13 +4438,13 @@
         <v>63673</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="M10" s="7">
         <v>215</v>
@@ -4456,13 +4453,13 @@
         <v>145762</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4530,13 +4527,13 @@
         <v>75066</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="H12" s="7">
         <v>122</v>
@@ -4545,13 +4542,13 @@
         <v>83394</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="M12" s="7">
         <v>228</v>
@@ -4560,13 +4557,13 @@
         <v>158461</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -4581,13 +4578,13 @@
         <v>41878</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="H13" s="7">
         <v>79</v>
@@ -4596,13 +4593,13 @@
         <v>56126</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>280</v>
+        <v>347</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>351</v>
+        <v>39</v>
       </c>
       <c r="M13" s="7">
         <v>137</v>
@@ -4614,10 +4611,10 @@
         <v>94</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4632,13 +4629,13 @@
         <v>67411</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>37</v>
+        <v>352</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="H14" s="7">
         <v>67</v>
@@ -4647,13 +4644,13 @@
         <v>46677</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>354</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>355</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>356</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>357</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>358</v>
       </c>
       <c r="M14" s="7">
         <v>160</v>
@@ -4662,13 +4659,13 @@
         <v>114088</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>357</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>358</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>359</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>242</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>360</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4736,13 +4733,13 @@
         <v>73646</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>360</v>
+      </c>
+      <c r="F16" s="7" t="s">
         <v>361</v>
       </c>
-      <c r="F16" s="7" t="s">
+      <c r="G16" s="7" t="s">
         <v>362</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>363</v>
       </c>
       <c r="H16" s="7">
         <v>119</v>
@@ -4751,13 +4748,13 @@
         <v>83608</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>363</v>
+      </c>
+      <c r="K16" s="7" t="s">
         <v>364</v>
       </c>
-      <c r="K16" s="7" t="s">
+      <c r="L16" s="7" t="s">
         <v>365</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>366</v>
       </c>
       <c r="M16" s="7">
         <v>219</v>
@@ -4766,13 +4763,13 @@
         <v>157253</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="P16" s="7" t="s">
+        <v>366</v>
+      </c>
+      <c r="Q16" s="7" t="s">
         <v>367</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>368</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4787,13 +4784,13 @@
         <v>44322</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>368</v>
+      </c>
+      <c r="F17" s="7" t="s">
         <v>369</v>
       </c>
-      <c r="F17" s="7" t="s">
+      <c r="G17" s="7" t="s">
         <v>370</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>371</v>
       </c>
       <c r="H17" s="7">
         <v>48</v>
@@ -4802,13 +4799,13 @@
         <v>35122</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>371</v>
+      </c>
+      <c r="K17" s="7" t="s">
         <v>372</v>
       </c>
-      <c r="K17" s="7" t="s">
-        <v>373</v>
-      </c>
       <c r="L17" s="7" t="s">
-        <v>374</v>
+        <v>167</v>
       </c>
       <c r="M17" s="7">
         <v>107</v>
@@ -4817,13 +4814,13 @@
         <v>79444</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>373</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>374</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>375</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>376</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>377</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4838,13 +4835,13 @@
         <v>43300</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>201</v>
+        <v>376</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="H18" s="7">
         <v>68</v>
@@ -4853,13 +4850,13 @@
         <v>46785</v>
       </c>
       <c r="J18" s="7" t="s">
+        <v>378</v>
+      </c>
+      <c r="K18" s="7" t="s">
         <v>379</v>
       </c>
-      <c r="K18" s="7" t="s">
+      <c r="L18" s="7" t="s">
         <v>380</v>
-      </c>
-      <c r="L18" s="7" t="s">
-        <v>381</v>
       </c>
       <c r="M18" s="7">
         <v>126</v>
@@ -4868,13 +4865,13 @@
         <v>90085</v>
       </c>
       <c r="O18" s="7" t="s">
+        <v>381</v>
+      </c>
+      <c r="P18" s="7" t="s">
         <v>382</v>
       </c>
-      <c r="P18" s="7" t="s">
+      <c r="Q18" s="7" t="s">
         <v>383</v>
-      </c>
-      <c r="Q18" s="7" t="s">
-        <v>384</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -4942,13 +4939,13 @@
         <v>300387</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>384</v>
+      </c>
+      <c r="F20" s="7" t="s">
         <v>385</v>
       </c>
-      <c r="F20" s="7" t="s">
+      <c r="G20" s="7" t="s">
         <v>386</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>387</v>
       </c>
       <c r="H20" s="7">
         <v>451</v>
@@ -4957,13 +4954,13 @@
         <v>296343</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>387</v>
+      </c>
+      <c r="K20" s="7" t="s">
         <v>388</v>
       </c>
-      <c r="K20" s="7" t="s">
+      <c r="L20" s="7" t="s">
         <v>389</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>390</v>
       </c>
       <c r="M20" s="7">
         <v>887</v>
@@ -4972,10 +4969,10 @@
         <v>596731</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>390</v>
+      </c>
+      <c r="P20" s="7" t="s">
         <v>391</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>317</v>
       </c>
       <c r="Q20" s="7" t="s">
         <v>392</v>
@@ -4993,13 +4990,13 @@
         <v>189261</v>
       </c>
       <c r="E21" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="F21" s="7" t="s">
         <v>393</v>
       </c>
-      <c r="F21" s="7" t="s">
+      <c r="G21" s="7" t="s">
         <v>394</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>395</v>
       </c>
       <c r="H21" s="7">
         <v>264</v>
@@ -5008,13 +5005,13 @@
         <v>178810</v>
       </c>
       <c r="J21" s="7" t="s">
+        <v>395</v>
+      </c>
+      <c r="K21" s="7" t="s">
         <v>396</v>
       </c>
-      <c r="K21" s="7" t="s">
+      <c r="L21" s="7" t="s">
         <v>397</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>398</v>
       </c>
       <c r="M21" s="7">
         <v>535</v>
@@ -5023,13 +5020,13 @@
         <v>368071</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>142</v>
+        <v>92</v>
       </c>
       <c r="P21" s="7" t="s">
+        <v>398</v>
+      </c>
+      <c r="Q21" s="7" t="s">
         <v>399</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>400</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -5044,13 +5041,13 @@
         <v>222687</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>400</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="G22" s="7" t="s">
         <v>401</v>
-      </c>
-      <c r="F22" s="7" t="s">
-        <v>402</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>146</v>
       </c>
       <c r="H22" s="7">
         <v>304</v>
@@ -5059,13 +5056,13 @@
         <v>201607</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>199</v>
+        <v>402</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>117</v>
+        <v>403</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="M22" s="7">
         <v>615</v>
@@ -5074,13 +5071,13 @@
         <v>424294</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>405</v>
+        <v>247</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>406</v>
+        <v>320</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5136,7 +5133,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/IP2904-Edad-trans_orig.xlsx
+++ b/data/trans_orig/IP2904-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9AAFC612-86E0-49D4-BBDA-17A3AD604FC6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{9BE679D4-2792-4744-A0AE-2DE61E47B4A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{0CAF96AB-3B56-44D6-AF7C-8D217BAD8487}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{764C75AE-CC12-4D23-B926-320349DB50BF}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -38,15 +38,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="675" uniqueCount="406">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="675" uniqueCount="407">
   <si>
     <t>Menores según el tipo de lactancia recibido desde el 4º al 6º mes en 2007 (Tasa respuesta: 95,87%)</t>
   </si>
   <si>
-    <t>Hombre</t>
-  </si>
-  <si>
-    <t>Mujer</t>
+    <t>Niña</t>
+  </si>
+  <si>
+    <t>Niño</t>
   </si>
   <si>
     <t>Total</t>
@@ -73,1189 +73,1192 @@
     <t>Solo biberon</t>
   </si>
   <si>
+    <t>44,34%</t>
+  </si>
+  <si>
+    <t>36,64%</t>
+  </si>
+  <si>
+    <t>53,03%</t>
+  </si>
+  <si>
     <t>53,08%</t>
   </si>
   <si>
+    <t>45,17%</t>
+  </si>
+  <si>
+    <t>60,89%</t>
+  </si>
+  <si>
+    <t>49,01%</t>
+  </si>
+  <si>
+    <t>43,25%</t>
+  </si>
+  <si>
+    <t>55,02%</t>
+  </si>
+  <si>
+    <t>Pecho/biberon</t>
+  </si>
+  <si>
+    <t>22,5%</t>
+  </si>
+  <si>
+    <t>15,82%</t>
+  </si>
+  <si>
+    <t>29,86%</t>
+  </si>
+  <si>
+    <t>18,38%</t>
+  </si>
+  <si>
+    <t>12,86%</t>
+  </si>
+  <si>
+    <t>24,97%</t>
+  </si>
+  <si>
+    <t>20,3%</t>
+  </si>
+  <si>
+    <t>15,6%</t>
+  </si>
+  <si>
+    <t>25,02%</t>
+  </si>
+  <si>
+    <t>Pecho</t>
+  </si>
+  <si>
+    <t>33,15%</t>
+  </si>
+  <si>
+    <t>26,22%</t>
+  </si>
+  <si>
+    <t>41,57%</t>
+  </si>
+  <si>
+    <t>28,53%</t>
+  </si>
+  <si>
+    <t>21,96%</t>
+  </si>
+  <si>
+    <t>36,29%</t>
+  </si>
+  <si>
+    <t>30,69%</t>
+  </si>
+  <si>
+    <t>25,84%</t>
+  </si>
+  <si>
+    <t>36,49%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>3-7</t>
+  </si>
+  <si>
+    <t>46,61%</t>
+  </si>
+  <si>
+    <t>41,85%</t>
+  </si>
+  <si>
+    <t>51,78%</t>
+  </si>
+  <si>
+    <t>41,43%</t>
+  </si>
+  <si>
+    <t>36,51%</t>
+  </si>
+  <si>
+    <t>46,53%</t>
+  </si>
+  <si>
+    <t>44,01%</t>
+  </si>
+  <si>
+    <t>40,57%</t>
+  </si>
+  <si>
+    <t>47,53%</t>
+  </si>
+  <si>
+    <t>23,64%</t>
+  </si>
+  <si>
+    <t>19,59%</t>
+  </si>
+  <si>
+    <t>28,17%</t>
+  </si>
+  <si>
+    <t>27,41%</t>
+  </si>
+  <si>
+    <t>23,2%</t>
+  </si>
+  <si>
+    <t>31,96%</t>
+  </si>
+  <si>
+    <t>25,53%</t>
+  </si>
+  <si>
+    <t>22,55%</t>
+  </si>
+  <si>
+    <t>28,8%</t>
+  </si>
+  <si>
+    <t>29,75%</t>
+  </si>
+  <si>
+    <t>24,9%</t>
+  </si>
+  <si>
+    <t>34,49%</t>
+  </si>
+  <si>
+    <t>31,16%</t>
+  </si>
+  <si>
+    <t>26,69%</t>
+  </si>
+  <si>
+    <t>35,93%</t>
+  </si>
+  <si>
+    <t>30,46%</t>
+  </si>
+  <si>
+    <t>27,47%</t>
+  </si>
+  <si>
+    <t>33,97%</t>
+  </si>
+  <si>
+    <t>8-11</t>
+  </si>
+  <si>
+    <t>48,83%</t>
+  </si>
+  <si>
+    <t>41,55%</t>
+  </si>
+  <si>
+    <t>56,13%</t>
+  </si>
+  <si>
+    <t>51,45%</t>
+  </si>
+  <si>
+    <t>44,57%</t>
+  </si>
+  <si>
+    <t>58,4%</t>
+  </si>
+  <si>
+    <t>50,22%</t>
+  </si>
+  <si>
+    <t>45,42%</t>
+  </si>
+  <si>
+    <t>55,75%</t>
+  </si>
+  <si>
+    <t>18,49%</t>
+  </si>
+  <si>
+    <t>13,55%</t>
+  </si>
+  <si>
+    <t>24,98%</t>
+  </si>
+  <si>
+    <t>27,65%</t>
+  </si>
+  <si>
+    <t>21,76%</t>
+  </si>
+  <si>
+    <t>34,01%</t>
+  </si>
+  <si>
+    <t>23,33%</t>
+  </si>
+  <si>
+    <t>19,33%</t>
+  </si>
+  <si>
+    <t>27,9%</t>
+  </si>
+  <si>
+    <t>32,67%</t>
+  </si>
+  <si>
+    <t>26,27%</t>
+  </si>
+  <si>
+    <t>40,03%</t>
+  </si>
+  <si>
+    <t>20,9%</t>
+  </si>
+  <si>
+    <t>15,5%</t>
+  </si>
+  <si>
+    <t>26,38%</t>
+  </si>
+  <si>
+    <t>26,45%</t>
+  </si>
+  <si>
+    <t>21,74%</t>
+  </si>
+  <si>
+    <t>31,08%</t>
+  </si>
+  <si>
+    <t>12-15</t>
+  </si>
+  <si>
+    <t>43,28%</t>
+  </si>
+  <si>
+    <t>38,01%</t>
+  </si>
+  <si>
+    <t>48,92%</t>
+  </si>
+  <si>
+    <t>39,13%</t>
+  </si>
+  <si>
+    <t>34,05%</t>
+  </si>
+  <si>
+    <t>44,67%</t>
+  </si>
+  <si>
+    <t>41,13%</t>
+  </si>
+  <si>
+    <t>37,28%</t>
+  </si>
+  <si>
+    <t>45,31%</t>
+  </si>
+  <si>
+    <t>23,94%</t>
+  </si>
+  <si>
+    <t>19,48%</t>
+  </si>
+  <si>
+    <t>28,76%</t>
+  </si>
+  <si>
+    <t>28,72%</t>
+  </si>
+  <si>
+    <t>23,97%</t>
+  </si>
+  <si>
+    <t>33,72%</t>
+  </si>
+  <si>
+    <t>26,41%</t>
+  </si>
+  <si>
+    <t>23,03%</t>
+  </si>
+  <si>
+    <t>30,12%</t>
+  </si>
+  <si>
+    <t>32,79%</t>
+  </si>
+  <si>
+    <t>27,61%</t>
+  </si>
+  <si>
+    <t>38,17%</t>
+  </si>
+  <si>
+    <t>32,16%</t>
+  </si>
+  <si>
+    <t>27,25%</t>
+  </si>
+  <si>
+    <t>37,09%</t>
+  </si>
+  <si>
+    <t>32,46%</t>
+  </si>
+  <si>
+    <t>28,55%</t>
+  </si>
+  <si>
+    <t>35,95%</t>
+  </si>
+  <si>
+    <t>45,75%</t>
+  </si>
+  <si>
+    <t>42,42%</t>
+  </si>
+  <si>
+    <t>49,08%</t>
+  </si>
+  <si>
+    <t>44,5%</t>
+  </si>
+  <si>
+    <t>41,5%</t>
+  </si>
+  <si>
+    <t>47,34%</t>
+  </si>
+  <si>
+    <t>45,1%</t>
+  </si>
+  <si>
+    <t>42,99%</t>
+  </si>
+  <si>
+    <t>47,15%</t>
+  </si>
+  <si>
+    <t>22,6%</t>
+  </si>
+  <si>
+    <t>19,99%</t>
+  </si>
+  <si>
+    <t>25,2%</t>
+  </si>
+  <si>
+    <t>26,48%</t>
+  </si>
+  <si>
+    <t>23,86%</t>
+  </si>
+  <si>
+    <t>29,15%</t>
+  </si>
+  <si>
+    <t>24,6%</t>
+  </si>
+  <si>
+    <t>22,94%</t>
+  </si>
+  <si>
+    <t>26,57%</t>
+  </si>
+  <si>
+    <t>31,66%</t>
+  </si>
+  <si>
+    <t>28,41%</t>
+  </si>
+  <si>
+    <t>34,27%</t>
+  </si>
+  <si>
+    <t>29,03%</t>
+  </si>
+  <si>
+    <t>26,34%</t>
+  </si>
+  <si>
+    <t>31,88%</t>
+  </si>
+  <si>
+    <t>30,3%</t>
+  </si>
+  <si>
+    <t>28,3%</t>
+  </si>
+  <si>
+    <t>32,31%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
+  </si>
+  <si>
+    <t>Menores según el tipo de lactancia recibido desde el 4º al 6º mes en 2012 (Tasa respuesta: 96,05%)</t>
+  </si>
+  <si>
+    <t>48,12%</t>
+  </si>
+  <si>
+    <t>40,72%</t>
+  </si>
+  <si>
+    <t>55,09%</t>
+  </si>
+  <si>
+    <t>47,25%</t>
+  </si>
+  <si>
+    <t>39,77%</t>
+  </si>
+  <si>
+    <t>54,7%</t>
+  </si>
+  <si>
+    <t>47,68%</t>
+  </si>
+  <si>
+    <t>42,23%</t>
+  </si>
+  <si>
+    <t>52,54%</t>
+  </si>
+  <si>
+    <t>20,91%</t>
+  </si>
+  <si>
+    <t>15,53%</t>
+  </si>
+  <si>
+    <t>27,45%</t>
+  </si>
+  <si>
+    <t>29,01%</t>
+  </si>
+  <si>
+    <t>22,85%</t>
+  </si>
+  <si>
+    <t>36,34%</t>
+  </si>
+  <si>
+    <t>24,96%</t>
+  </si>
+  <si>
+    <t>20,78%</t>
+  </si>
+  <si>
+    <t>29,59%</t>
+  </si>
+  <si>
+    <t>30,96%</t>
+  </si>
+  <si>
+    <t>24,53%</t>
+  </si>
+  <si>
+    <t>38,05%</t>
+  </si>
+  <si>
+    <t>23,74%</t>
+  </si>
+  <si>
+    <t>18,04%</t>
+  </si>
+  <si>
+    <t>30,26%</t>
+  </si>
+  <si>
+    <t>27,35%</t>
+  </si>
+  <si>
+    <t>23,25%</t>
+  </si>
+  <si>
+    <t>32,53%</t>
+  </si>
+  <si>
+    <t>49,29%</t>
+  </si>
+  <si>
+    <t>43,96%</t>
+  </si>
+  <si>
+    <t>55,17%</t>
+  </si>
+  <si>
+    <t>49,15%</t>
+  </si>
+  <si>
+    <t>44,21%</t>
+  </si>
+  <si>
+    <t>54,14%</t>
+  </si>
+  <si>
+    <t>49,22%</t>
+  </si>
+  <si>
+    <t>45,11%</t>
+  </si>
+  <si>
+    <t>53,0%</t>
+  </si>
+  <si>
+    <t>25,55%</t>
+  </si>
+  <si>
+    <t>21,03%</t>
+  </si>
+  <si>
+    <t>30,87%</t>
+  </si>
+  <si>
+    <t>25,7%</t>
+  </si>
+  <si>
+    <t>21,33%</t>
+  </si>
+  <si>
+    <t>30,4%</t>
+  </si>
+  <si>
+    <t>25,63%</t>
+  </si>
+  <si>
+    <t>22,53%</t>
+  </si>
+  <si>
+    <t>28,99%</t>
+  </si>
+  <si>
+    <t>25,16%</t>
+  </si>
+  <si>
+    <t>20,7%</t>
+  </si>
+  <si>
+    <t>30,19%</t>
+  </si>
+  <si>
+    <t>25,14%</t>
+  </si>
+  <si>
+    <t>21,08%</t>
+  </si>
+  <si>
+    <t>29,95%</t>
+  </si>
+  <si>
+    <t>25,15%</t>
+  </si>
+  <si>
+    <t>22,2%</t>
+  </si>
+  <si>
+    <t>28,49%</t>
+  </si>
+  <si>
+    <t>49,19%</t>
+  </si>
+  <si>
+    <t>43,11%</t>
+  </si>
+  <si>
+    <t>56,21%</t>
+  </si>
+  <si>
+    <t>52,26%</t>
+  </si>
+  <si>
+    <t>45,02%</t>
+  </si>
+  <si>
+    <t>58,52%</t>
+  </si>
+  <si>
+    <t>50,72%</t>
+  </si>
+  <si>
+    <t>46,3%</t>
+  </si>
+  <si>
+    <t>55,63%</t>
+  </si>
+  <si>
+    <t>19,61%</t>
+  </si>
+  <si>
+    <t>14,89%</t>
+  </si>
+  <si>
+    <t>25,38%</t>
+  </si>
+  <si>
+    <t>25,49%</t>
+  </si>
+  <si>
+    <t>20,17%</t>
+  </si>
+  <si>
+    <t>31,69%</t>
+  </si>
+  <si>
+    <t>22,54%</t>
+  </si>
+  <si>
+    <t>18,79%</t>
+  </si>
+  <si>
+    <t>26,36%</t>
+  </si>
+  <si>
+    <t>31,19%</t>
+  </si>
+  <si>
+    <t>25,74%</t>
+  </si>
+  <si>
+    <t>22,25%</t>
+  </si>
+  <si>
+    <t>17,39%</t>
+  </si>
+  <si>
+    <t>28,21%</t>
+  </si>
+  <si>
+    <t>26,74%</t>
+  </si>
+  <si>
+    <t>44,98%</t>
+  </si>
+  <si>
+    <t>38,58%</t>
+  </si>
+  <si>
+    <t>50,9%</t>
+  </si>
+  <si>
+    <t>47,62%</t>
+  </si>
+  <si>
+    <t>41,6%</t>
+  </si>
+  <si>
+    <t>54,04%</t>
+  </si>
+  <si>
+    <t>46,33%</t>
+  </si>
+  <si>
+    <t>42,44%</t>
+  </si>
+  <si>
+    <t>50,61%</t>
+  </si>
+  <si>
+    <t>30,43%</t>
+  </si>
+  <si>
+    <t>25,44%</t>
+  </si>
+  <si>
+    <t>36,45%</t>
+  </si>
+  <si>
+    <t>26,98%</t>
+  </si>
+  <si>
+    <t>21,92%</t>
+  </si>
+  <si>
+    <t>28,66%</t>
+  </si>
+  <si>
+    <t>24,45%</t>
+  </si>
+  <si>
+    <t>32,29%</t>
+  </si>
+  <si>
+    <t>24,59%</t>
+  </si>
+  <si>
+    <t>19,65%</t>
+  </si>
+  <si>
+    <t>30,11%</t>
+  </si>
+  <si>
+    <t>25,4%</t>
+  </si>
+  <si>
+    <t>20,41%</t>
+  </si>
+  <si>
+    <t>31,27%</t>
+  </si>
+  <si>
+    <t>25,01%</t>
+  </si>
+  <si>
+    <t>21,49%</t>
+  </si>
+  <si>
+    <t>48,0%</t>
+  </si>
+  <si>
     <t>44,91%</t>
   </si>
   <si>
-    <t>60,52%</t>
-  </si>
-  <si>
-    <t>44,34%</t>
-  </si>
-  <si>
-    <t>36,17%</t>
-  </si>
-  <si>
-    <t>52,36%</t>
-  </si>
-  <si>
-    <t>49,01%</t>
-  </si>
-  <si>
-    <t>43,02%</t>
-  </si>
-  <si>
-    <t>54,79%</t>
-  </si>
-  <si>
-    <t>Pecho/biberon</t>
-  </si>
-  <si>
-    <t>18,38%</t>
-  </si>
-  <si>
-    <t>12,73%</t>
+    <t>50,94%</t>
+  </si>
+  <si>
+    <t>49,12%</t>
+  </si>
+  <si>
+    <t>46,01%</t>
+  </si>
+  <si>
+    <t>51,91%</t>
+  </si>
+  <si>
+    <t>48,57%</t>
+  </si>
+  <si>
+    <t>46,49%</t>
+  </si>
+  <si>
+    <t>51,18%</t>
+  </si>
+  <si>
+    <t>21,81%</t>
+  </si>
+  <si>
+    <t>27,22%</t>
+  </si>
+  <si>
+    <t>26,54%</t>
+  </si>
+  <si>
+    <t>23,96%</t>
+  </si>
+  <si>
+    <t>29,1%</t>
+  </si>
+  <si>
+    <t>25,56%</t>
+  </si>
+  <si>
+    <t>23,69%</t>
+  </si>
+  <si>
+    <t>27,4%</t>
+  </si>
+  <si>
+    <t>24,63%</t>
+  </si>
+  <si>
+    <t>24,34%</t>
+  </si>
+  <si>
+    <t>27,02%</t>
+  </si>
+  <si>
+    <t>25,86%</t>
+  </si>
+  <si>
+    <t>27,63%</t>
+  </si>
+  <si>
+    <t>Menores según el tipo de lactancia recibido desde el 4º al 6º mes en 2016 (Tasa respuesta: 95,81%)</t>
+  </si>
+  <si>
+    <t>34,68%</t>
+  </si>
+  <si>
+    <t>28,06%</t>
+  </si>
+  <si>
+    <t>42,1%</t>
+  </si>
+  <si>
+    <t>45,82%</t>
+  </si>
+  <si>
+    <t>37,89%</t>
+  </si>
+  <si>
+    <t>53,33%</t>
+  </si>
+  <si>
+    <t>40,14%</t>
+  </si>
+  <si>
+    <t>35,1%</t>
+  </si>
+  <si>
+    <t>44,97%</t>
+  </si>
+  <si>
+    <t>27,1%</t>
+  </si>
+  <si>
+    <t>20,81%</t>
+  </si>
+  <si>
+    <t>33,73%</t>
+  </si>
+  <si>
+    <t>27,46%</t>
+  </si>
+  <si>
+    <t>21,45%</t>
+  </si>
+  <si>
+    <t>34,19%</t>
+  </si>
+  <si>
+    <t>27,28%</t>
+  </si>
+  <si>
+    <t>22,78%</t>
+  </si>
+  <si>
+    <t>32,03%</t>
+  </si>
+  <si>
+    <t>38,22%</t>
+  </si>
+  <si>
+    <t>31,3%</t>
+  </si>
+  <si>
+    <t>46,08%</t>
+  </si>
+  <si>
+    <t>26,73%</t>
+  </si>
+  <si>
+    <t>20,25%</t>
+  </si>
+  <si>
+    <t>34,33%</t>
+  </si>
+  <si>
+    <t>32,59%</t>
+  </si>
+  <si>
+    <t>27,95%</t>
+  </si>
+  <si>
+    <t>37,56%</t>
+  </si>
+  <si>
+    <t>42,64%</t>
+  </si>
+  <si>
+    <t>37,27%</t>
+  </si>
+  <si>
+    <t>48,33%</t>
+  </si>
+  <si>
+    <t>39,41%</t>
+  </si>
+  <si>
+    <t>34,6%</t>
+  </si>
+  <si>
+    <t>44,29%</t>
+  </si>
+  <si>
+    <t>40,86%</t>
+  </si>
+  <si>
+    <t>37,21%</t>
+  </si>
+  <si>
+    <t>26,85%</t>
+  </si>
+  <si>
+    <t>22,45%</t>
+  </si>
+  <si>
+    <t>31,81%</t>
+  </si>
+  <si>
+    <t>28,39%</t>
+  </si>
+  <si>
+    <t>23,77%</t>
+  </si>
+  <si>
+    <t>32,74%</t>
+  </si>
+  <si>
+    <t>27,69%</t>
+  </si>
+  <si>
+    <t>24,65%</t>
+  </si>
+  <si>
+    <t>30,78%</t>
+  </si>
+  <si>
+    <t>30,51%</t>
+  </si>
+  <si>
+    <t>25,21%</t>
+  </si>
+  <si>
+    <t>35,97%</t>
+  </si>
+  <si>
+    <t>32,21%</t>
+  </si>
+  <si>
+    <t>37,43%</t>
+  </si>
+  <si>
+    <t>31,44%</t>
+  </si>
+  <si>
+    <t>28,19%</t>
+  </si>
+  <si>
+    <t>34,84%</t>
+  </si>
+  <si>
+    <t>44,79%</t>
+  </si>
+  <si>
+    <t>38,83%</t>
+  </si>
+  <si>
+    <t>50,65%</t>
+  </si>
+  <si>
+    <t>35,2%</t>
+  </si>
+  <si>
+    <t>47,06%</t>
+  </si>
+  <si>
+    <t>42,76%</t>
+  </si>
+  <si>
+    <t>38,41%</t>
+  </si>
+  <si>
+    <t>47,19%</t>
+  </si>
+  <si>
+    <t>30,14%</t>
+  </si>
+  <si>
+    <t>24,91%</t>
+  </si>
+  <si>
+    <t>36,19%</t>
+  </si>
+  <si>
+    <t>22,72%</t>
+  </si>
+  <si>
+    <t>17,9%</t>
+  </si>
+  <si>
+    <t>28,25%</t>
+  </si>
+  <si>
+    <t>22,76%</t>
+  </si>
+  <si>
+    <t>25,07%</t>
+  </si>
+  <si>
+    <t>20,02%</t>
+  </si>
+  <si>
+    <t>30,95%</t>
+  </si>
+  <si>
+    <t>36,57%</t>
+  </si>
+  <si>
+    <t>30,86%</t>
+  </si>
+  <si>
+    <t>41,95%</t>
+  </si>
+  <si>
+    <t>30,79%</t>
+  </si>
+  <si>
+    <t>26,43%</t>
+  </si>
+  <si>
+    <t>35,12%</t>
+  </si>
+  <si>
+    <t>50,51%</t>
+  </si>
+  <si>
+    <t>44,02%</t>
+  </si>
+  <si>
+    <t>57,62%</t>
+  </si>
+  <si>
+    <t>45,67%</t>
+  </si>
+  <si>
+    <t>38,93%</t>
+  </si>
+  <si>
+    <t>52,48%</t>
+  </si>
+  <si>
+    <t>43,16%</t>
+  </si>
+  <si>
+    <t>52,8%</t>
+  </si>
+  <si>
+    <t>21,22%</t>
+  </si>
+  <si>
+    <t>16,29%</t>
+  </si>
+  <si>
+    <t>27,17%</t>
+  </si>
+  <si>
+    <t>27,48%</t>
+  </si>
+  <si>
+    <t>21,59%</t>
+  </si>
+  <si>
+    <t>34,21%</t>
+  </si>
+  <si>
+    <t>24,31%</t>
+  </si>
+  <si>
+    <t>20,48%</t>
+  </si>
+  <si>
+    <t>28,85%</t>
+  </si>
+  <si>
+    <t>28,27%</t>
+  </si>
+  <si>
+    <t>22,42%</t>
+  </si>
+  <si>
+    <t>34,39%</t>
+  </si>
+  <si>
+    <t>21,2%</t>
+  </si>
+  <si>
+    <t>33,2%</t>
+  </si>
+  <si>
+    <t>27,57%</t>
+  </si>
+  <si>
+    <t>23,62%</t>
+  </si>
+  <si>
+    <t>31,98%</t>
+  </si>
+  <si>
+    <t>43,79%</t>
+  </si>
+  <si>
+    <t>40,81%</t>
+  </si>
+  <si>
+    <t>47,2%</t>
+  </si>
+  <si>
+    <t>42,17%</t>
+  </si>
+  <si>
+    <t>39,39%</t>
+  </si>
+  <si>
+    <t>45,45%</t>
+  </si>
+  <si>
+    <t>42,96%</t>
+  </si>
+  <si>
+    <t>40,69%</t>
+  </si>
+  <si>
+    <t>44,96%</t>
+  </si>
+  <si>
+    <t>26,42%</t>
+  </si>
+  <si>
+    <t>23,73%</t>
+  </si>
+  <si>
+    <t>29,26%</t>
+  </si>
+  <si>
+    <t>23,71%</t>
+  </si>
+  <si>
+    <t>29,21%</t>
+  </si>
+  <si>
+    <t>26,5%</t>
   </si>
   <si>
     <t>24,58%</t>
   </si>
   <si>
-    <t>22,5%</t>
-  </si>
-  <si>
-    <t>16,14%</t>
-  </si>
-  <si>
-    <t>29,87%</t>
-  </si>
-  <si>
-    <t>20,3%</t>
-  </si>
-  <si>
-    <t>16,15%</t>
-  </si>
-  <si>
-    <t>25,35%</t>
-  </si>
-  <si>
-    <t>Pecho</t>
-  </si>
-  <si>
-    <t>28,53%</t>
-  </si>
-  <si>
-    <t>22,21%</t>
-  </si>
-  <si>
-    <t>36,24%</t>
-  </si>
-  <si>
-    <t>33,15%</t>
-  </si>
-  <si>
-    <t>25,41%</t>
-  </si>
-  <si>
-    <t>41,53%</t>
-  </si>
-  <si>
-    <t>30,69%</t>
-  </si>
-  <si>
-    <t>25,76%</t>
-  </si>
-  <si>
-    <t>36,2%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>3-7</t>
-  </si>
-  <si>
-    <t>41,43%</t>
-  </si>
-  <si>
-    <t>36,13%</t>
-  </si>
-  <si>
-    <t>46,35%</t>
-  </si>
-  <si>
-    <t>46,61%</t>
-  </si>
-  <si>
-    <t>41,98%</t>
-  </si>
-  <si>
-    <t>52,0%</t>
-  </si>
-  <si>
-    <t>44,01%</t>
-  </si>
-  <si>
-    <t>40,5%</t>
-  </si>
-  <si>
-    <t>47,42%</t>
-  </si>
-  <si>
-    <t>27,41%</t>
-  </si>
-  <si>
-    <t>23,2%</t>
-  </si>
-  <si>
-    <t>31,79%</t>
-  </si>
-  <si>
-    <t>23,64%</t>
-  </si>
-  <si>
-    <t>19,89%</t>
-  </si>
-  <si>
-    <t>28,25%</t>
-  </si>
-  <si>
-    <t>25,53%</t>
-  </si>
-  <si>
-    <t>22,48%</t>
-  </si>
-  <si>
-    <t>28,82%</t>
-  </si>
-  <si>
-    <t>31,16%</t>
-  </si>
-  <si>
-    <t>26,73%</t>
-  </si>
-  <si>
-    <t>36,28%</t>
-  </si>
-  <si>
-    <t>29,75%</t>
-  </si>
-  <si>
-    <t>25,57%</t>
-  </si>
-  <si>
-    <t>35,12%</t>
-  </si>
-  <si>
-    <t>30,46%</t>
-  </si>
-  <si>
-    <t>27,58%</t>
-  </si>
-  <si>
-    <t>33,86%</t>
-  </si>
-  <si>
-    <t>8-11</t>
-  </si>
-  <si>
-    <t>51,45%</t>
-  </si>
-  <si>
-    <t>44,84%</t>
-  </si>
-  <si>
-    <t>58,79%</t>
-  </si>
-  <si>
-    <t>48,83%</t>
-  </si>
-  <si>
-    <t>42,03%</t>
-  </si>
-  <si>
-    <t>56,11%</t>
-  </si>
-  <si>
-    <t>50,22%</t>
-  </si>
-  <si>
-    <t>45,63%</t>
-  </si>
-  <si>
-    <t>55,36%</t>
-  </si>
-  <si>
-    <t>27,65%</t>
-  </si>
-  <si>
-    <t>22,02%</t>
-  </si>
-  <si>
-    <t>34,3%</t>
-  </si>
-  <si>
-    <t>18,49%</t>
-  </si>
-  <si>
-    <t>13,51%</t>
-  </si>
-  <si>
-    <t>24,88%</t>
-  </si>
-  <si>
-    <t>23,33%</t>
-  </si>
-  <si>
-    <t>19,38%</t>
-  </si>
-  <si>
-    <t>27,93%</t>
-  </si>
-  <si>
-    <t>20,9%</t>
-  </si>
-  <si>
-    <t>15,36%</t>
-  </si>
-  <si>
-    <t>26,83%</t>
-  </si>
-  <si>
-    <t>32,67%</t>
-  </si>
-  <si>
-    <t>26,5%</t>
-  </si>
-  <si>
-    <t>39,7%</t>
-  </si>
-  <si>
-    <t>26,45%</t>
-  </si>
-  <si>
-    <t>22,08%</t>
-  </si>
-  <si>
-    <t>30,75%</t>
-  </si>
-  <si>
-    <t>12-15</t>
-  </si>
-  <si>
-    <t>39,13%</t>
-  </si>
-  <si>
-    <t>33,64%</t>
-  </si>
-  <si>
-    <t>44,42%</t>
-  </si>
-  <si>
-    <t>43,28%</t>
-  </si>
-  <si>
-    <t>37,37%</t>
-  </si>
-  <si>
-    <t>48,54%</t>
-  </si>
-  <si>
-    <t>41,13%</t>
-  </si>
-  <si>
-    <t>37,16%</t>
-  </si>
-  <si>
-    <t>45,06%</t>
-  </si>
-  <si>
-    <t>28,72%</t>
-  </si>
-  <si>
-    <t>24,07%</t>
-  </si>
-  <si>
-    <t>34,06%</t>
-  </si>
-  <si>
-    <t>23,94%</t>
-  </si>
-  <si>
-    <t>18,94%</t>
-  </si>
-  <si>
-    <t>29,32%</t>
-  </si>
-  <si>
-    <t>26,41%</t>
-  </si>
-  <si>
-    <t>23,02%</t>
-  </si>
-  <si>
-    <t>30,34%</t>
-  </si>
-  <si>
-    <t>32,16%</t>
-  </si>
-  <si>
-    <t>27,22%</t>
-  </si>
-  <si>
-    <t>37,22%</t>
-  </si>
-  <si>
-    <t>32,79%</t>
-  </si>
-  <si>
-    <t>27,74%</t>
-  </si>
-  <si>
-    <t>38,63%</t>
-  </si>
-  <si>
-    <t>32,46%</t>
-  </si>
-  <si>
-    <t>28,84%</t>
-  </si>
-  <si>
-    <t>36,53%</t>
-  </si>
-  <si>
-    <t>44,5%</t>
-  </si>
-  <si>
-    <t>41,63%</t>
-  </si>
-  <si>
-    <t>48,09%</t>
-  </si>
-  <si>
-    <t>45,75%</t>
-  </si>
-  <si>
-    <t>42,36%</t>
-  </si>
-  <si>
-    <t>48,86%</t>
-  </si>
-  <si>
-    <t>45,1%</t>
-  </si>
-  <si>
-    <t>42,98%</t>
-  </si>
-  <si>
-    <t>47,21%</t>
-  </si>
-  <si>
-    <t>26,48%</t>
-  </si>
-  <si>
-    <t>23,81%</t>
-  </si>
-  <si>
-    <t>29,24%</t>
-  </si>
-  <si>
-    <t>22,6%</t>
-  </si>
-  <si>
-    <t>20,06%</t>
-  </si>
-  <si>
-    <t>25,24%</t>
-  </si>
-  <si>
-    <t>24,6%</t>
-  </si>
-  <si>
-    <t>22,79%</t>
-  </si>
-  <si>
-    <t>26,57%</t>
-  </si>
-  <si>
-    <t>29,03%</t>
-  </si>
-  <si>
-    <t>26,04%</t>
-  </si>
-  <si>
-    <t>31,76%</t>
-  </si>
-  <si>
-    <t>31,66%</t>
-  </si>
-  <si>
-    <t>28,76%</t>
-  </si>
-  <si>
-    <t>34,84%</t>
-  </si>
-  <si>
-    <t>30,3%</t>
-  </si>
-  <si>
-    <t>28,31%</t>
-  </si>
-  <si>
-    <t>32,24%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
-  </si>
-  <si>
-    <t>Menores según el tipo de lactancia recibido desde el 4º al 6º mes en 2012 (Tasa respuesta: 96,05%)</t>
-  </si>
-  <si>
-    <t>47,25%</t>
-  </si>
-  <si>
-    <t>39,94%</t>
-  </si>
-  <si>
-    <t>54,93%</t>
-  </si>
-  <si>
-    <t>48,12%</t>
-  </si>
-  <si>
-    <t>40,91%</t>
-  </si>
-  <si>
-    <t>47,68%</t>
-  </si>
-  <si>
-    <t>42,41%</t>
-  </si>
-  <si>
-    <t>52,15%</t>
-  </si>
-  <si>
-    <t>29,01%</t>
-  </si>
-  <si>
-    <t>22,59%</t>
-  </si>
-  <si>
-    <t>36,1%</t>
-  </si>
-  <si>
-    <t>20,91%</t>
-  </si>
-  <si>
-    <t>15,37%</t>
-  </si>
-  <si>
-    <t>27,1%</t>
-  </si>
-  <si>
-    <t>24,96%</t>
-  </si>
-  <si>
-    <t>21,3%</t>
-  </si>
-  <si>
-    <t>30,08%</t>
-  </si>
-  <si>
-    <t>23,74%</t>
-  </si>
-  <si>
-    <t>17,5%</t>
-  </si>
-  <si>
-    <t>30,36%</t>
-  </si>
-  <si>
-    <t>30,96%</t>
-  </si>
-  <si>
-    <t>24,38%</t>
-  </si>
-  <si>
-    <t>38,64%</t>
-  </si>
-  <si>
-    <t>27,35%</t>
-  </si>
-  <si>
-    <t>22,84%</t>
-  </si>
-  <si>
-    <t>32,15%</t>
-  </si>
-  <si>
-    <t>49,15%</t>
-  </si>
-  <si>
-    <t>43,95%</t>
-  </si>
-  <si>
-    <t>54,39%</t>
-  </si>
-  <si>
-    <t>49,29%</t>
-  </si>
-  <si>
-    <t>44,41%</t>
-  </si>
-  <si>
-    <t>54,75%</t>
-  </si>
-  <si>
-    <t>49,22%</t>
-  </si>
-  <si>
-    <t>45,77%</t>
-  </si>
-  <si>
-    <t>53,15%</t>
-  </si>
-  <si>
-    <t>25,7%</t>
-  </si>
-  <si>
-    <t>21,59%</t>
-  </si>
-  <si>
-    <t>30,0%</t>
-  </si>
-  <si>
-    <t>25,55%</t>
-  </si>
-  <si>
-    <t>20,99%</t>
-  </si>
-  <si>
-    <t>30,16%</t>
-  </si>
-  <si>
-    <t>25,63%</t>
-  </si>
-  <si>
-    <t>22,67%</t>
-  </si>
-  <si>
-    <t>29,49%</t>
-  </si>
-  <si>
-    <t>25,14%</t>
-  </si>
-  <si>
-    <t>20,64%</t>
-  </si>
-  <si>
-    <t>29,57%</t>
-  </si>
-  <si>
-    <t>25,16%</t>
-  </si>
-  <si>
-    <t>29,99%</t>
-  </si>
-  <si>
-    <t>25,15%</t>
-  </si>
-  <si>
-    <t>21,84%</t>
-  </si>
-  <si>
-    <t>28,16%</t>
-  </si>
-  <si>
-    <t>52,26%</t>
-  </si>
-  <si>
-    <t>46,26%</t>
-  </si>
-  <si>
-    <t>58,99%</t>
-  </si>
-  <si>
-    <t>49,19%</t>
-  </si>
-  <si>
-    <t>42,7%</t>
-  </si>
-  <si>
-    <t>55,35%</t>
-  </si>
-  <si>
-    <t>50,72%</t>
-  </si>
-  <si>
-    <t>46,29%</t>
-  </si>
-  <si>
-    <t>55,66%</t>
-  </si>
-  <si>
-    <t>25,49%</t>
-  </si>
-  <si>
-    <t>20,15%</t>
-  </si>
-  <si>
-    <t>31,56%</t>
-  </si>
-  <si>
-    <t>19,61%</t>
-  </si>
-  <si>
-    <t>14,82%</t>
-  </si>
-  <si>
-    <t>24,98%</t>
-  </si>
-  <si>
-    <t>22,54%</t>
-  </si>
-  <si>
-    <t>18,58%</t>
-  </si>
-  <si>
-    <t>26,9%</t>
-  </si>
-  <si>
-    <t>22,25%</t>
-  </si>
-  <si>
-    <t>17,13%</t>
-  </si>
-  <si>
-    <t>28,63%</t>
-  </si>
-  <si>
-    <t>31,19%</t>
-  </si>
-  <si>
-    <t>25,43%</t>
-  </si>
-  <si>
-    <t>37,99%</t>
-  </si>
-  <si>
-    <t>26,74%</t>
-  </si>
-  <si>
-    <t>23,08%</t>
-  </si>
-  <si>
-    <t>31,18%</t>
-  </si>
-  <si>
-    <t>47,62%</t>
-  </si>
-  <si>
-    <t>41,28%</t>
-  </si>
-  <si>
-    <t>53,55%</t>
-  </si>
-  <si>
-    <t>44,98%</t>
-  </si>
-  <si>
-    <t>39,33%</t>
-  </si>
-  <si>
-    <t>51,69%</t>
-  </si>
-  <si>
-    <t>46,33%</t>
-  </si>
-  <si>
-    <t>42,39%</t>
-  </si>
-  <si>
-    <t>50,8%</t>
-  </si>
-  <si>
-    <t>26,98%</t>
-  </si>
-  <si>
-    <t>22,16%</t>
-  </si>
-  <si>
-    <t>30,43%</t>
-  </si>
-  <si>
-    <t>24,48%</t>
-  </si>
-  <si>
-    <t>36,44%</t>
-  </si>
-  <si>
-    <t>28,66%</t>
-  </si>
-  <si>
-    <t>24,64%</t>
-  </si>
-  <si>
-    <t>32,6%</t>
-  </si>
-  <si>
-    <t>25,4%</t>
-  </si>
-  <si>
-    <t>20,32%</t>
-  </si>
-  <si>
-    <t>31,2%</t>
-  </si>
-  <si>
-    <t>24,59%</t>
-  </si>
-  <si>
-    <t>19,74%</t>
-  </si>
-  <si>
-    <t>30,72%</t>
-  </si>
-  <si>
-    <t>25,01%</t>
-  </si>
-  <si>
-    <t>21,15%</t>
-  </si>
-  <si>
-    <t>28,77%</t>
-  </si>
-  <si>
-    <t>49,12%</t>
-  </si>
-  <si>
-    <t>46,31%</t>
-  </si>
-  <si>
-    <t>52,45%</t>
-  </si>
-  <si>
-    <t>48,0%</t>
-  </si>
-  <si>
-    <t>51,1%</t>
-  </si>
-  <si>
-    <t>48,57%</t>
-  </si>
-  <si>
-    <t>46,43%</t>
-  </si>
-  <si>
-    <t>50,62%</t>
-  </si>
-  <si>
-    <t>26,54%</t>
-  </si>
-  <si>
-    <t>23,68%</t>
-  </si>
-  <si>
-    <t>29,16%</t>
-  </si>
-  <si>
-    <t>24,53%</t>
-  </si>
-  <si>
-    <t>21,85%</t>
-  </si>
-  <si>
-    <t>27,43%</t>
-  </si>
-  <si>
-    <t>25,56%</t>
-  </si>
-  <si>
-    <t>23,84%</t>
-  </si>
-  <si>
-    <t>27,4%</t>
-  </si>
-  <si>
-    <t>24,34%</t>
-  </si>
-  <si>
-    <t>21,68%</t>
-  </si>
-  <si>
-    <t>27,25%</t>
-  </si>
-  <si>
-    <t>27,47%</t>
-  </si>
-  <si>
-    <t>24,78%</t>
-  </si>
-  <si>
-    <t>30,41%</t>
-  </si>
-  <si>
-    <t>25,86%</t>
-  </si>
-  <si>
-    <t>23,85%</t>
-  </si>
-  <si>
-    <t>27,82%</t>
-  </si>
-  <si>
-    <t>Menores según el tipo de lactancia recibido desde el 4º al 6º mes en 2016 (Tasa respuesta: 95,81%)</t>
-  </si>
-  <si>
-    <t>45,82%</t>
-  </si>
-  <si>
-    <t>38,57%</t>
-  </si>
-  <si>
-    <t>53,37%</t>
-  </si>
-  <si>
-    <t>34,68%</t>
-  </si>
-  <si>
-    <t>28,23%</t>
-  </si>
-  <si>
-    <t>42,14%</t>
-  </si>
-  <si>
-    <t>40,14%</t>
-  </si>
-  <si>
-    <t>35,19%</t>
-  </si>
-  <si>
-    <t>45,23%</t>
-  </si>
-  <si>
-    <t>27,46%</t>
-  </si>
-  <si>
-    <t>34,78%</t>
-  </si>
-  <si>
-    <t>20,95%</t>
-  </si>
-  <si>
-    <t>34,39%</t>
-  </si>
-  <si>
-    <t>27,28%</t>
-  </si>
-  <si>
-    <t>22,64%</t>
-  </si>
-  <si>
-    <t>20,35%</t>
-  </si>
-  <si>
-    <t>34,27%</t>
-  </si>
-  <si>
-    <t>38,22%</t>
-  </si>
-  <si>
-    <t>31,17%</t>
-  </si>
-  <si>
-    <t>46,27%</t>
-  </si>
-  <si>
-    <t>32,59%</t>
-  </si>
-  <si>
-    <t>27,79%</t>
-  </si>
-  <si>
-    <t>37,9%</t>
-  </si>
-  <si>
-    <t>39,41%</t>
-  </si>
-  <si>
-    <t>34,75%</t>
-  </si>
-  <si>
-    <t>44,66%</t>
-  </si>
-  <si>
-    <t>42,64%</t>
-  </si>
-  <si>
-    <t>37,44%</t>
-  </si>
-  <si>
-    <t>47,94%</t>
-  </si>
-  <si>
-    <t>40,86%</t>
-  </si>
-  <si>
-    <t>36,99%</t>
-  </si>
-  <si>
-    <t>44,26%</t>
-  </si>
-  <si>
-    <t>28,39%</t>
-  </si>
-  <si>
-    <t>23,25%</t>
-  </si>
-  <si>
-    <t>32,64%</t>
-  </si>
-  <si>
-    <t>26,85%</t>
-  </si>
-  <si>
-    <t>32,28%</t>
-  </si>
-  <si>
-    <t>27,69%</t>
-  </si>
-  <si>
-    <t>24,51%</t>
-  </si>
-  <si>
-    <t>30,98%</t>
-  </si>
-  <si>
-    <t>32,21%</t>
-  </si>
-  <si>
-    <t>27,62%</t>
-  </si>
-  <si>
-    <t>37,41%</t>
-  </si>
-  <si>
-    <t>30,51%</t>
-  </si>
-  <si>
-    <t>25,72%</t>
-  </si>
-  <si>
-    <t>35,66%</t>
-  </si>
-  <si>
-    <t>31,44%</t>
-  </si>
-  <si>
-    <t>28,0%</t>
-  </si>
-  <si>
-    <t>34,81%</t>
-  </si>
-  <si>
-    <t>40,72%</t>
-  </si>
-  <si>
-    <t>35,21%</t>
-  </si>
-  <si>
-    <t>47,13%</t>
-  </si>
-  <si>
-    <t>44,79%</t>
-  </si>
-  <si>
-    <t>38,92%</t>
-  </si>
-  <si>
-    <t>50,74%</t>
-  </si>
-  <si>
-    <t>42,76%</t>
-  </si>
-  <si>
-    <t>38,38%</t>
-  </si>
-  <si>
-    <t>47,08%</t>
-  </si>
-  <si>
-    <t>22,72%</t>
-  </si>
-  <si>
-    <t>18,03%</t>
-  </si>
-  <si>
-    <t>28,32%</t>
-  </si>
-  <si>
-    <t>30,14%</t>
-  </si>
-  <si>
-    <t>24,91%</t>
-  </si>
-  <si>
-    <t>22,8%</t>
-  </si>
-  <si>
-    <t>30,99%</t>
-  </si>
-  <si>
-    <t>36,57%</t>
-  </si>
-  <si>
-    <t>30,04%</t>
-  </si>
-  <si>
-    <t>42,02%</t>
-  </si>
-  <si>
-    <t>25,07%</t>
-  </si>
-  <si>
-    <t>19,69%</t>
-  </si>
-  <si>
-    <t>30,39%</t>
-  </si>
-  <si>
-    <t>30,79%</t>
-  </si>
-  <si>
-    <t>26,89%</t>
-  </si>
-  <si>
-    <t>35,11%</t>
-  </si>
-  <si>
-    <t>45,67%</t>
-  </si>
-  <si>
-    <t>39,48%</t>
-  </si>
-  <si>
-    <t>52,93%</t>
-  </si>
-  <si>
-    <t>50,51%</t>
-  </si>
-  <si>
-    <t>43,83%</t>
-  </si>
-  <si>
-    <t>57,0%</t>
-  </si>
-  <si>
-    <t>43,37%</t>
-  </si>
-  <si>
-    <t>53,02%</t>
-  </si>
-  <si>
-    <t>27,48%</t>
-  </si>
-  <si>
-    <t>21,96%</t>
-  </si>
-  <si>
-    <t>33,72%</t>
-  </si>
-  <si>
-    <t>21,22%</t>
-  </si>
-  <si>
-    <t>16,51%</t>
-  </si>
-  <si>
-    <t>24,31%</t>
-  </si>
-  <si>
-    <t>20,27%</t>
-  </si>
-  <si>
-    <t>28,47%</t>
-  </si>
-  <si>
-    <t>20,96%</t>
-  </si>
-  <si>
-    <t>33,06%</t>
-  </si>
-  <si>
-    <t>28,27%</t>
-  </si>
-  <si>
-    <t>23,1%</t>
-  </si>
-  <si>
-    <t>34,13%</t>
-  </si>
-  <si>
-    <t>27,57%</t>
-  </si>
-  <si>
-    <t>23,3%</t>
-  </si>
-  <si>
-    <t>31,83%</t>
-  </si>
-  <si>
-    <t>42,17%</t>
-  </si>
-  <si>
-    <t>39,23%</t>
-  </si>
-  <si>
-    <t>45,11%</t>
-  </si>
-  <si>
-    <t>43,79%</t>
-  </si>
-  <si>
-    <t>40,48%</t>
-  </si>
-  <si>
-    <t>46,8%</t>
-  </si>
-  <si>
-    <t>42,96%</t>
-  </si>
-  <si>
-    <t>40,8%</t>
-  </si>
-  <si>
-    <t>45,04%</t>
-  </si>
-  <si>
-    <t>23,98%</t>
-  </si>
-  <si>
-    <t>29,43%</t>
-  </si>
-  <si>
-    <t>26,42%</t>
-  </si>
-  <si>
-    <t>23,82%</t>
-  </si>
-  <si>
-    <t>29,48%</t>
-  </si>
-  <si>
-    <t>24,74%</t>
-  </si>
-  <si>
-    <t>28,68%</t>
+    <t>28,54%</t>
+  </si>
+  <si>
+    <t>29,79%</t>
+  </si>
+  <si>
+    <t>27,19%</t>
+  </si>
+  <si>
+    <t>32,93%</t>
   </si>
   <si>
     <t>31,26%</t>
   </si>
   <si>
-    <t>34,23%</t>
-  </si>
-  <si>
-    <t>29,79%</t>
-  </si>
-  <si>
-    <t>26,99%</t>
-  </si>
-  <si>
-    <t>32,54%</t>
+    <t>28,36%</t>
+  </si>
+  <si>
+    <t>34,18%</t>
   </si>
   <si>
     <t>30,54%</t>
+  </si>
+  <si>
+    <t>28,58%</t>
+  </si>
+  <si>
+    <t>32,65%</t>
   </si>
 </sst>
 </file>
@@ -1667,7 +1670,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F1DFB40A-124F-4E62-8ACE-A0528B6352B0}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5227ED12-1E34-4A27-BC23-8EC656323C4F}">
   <dimension ref="A1:Q24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1785,10 +1788,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>83</v>
+        <v>63</v>
       </c>
       <c r="D4" s="7">
-        <v>55437</v>
+        <v>40444</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -1800,10 +1803,10 @@
         <v>13</v>
       </c>
       <c r="H4" s="7">
-        <v>63</v>
+        <v>83</v>
       </c>
       <c r="I4" s="7">
-        <v>40444</v>
+        <v>55437</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>14</v>
@@ -1836,10 +1839,10 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="D5" s="7">
-        <v>19197</v>
+        <v>20526</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>21</v>
@@ -1851,10 +1854,10 @@
         <v>23</v>
       </c>
       <c r="H5" s="7">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="I5" s="7">
-        <v>20526</v>
+        <v>19197</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>24</v>
@@ -1890,7 +1893,7 @@
         <v>45</v>
       </c>
       <c r="D6" s="7">
-        <v>29800</v>
+        <v>30238</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>31</v>
@@ -1905,7 +1908,7 @@
         <v>45</v>
       </c>
       <c r="I6" s="7">
-        <v>30238</v>
+        <v>29800</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>34</v>
@@ -1938,25 +1941,25 @@
         <v>3</v>
       </c>
       <c r="C7" s="7">
+        <v>139</v>
+      </c>
+      <c r="D7" s="7">
+        <v>91208</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="G7" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="H7" s="7">
         <v>157</v>
       </c>
-      <c r="D7" s="7">
+      <c r="I7" s="7">
         <v>104433</v>
-      </c>
-      <c r="E7" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="H7" s="7">
-        <v>139</v>
-      </c>
-      <c r="I7" s="7">
-        <v>91208</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>40</v>
@@ -1991,10 +1994,10 @@
         <v>10</v>
       </c>
       <c r="C8" s="7">
-        <v>157</v>
+        <v>174</v>
       </c>
       <c r="D8" s="7">
-        <v>103667</v>
+        <v>115648</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>42</v>
@@ -2006,10 +2009,10 @@
         <v>44</v>
       </c>
       <c r="H8" s="7">
-        <v>174</v>
+        <v>157</v>
       </c>
       <c r="I8" s="7">
-        <v>115648</v>
+        <v>103667</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>45</v>
@@ -2042,10 +2045,10 @@
         <v>20</v>
       </c>
       <c r="C9" s="7">
-        <v>102</v>
+        <v>88</v>
       </c>
       <c r="D9" s="7">
-        <v>68586</v>
+        <v>58663</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>51</v>
@@ -2057,10 +2060,10 @@
         <v>53</v>
       </c>
       <c r="H9" s="7">
-        <v>88</v>
+        <v>102</v>
       </c>
       <c r="I9" s="7">
-        <v>58663</v>
+        <v>68586</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>54</v>
@@ -2093,10 +2096,10 @@
         <v>30</v>
       </c>
       <c r="C10" s="7">
-        <v>118</v>
+        <v>110</v>
       </c>
       <c r="D10" s="7">
-        <v>77988</v>
+        <v>73813</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>60</v>
@@ -2108,10 +2111,10 @@
         <v>62</v>
       </c>
       <c r="H10" s="7">
-        <v>110</v>
+        <v>118</v>
       </c>
       <c r="I10" s="7">
-        <v>73813</v>
+        <v>77988</v>
       </c>
       <c r="J10" s="7" t="s">
         <v>63</v>
@@ -2144,25 +2147,25 @@
         <v>3</v>
       </c>
       <c r="C11" s="7">
+        <v>372</v>
+      </c>
+      <c r="D11" s="7">
+        <v>248124</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="H11" s="7">
         <v>377</v>
       </c>
-      <c r="D11" s="7">
+      <c r="I11" s="7">
         <v>250241</v>
-      </c>
-      <c r="E11" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="H11" s="7">
-        <v>372</v>
-      </c>
-      <c r="I11" s="7">
-        <v>248124</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>40</v>
@@ -2197,10 +2200,10 @@
         <v>10</v>
       </c>
       <c r="C12" s="7">
-        <v>106</v>
+        <v>90</v>
       </c>
       <c r="D12" s="7">
-        <v>70689</v>
+        <v>59851</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>70</v>
@@ -2212,10 +2215,10 @@
         <v>72</v>
       </c>
       <c r="H12" s="7">
-        <v>90</v>
+        <v>106</v>
       </c>
       <c r="I12" s="7">
-        <v>59851</v>
+        <v>70689</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>73</v>
@@ -2248,10 +2251,10 @@
         <v>20</v>
       </c>
       <c r="C13" s="7">
-        <v>57</v>
+        <v>34</v>
       </c>
       <c r="D13" s="7">
-        <v>37984</v>
+        <v>22667</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>79</v>
@@ -2263,10 +2266,10 @@
         <v>81</v>
       </c>
       <c r="H13" s="7">
-        <v>34</v>
+        <v>57</v>
       </c>
       <c r="I13" s="7">
-        <v>22667</v>
+        <v>37984</v>
       </c>
       <c r="J13" s="7" t="s">
         <v>82</v>
@@ -2299,10 +2302,10 @@
         <v>30</v>
       </c>
       <c r="C14" s="7">
-        <v>43</v>
+        <v>60</v>
       </c>
       <c r="D14" s="7">
-        <v>28708</v>
+        <v>40046</v>
       </c>
       <c r="E14" s="7" t="s">
         <v>88</v>
@@ -2314,10 +2317,10 @@
         <v>90</v>
       </c>
       <c r="H14" s="7">
-        <v>60</v>
+        <v>43</v>
       </c>
       <c r="I14" s="7">
-        <v>40046</v>
+        <v>28708</v>
       </c>
       <c r="J14" s="7" t="s">
         <v>91</v>
@@ -2350,25 +2353,25 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
+        <v>184</v>
+      </c>
+      <c r="D15" s="7">
+        <v>122563</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="H15" s="7">
         <v>206</v>
       </c>
-      <c r="D15" s="7">
+      <c r="I15" s="7">
         <v>137381</v>
-      </c>
-      <c r="E15" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="H15" s="7">
-        <v>184</v>
-      </c>
-      <c r="I15" s="7">
-        <v>122563</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>40</v>
@@ -2406,7 +2409,7 @@
         <v>120</v>
       </c>
       <c r="D16" s="7">
-        <v>79004</v>
+        <v>81554</v>
       </c>
       <c r="E16" s="7" t="s">
         <v>98</v>
@@ -2421,7 +2424,7 @@
         <v>120</v>
       </c>
       <c r="I16" s="7">
-        <v>81554</v>
+        <v>79004</v>
       </c>
       <c r="J16" s="7" t="s">
         <v>101</v>
@@ -2454,10 +2457,10 @@
         <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>86</v>
+        <v>66</v>
       </c>
       <c r="D17" s="7">
-        <v>57987</v>
+        <v>45105</v>
       </c>
       <c r="E17" s="7" t="s">
         <v>107</v>
@@ -2469,10 +2472,10 @@
         <v>109</v>
       </c>
       <c r="H17" s="7">
-        <v>66</v>
+        <v>86</v>
       </c>
       <c r="I17" s="7">
-        <v>45105</v>
+        <v>57987</v>
       </c>
       <c r="J17" s="7" t="s">
         <v>110</v>
@@ -2505,10 +2508,10 @@
         <v>30</v>
       </c>
       <c r="C18" s="7">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="D18" s="7">
-        <v>64936</v>
+        <v>61781</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>116</v>
@@ -2520,10 +2523,10 @@
         <v>118</v>
       </c>
       <c r="H18" s="7">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="I18" s="7">
-        <v>61781</v>
+        <v>64936</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>119</v>
@@ -2556,25 +2559,25 @@
         <v>3</v>
       </c>
       <c r="C19" s="7">
+        <v>278</v>
+      </c>
+      <c r="D19" s="7">
+        <v>188441</v>
+      </c>
+      <c r="E19" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="G19" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="H19" s="7">
         <v>304</v>
       </c>
-      <c r="D19" s="7">
+      <c r="I19" s="7">
         <v>201927</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="H19" s="7">
-        <v>278</v>
-      </c>
-      <c r="I19" s="7">
-        <v>188441</v>
       </c>
       <c r="J19" s="7" t="s">
         <v>40</v>
@@ -2609,10 +2612,10 @@
         <v>10</v>
       </c>
       <c r="C20" s="7">
-        <v>466</v>
+        <v>447</v>
       </c>
       <c r="D20" s="7">
-        <v>308797</v>
+        <v>297498</v>
       </c>
       <c r="E20" s="7" t="s">
         <v>125</v>
@@ -2624,10 +2627,10 @@
         <v>127</v>
       </c>
       <c r="H20" s="7">
-        <v>447</v>
+        <v>466</v>
       </c>
       <c r="I20" s="7">
-        <v>297498</v>
+        <v>308797</v>
       </c>
       <c r="J20" s="7" t="s">
         <v>128</v>
@@ -2660,10 +2663,10 @@
         <v>20</v>
       </c>
       <c r="C21" s="7">
-        <v>274</v>
+        <v>219</v>
       </c>
       <c r="D21" s="7">
-        <v>183754</v>
+        <v>146960</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>134</v>
@@ -2675,10 +2678,10 @@
         <v>136</v>
       </c>
       <c r="H21" s="7">
-        <v>219</v>
+        <v>274</v>
       </c>
       <c r="I21" s="7">
-        <v>146960</v>
+        <v>183754</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>137</v>
@@ -2711,10 +2714,10 @@
         <v>30</v>
       </c>
       <c r="C22" s="7">
-        <v>304</v>
+        <v>307</v>
       </c>
       <c r="D22" s="7">
-        <v>201431</v>
+        <v>205878</v>
       </c>
       <c r="E22" s="7" t="s">
         <v>143</v>
@@ -2726,10 +2729,10 @@
         <v>145</v>
       </c>
       <c r="H22" s="7">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="I22" s="7">
-        <v>205878</v>
+        <v>201431</v>
       </c>
       <c r="J22" s="7" t="s">
         <v>146</v>
@@ -2762,25 +2765,25 @@
         <v>3</v>
       </c>
       <c r="C23" s="7">
+        <v>973</v>
+      </c>
+      <c r="D23" s="7">
+        <v>650336</v>
+      </c>
+      <c r="E23" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="G23" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="H23" s="7">
         <v>1044</v>
       </c>
-      <c r="D23" s="7">
+      <c r="I23" s="7">
         <v>693982</v>
-      </c>
-      <c r="E23" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="F23" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="H23" s="7">
-        <v>973</v>
-      </c>
-      <c r="I23" s="7">
-        <v>650336</v>
       </c>
       <c r="J23" s="7" t="s">
         <v>40</v>
@@ -2829,7 +2832,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BC553447-2CE5-4B3B-9C62-E7A233248DE4}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F9DCA334-6A97-4641-A9C4-CA41DAC8E042}">
   <dimension ref="A1:Q24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2947,10 +2950,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="D4" s="7">
-        <v>59415</v>
+        <v>60465</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>154</v>
@@ -2962,10 +2965,10 @@
         <v>156</v>
       </c>
       <c r="H4" s="7">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="I4" s="7">
-        <v>60465</v>
+        <v>59415</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>157</v>
@@ -2974,7 +2977,7 @@
         <v>158</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>78</v>
+        <v>159</v>
       </c>
       <c r="M4" s="7">
         <v>181</v>
@@ -2983,13 +2986,13 @@
         <v>119880</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2998,34 +3001,34 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
+        <v>39</v>
+      </c>
+      <c r="D5" s="7">
+        <v>26281</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="H5" s="7">
         <v>51</v>
       </c>
-      <c r="D5" s="7">
+      <c r="I5" s="7">
         <v>36484</v>
       </c>
-      <c r="E5" s="7" t="s">
-        <v>162</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>163</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>164</v>
-      </c>
-      <c r="H5" s="7">
-        <v>39</v>
-      </c>
-      <c r="I5" s="7">
-        <v>26281</v>
-      </c>
       <c r="J5" s="7" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="M5" s="7">
         <v>90</v>
@@ -3034,13 +3037,13 @@
         <v>62765</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3049,34 +3052,34 @@
         <v>30</v>
       </c>
       <c r="C6" s="7">
-        <v>40</v>
+        <v>56</v>
       </c>
       <c r="D6" s="7">
+        <v>38909</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="H6" s="7">
+        <v>40</v>
+      </c>
+      <c r="I6" s="7">
         <v>29859</v>
       </c>
-      <c r="E6" s="7" t="s">
-        <v>171</v>
-      </c>
-      <c r="F6" s="7" t="s">
-        <v>172</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>173</v>
-      </c>
-      <c r="H6" s="7">
-        <v>56</v>
-      </c>
-      <c r="I6" s="7">
-        <v>38909</v>
-      </c>
       <c r="J6" s="7" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="M6" s="7">
         <v>96</v>
@@ -3085,13 +3088,13 @@
         <v>68768</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -3100,25 +3103,25 @@
         <v>3</v>
       </c>
       <c r="C7" s="7">
+        <v>188</v>
+      </c>
+      <c r="D7" s="7">
+        <v>125655</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="G7" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="H7" s="7">
         <v>179</v>
       </c>
-      <c r="D7" s="7">
+      <c r="I7" s="7">
         <v>125758</v>
-      </c>
-      <c r="E7" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="H7" s="7">
-        <v>188</v>
-      </c>
-      <c r="I7" s="7">
-        <v>125655</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>40</v>
@@ -3153,34 +3156,34 @@
         <v>10</v>
       </c>
       <c r="C8" s="7">
+        <v>167</v>
+      </c>
+      <c r="D8" s="7">
+        <v>115475</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>181</v>
+      </c>
+      <c r="F8" s="7" t="s">
         <v>182</v>
       </c>
-      <c r="D8" s="7">
+      <c r="G8" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="H8" s="7">
+        <v>182</v>
+      </c>
+      <c r="I8" s="7">
         <v>130215</v>
       </c>
-      <c r="E8" s="7" t="s">
-        <v>180</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>181</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>182</v>
-      </c>
-      <c r="H8" s="7">
-        <v>167</v>
-      </c>
-      <c r="I8" s="7">
-        <v>115475</v>
-      </c>
       <c r="J8" s="7" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="M8" s="7">
         <v>349</v>
@@ -3189,13 +3192,13 @@
         <v>245690</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3204,34 +3207,34 @@
         <v>20</v>
       </c>
       <c r="C9" s="7">
+        <v>84</v>
+      </c>
+      <c r="D9" s="7">
+        <v>59860</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>191</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>192</v>
+      </c>
+      <c r="H9" s="7">
         <v>98</v>
       </c>
-      <c r="D9" s="7">
+      <c r="I9" s="7">
         <v>68086</v>
       </c>
-      <c r="E9" s="7" t="s">
-        <v>189</v>
-      </c>
-      <c r="F9" s="7" t="s">
-        <v>190</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>191</v>
-      </c>
-      <c r="H9" s="7">
-        <v>84</v>
-      </c>
-      <c r="I9" s="7">
-        <v>59860</v>
-      </c>
       <c r="J9" s="7" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="M9" s="7">
         <v>182</v>
@@ -3240,13 +3243,13 @@
         <v>127946</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -3255,34 +3258,34 @@
         <v>30</v>
       </c>
       <c r="C10" s="7">
+        <v>86</v>
+      </c>
+      <c r="D10" s="7">
+        <v>58947</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>199</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>200</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>201</v>
+      </c>
+      <c r="H10" s="7">
         <v>89</v>
       </c>
-      <c r="D10" s="7">
+      <c r="I10" s="7">
         <v>66611</v>
       </c>
-      <c r="E10" s="7" t="s">
-        <v>198</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>199</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>200</v>
-      </c>
-      <c r="H10" s="7">
-        <v>86</v>
-      </c>
-      <c r="I10" s="7">
-        <v>58947</v>
-      </c>
       <c r="J10" s="7" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>88</v>
+        <v>203</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="M10" s="7">
         <v>175</v>
@@ -3291,13 +3294,13 @@
         <v>125559</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3306,25 +3309,25 @@
         <v>3</v>
       </c>
       <c r="C11" s="7">
+        <v>337</v>
+      </c>
+      <c r="D11" s="7">
+        <v>234283</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="H11" s="7">
         <v>369</v>
       </c>
-      <c r="D11" s="7">
+      <c r="I11" s="7">
         <v>264912</v>
-      </c>
-      <c r="E11" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="H11" s="7">
-        <v>337</v>
-      </c>
-      <c r="I11" s="7">
-        <v>234283</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>40</v>
@@ -3359,34 +3362,34 @@
         <v>10</v>
       </c>
       <c r="C12" s="7">
+        <v>110</v>
+      </c>
+      <c r="D12" s="7">
+        <v>77257</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>208</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>209</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>210</v>
+      </c>
+      <c r="H12" s="7">
         <v>117</v>
       </c>
-      <c r="D12" s="7">
+      <c r="I12" s="7">
         <v>81444</v>
       </c>
-      <c r="E12" s="7" t="s">
-        <v>206</v>
-      </c>
-      <c r="F12" s="7" t="s">
-        <v>207</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>208</v>
-      </c>
-      <c r="H12" s="7">
-        <v>110</v>
-      </c>
-      <c r="I12" s="7">
-        <v>77257</v>
-      </c>
       <c r="J12" s="7" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="M12" s="7">
         <v>227</v>
@@ -3395,13 +3398,13 @@
         <v>158700</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -3410,34 +3413,34 @@
         <v>20</v>
       </c>
       <c r="C13" s="7">
+        <v>44</v>
+      </c>
+      <c r="D13" s="7">
+        <v>30800</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>217</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>218</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>219</v>
+      </c>
+      <c r="H13" s="7">
         <v>58</v>
       </c>
-      <c r="D13" s="7">
+      <c r="I13" s="7">
         <v>39716</v>
       </c>
-      <c r="E13" s="7" t="s">
-        <v>215</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>216</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>217</v>
-      </c>
-      <c r="H13" s="7">
-        <v>44</v>
-      </c>
-      <c r="I13" s="7">
-        <v>30800</v>
-      </c>
       <c r="J13" s="7" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="M13" s="7">
         <v>102</v>
@@ -3446,13 +3449,13 @@
         <v>70516</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3461,34 +3464,34 @@
         <v>30</v>
       </c>
       <c r="C14" s="7">
+        <v>69</v>
+      </c>
+      <c r="D14" s="7">
+        <v>48986</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>226</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>227</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="H14" s="7">
         <v>49</v>
       </c>
-      <c r="D14" s="7">
+      <c r="I14" s="7">
         <v>34675</v>
       </c>
-      <c r="E14" s="7" t="s">
-        <v>224</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>225</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>226</v>
-      </c>
-      <c r="H14" s="7">
-        <v>69</v>
-      </c>
-      <c r="I14" s="7">
-        <v>48986</v>
-      </c>
       <c r="J14" s="7" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="M14" s="7">
         <v>118</v>
@@ -3497,13 +3500,13 @@
         <v>83661</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>231</v>
+        <v>58</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>232</v>
+        <v>192</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3512,25 +3515,25 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
+        <v>223</v>
+      </c>
+      <c r="D15" s="7">
+        <v>157043</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="H15" s="7">
         <v>224</v>
       </c>
-      <c r="D15" s="7">
+      <c r="I15" s="7">
         <v>155835</v>
-      </c>
-      <c r="E15" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="H15" s="7">
-        <v>223</v>
-      </c>
-      <c r="I15" s="7">
-        <v>157043</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>40</v>
@@ -3565,34 +3568,34 @@
         <v>10</v>
       </c>
       <c r="C16" s="7">
+        <v>107</v>
+      </c>
+      <c r="D16" s="7">
+        <v>75117</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>232</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>233</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>234</v>
+      </c>
+      <c r="H16" s="7">
         <v>123</v>
       </c>
-      <c r="D16" s="7">
+      <c r="I16" s="7">
         <v>83783</v>
       </c>
-      <c r="E16" s="7" t="s">
-        <v>233</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>234</v>
-      </c>
-      <c r="G16" s="7" t="s">
+      <c r="J16" s="7" t="s">
         <v>235</v>
       </c>
-      <c r="H16" s="7">
-        <v>107</v>
-      </c>
-      <c r="I16" s="7">
-        <v>75117</v>
-      </c>
-      <c r="J16" s="7" t="s">
+      <c r="K16" s="7" t="s">
         <v>236</v>
       </c>
-      <c r="K16" s="7" t="s">
+      <c r="L16" s="7" t="s">
         <v>237</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>238</v>
       </c>
       <c r="M16" s="7">
         <v>230</v>
@@ -3601,13 +3604,13 @@
         <v>158900</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>238</v>
+      </c>
+      <c r="P16" s="7" t="s">
         <v>239</v>
       </c>
-      <c r="P16" s="7" t="s">
+      <c r="Q16" s="7" t="s">
         <v>240</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>241</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3619,22 +3622,22 @@
         <v>72</v>
       </c>
       <c r="D17" s="7">
-        <v>47475</v>
+        <v>50828</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>241</v>
+      </c>
+      <c r="F17" s="7" t="s">
         <v>242</v>
       </c>
-      <c r="F17" s="7" t="s">
+      <c r="G17" s="7" t="s">
         <v>243</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>151</v>
       </c>
       <c r="H17" s="7">
         <v>72</v>
       </c>
       <c r="I17" s="7">
-        <v>50828</v>
+        <v>47475</v>
       </c>
       <c r="J17" s="7" t="s">
         <v>244</v>
@@ -3643,7 +3646,7 @@
         <v>245</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>246</v>
+        <v>31</v>
       </c>
       <c r="M17" s="7">
         <v>144</v>
@@ -3652,13 +3655,13 @@
         <v>98303</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>246</v>
+      </c>
+      <c r="P17" s="7" t="s">
         <v>247</v>
       </c>
-      <c r="P17" s="7" t="s">
+      <c r="Q17" s="7" t="s">
         <v>248</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>249</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3667,34 +3670,34 @@
         <v>30</v>
       </c>
       <c r="C18" s="7">
+        <v>58</v>
+      </c>
+      <c r="D18" s="7">
+        <v>41068</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>250</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>251</v>
+      </c>
+      <c r="H18" s="7">
         <v>64</v>
       </c>
-      <c r="D18" s="7">
+      <c r="I18" s="7">
         <v>44697</v>
       </c>
-      <c r="E18" s="7" t="s">
-        <v>250</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>251</v>
-      </c>
-      <c r="G18" s="7" t="s">
+      <c r="J18" s="7" t="s">
         <v>252</v>
       </c>
-      <c r="H18" s="7">
-        <v>58</v>
-      </c>
-      <c r="I18" s="7">
-        <v>41068</v>
-      </c>
-      <c r="J18" s="7" t="s">
+      <c r="K18" s="7" t="s">
         <v>253</v>
       </c>
-      <c r="K18" s="7" t="s">
+      <c r="L18" s="7" t="s">
         <v>254</v>
-      </c>
-      <c r="L18" s="7" t="s">
-        <v>255</v>
       </c>
       <c r="M18" s="7">
         <v>122</v>
@@ -3703,13 +3706,13 @@
         <v>85765</v>
       </c>
       <c r="O18" s="7" t="s">
+        <v>255</v>
+      </c>
+      <c r="P18" s="7" t="s">
         <v>256</v>
       </c>
-      <c r="P18" s="7" t="s">
-        <v>257</v>
-      </c>
       <c r="Q18" s="7" t="s">
-        <v>258</v>
+        <v>146</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -3718,25 +3721,25 @@
         <v>3</v>
       </c>
       <c r="C19" s="7">
+        <v>237</v>
+      </c>
+      <c r="D19" s="7">
+        <v>167013</v>
+      </c>
+      <c r="E19" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="G19" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="H19" s="7">
         <v>259</v>
       </c>
-      <c r="D19" s="7">
+      <c r="I19" s="7">
         <v>175955</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="H19" s="7">
-        <v>237</v>
-      </c>
-      <c r="I19" s="7">
-        <v>167013</v>
       </c>
       <c r="J19" s="7" t="s">
         <v>40</v>
@@ -3771,34 +3774,34 @@
         <v>10</v>
       </c>
       <c r="C20" s="7">
+        <v>477</v>
+      </c>
+      <c r="D20" s="7">
+        <v>328315</v>
+      </c>
+      <c r="E20" s="7" t="s">
+        <v>257</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>258</v>
+      </c>
+      <c r="G20" s="7" t="s">
+        <v>259</v>
+      </c>
+      <c r="H20" s="7">
         <v>510</v>
       </c>
-      <c r="D20" s="7">
+      <c r="I20" s="7">
         <v>354857</v>
       </c>
-      <c r="E20" s="7" t="s">
-        <v>259</v>
-      </c>
-      <c r="F20" s="7" t="s">
+      <c r="J20" s="7" t="s">
         <v>260</v>
       </c>
-      <c r="G20" s="7" t="s">
+      <c r="K20" s="7" t="s">
         <v>261</v>
       </c>
-      <c r="H20" s="7">
-        <v>477</v>
-      </c>
-      <c r="I20" s="7">
-        <v>328314</v>
-      </c>
-      <c r="J20" s="7" t="s">
+      <c r="L20" s="7" t="s">
         <v>262</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>236</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>263</v>
       </c>
       <c r="M20" s="7">
         <v>987</v>
@@ -3807,13 +3810,13 @@
         <v>683171</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>263</v>
+      </c>
+      <c r="P20" s="7" t="s">
         <v>264</v>
       </c>
-      <c r="P20" s="7" t="s">
+      <c r="Q20" s="7" t="s">
         <v>265</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>266</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3822,34 +3825,34 @@
         <v>20</v>
       </c>
       <c r="C21" s="7">
+        <v>239</v>
+      </c>
+      <c r="D21" s="7">
+        <v>167770</v>
+      </c>
+      <c r="E21" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="F21" s="7" t="s">
+        <v>266</v>
+      </c>
+      <c r="G21" s="7" t="s">
+        <v>267</v>
+      </c>
+      <c r="H21" s="7">
         <v>279</v>
       </c>
-      <c r="D21" s="7">
+      <c r="I21" s="7">
         <v>191760</v>
       </c>
-      <c r="E21" s="7" t="s">
-        <v>267</v>
-      </c>
-      <c r="F21" s="7" t="s">
+      <c r="J21" s="7" t="s">
         <v>268</v>
       </c>
-      <c r="G21" s="7" t="s">
+      <c r="K21" s="7" t="s">
         <v>269</v>
       </c>
-      <c r="H21" s="7">
-        <v>239</v>
-      </c>
-      <c r="I21" s="7">
-        <v>167769</v>
-      </c>
-      <c r="J21" s="7" t="s">
+      <c r="L21" s="7" t="s">
         <v>270</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>271</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>272</v>
       </c>
       <c r="M21" s="7">
         <v>518</v>
@@ -3858,13 +3861,13 @@
         <v>359530</v>
       </c>
       <c r="O21" s="7" t="s">
+        <v>271</v>
+      </c>
+      <c r="P21" s="7" t="s">
+        <v>272</v>
+      </c>
+      <c r="Q21" s="7" t="s">
         <v>273</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>274</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>275</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -3873,34 +3876,34 @@
         <v>30</v>
       </c>
       <c r="C22" s="7">
+        <v>269</v>
+      </c>
+      <c r="D22" s="7">
+        <v>187911</v>
+      </c>
+      <c r="E22" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>274</v>
+      </c>
+      <c r="G22" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="H22" s="7">
         <v>242</v>
       </c>
-      <c r="D22" s="7">
+      <c r="I22" s="7">
         <v>175843</v>
       </c>
-      <c r="E22" s="7" t="s">
+      <c r="J22" s="7" t="s">
+        <v>275</v>
+      </c>
+      <c r="K22" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="L22" s="7" t="s">
         <v>276</v>
-      </c>
-      <c r="F22" s="7" t="s">
-        <v>277</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>278</v>
-      </c>
-      <c r="H22" s="7">
-        <v>269</v>
-      </c>
-      <c r="I22" s="7">
-        <v>187910</v>
-      </c>
-      <c r="J22" s="7" t="s">
-        <v>279</v>
-      </c>
-      <c r="K22" s="7" t="s">
-        <v>280</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>281</v>
       </c>
       <c r="M22" s="7">
         <v>511</v>
@@ -3909,13 +3912,13 @@
         <v>363754</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>282</v>
+        <v>277</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>283</v>
+        <v>107</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>284</v>
+        <v>278</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3924,25 +3927,25 @@
         <v>3</v>
       </c>
       <c r="C23" s="7">
+        <v>985</v>
+      </c>
+      <c r="D23" s="7">
+        <v>683995</v>
+      </c>
+      <c r="E23" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="G23" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="H23" s="7">
         <v>1031</v>
       </c>
-      <c r="D23" s="7">
+      <c r="I23" s="7">
         <v>722460</v>
-      </c>
-      <c r="E23" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="F23" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="H23" s="7">
-        <v>985</v>
-      </c>
-      <c r="I23" s="7">
-        <v>683994</v>
       </c>
       <c r="J23" s="7" t="s">
         <v>40</v>
@@ -3957,7 +3960,7 @@
         <v>2016</v>
       </c>
       <c r="N23" s="7">
-        <v>1406454</v>
+        <v>1406455</v>
       </c>
       <c r="O23" s="7" t="s">
         <v>40</v>
@@ -3991,7 +3994,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2E07E8B5-CA5D-4338-8C2D-459E2FCC47B6}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6EFF5AE8-FA5F-4A86-A941-18DC46870EFA}">
   <dimension ref="A1:Q24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4008,7 +4011,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>285</v>
+        <v>279</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4109,34 +4112,34 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
+        <v>69</v>
+      </c>
+      <c r="D4" s="7">
+        <v>40360</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>280</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>281</v>
+      </c>
+      <c r="G4" s="7" t="s">
+        <v>282</v>
+      </c>
+      <c r="H4" s="7">
         <v>77</v>
       </c>
-      <c r="D4" s="7">
+      <c r="I4" s="7">
         <v>51236</v>
       </c>
-      <c r="E4" s="7" t="s">
-        <v>286</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>287</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>288</v>
-      </c>
-      <c r="H4" s="7">
-        <v>69</v>
-      </c>
-      <c r="I4" s="7">
-        <v>40360</v>
-      </c>
       <c r="J4" s="7" t="s">
-        <v>289</v>
+        <v>283</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>290</v>
+        <v>284</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>291</v>
+        <v>285</v>
       </c>
       <c r="M4" s="7">
         <v>146</v>
@@ -4145,13 +4148,13 @@
         <v>91595</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>292</v>
+        <v>286</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>293</v>
+        <v>287</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>294</v>
+        <v>288</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4160,34 +4163,34 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
+        <v>49</v>
+      </c>
+      <c r="D5" s="7">
+        <v>31539</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>289</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>290</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>291</v>
+      </c>
+      <c r="H5" s="7">
         <v>47</v>
       </c>
-      <c r="D5" s="7">
+      <c r="I5" s="7">
         <v>30705</v>
       </c>
-      <c r="E5" s="7" t="s">
-        <v>295</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>193</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>296</v>
-      </c>
-      <c r="H5" s="7">
-        <v>49</v>
-      </c>
-      <c r="I5" s="7">
-        <v>31539</v>
-      </c>
       <c r="J5" s="7" t="s">
-        <v>167</v>
+        <v>292</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="M5" s="7">
         <v>96</v>
@@ -4196,13 +4199,13 @@
         <v>62243</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>179</v>
+        <v>297</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4211,34 +4214,34 @@
         <v>30</v>
       </c>
       <c r="C6" s="7">
+        <v>69</v>
+      </c>
+      <c r="D6" s="7">
+        <v>44472</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>298</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>299</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>300</v>
+      </c>
+      <c r="H6" s="7">
         <v>45</v>
       </c>
-      <c r="D6" s="7">
+      <c r="I6" s="7">
         <v>29888</v>
       </c>
-      <c r="E6" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="F6" s="7" t="s">
+      <c r="J6" s="7" t="s">
         <v>301</v>
       </c>
-      <c r="G6" s="7" t="s">
+      <c r="K6" s="7" t="s">
         <v>302</v>
       </c>
-      <c r="H6" s="7">
-        <v>69</v>
-      </c>
-      <c r="I6" s="7">
-        <v>44472</v>
-      </c>
-      <c r="J6" s="7" t="s">
+      <c r="L6" s="7" t="s">
         <v>303</v>
-      </c>
-      <c r="K6" s="7" t="s">
-        <v>304</v>
-      </c>
-      <c r="L6" s="7" t="s">
-        <v>305</v>
       </c>
       <c r="M6" s="7">
         <v>114</v>
@@ -4247,13 +4250,13 @@
         <v>74359</v>
       </c>
       <c r="O6" s="7" t="s">
+        <v>304</v>
+      </c>
+      <c r="P6" s="7" t="s">
+        <v>305</v>
+      </c>
+      <c r="Q6" s="7" t="s">
         <v>306</v>
-      </c>
-      <c r="P6" s="7" t="s">
-        <v>307</v>
-      </c>
-      <c r="Q6" s="7" t="s">
-        <v>308</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -4262,25 +4265,25 @@
         <v>3</v>
       </c>
       <c r="C7" s="7">
+        <v>187</v>
+      </c>
+      <c r="D7" s="7">
+        <v>116370</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="G7" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="H7" s="7">
         <v>169</v>
       </c>
-      <c r="D7" s="7">
+      <c r="I7" s="7">
         <v>111828</v>
-      </c>
-      <c r="E7" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="H7" s="7">
-        <v>187</v>
-      </c>
-      <c r="I7" s="7">
-        <v>116370</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>40</v>
@@ -4315,34 +4318,34 @@
         <v>10</v>
       </c>
       <c r="C8" s="7">
+        <v>141</v>
+      </c>
+      <c r="D8" s="7">
+        <v>88982</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>307</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>308</v>
+      </c>
+      <c r="G8" s="7" t="s">
+        <v>309</v>
+      </c>
+      <c r="H8" s="7">
         <v>153</v>
       </c>
-      <c r="D8" s="7">
+      <c r="I8" s="7">
         <v>100439</v>
       </c>
-      <c r="E8" s="7" t="s">
-        <v>309</v>
-      </c>
-      <c r="F8" s="7" t="s">
+      <c r="J8" s="7" t="s">
         <v>310</v>
       </c>
-      <c r="G8" s="7" t="s">
+      <c r="K8" s="7" t="s">
         <v>311</v>
       </c>
-      <c r="H8" s="7">
-        <v>141</v>
-      </c>
-      <c r="I8" s="7">
-        <v>88982</v>
-      </c>
-      <c r="J8" s="7" t="s">
+      <c r="L8" s="7" t="s">
         <v>312</v>
-      </c>
-      <c r="K8" s="7" t="s">
-        <v>313</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>314</v>
       </c>
       <c r="M8" s="7">
         <v>294</v>
@@ -4351,13 +4354,13 @@
         <v>189421</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>317</v>
+        <v>212</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4366,34 +4369,34 @@
         <v>20</v>
       </c>
       <c r="C9" s="7">
+        <v>88</v>
+      </c>
+      <c r="D9" s="7">
+        <v>56023</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>315</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>316</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>317</v>
+      </c>
+      <c r="H9" s="7">
         <v>107</v>
       </c>
-      <c r="D9" s="7">
+      <c r="I9" s="7">
         <v>72356</v>
       </c>
-      <c r="E9" s="7" t="s">
+      <c r="J9" s="7" t="s">
         <v>318</v>
       </c>
-      <c r="F9" s="7" t="s">
+      <c r="K9" s="7" t="s">
         <v>319</v>
       </c>
-      <c r="G9" s="7" t="s">
+      <c r="L9" s="7" t="s">
         <v>320</v>
-      </c>
-      <c r="H9" s="7">
-        <v>88</v>
-      </c>
-      <c r="I9" s="7">
-        <v>56023</v>
-      </c>
-      <c r="J9" s="7" t="s">
-        <v>321</v>
-      </c>
-      <c r="K9" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="L9" s="7" t="s">
-        <v>322</v>
       </c>
       <c r="M9" s="7">
         <v>195</v>
@@ -4402,13 +4405,13 @@
         <v>128379</v>
       </c>
       <c r="O9" s="7" t="s">
+        <v>321</v>
+      </c>
+      <c r="P9" s="7" t="s">
+        <v>322</v>
+      </c>
+      <c r="Q9" s="7" t="s">
         <v>323</v>
-      </c>
-      <c r="P9" s="7" t="s">
-        <v>324</v>
-      </c>
-      <c r="Q9" s="7" t="s">
-        <v>325</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -4417,34 +4420,34 @@
         <v>30</v>
       </c>
       <c r="C10" s="7">
+        <v>100</v>
+      </c>
+      <c r="D10" s="7">
+        <v>63673</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>324</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>325</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>326</v>
+      </c>
+      <c r="H10" s="7">
         <v>115</v>
       </c>
-      <c r="D10" s="7">
+      <c r="I10" s="7">
         <v>82088</v>
       </c>
-      <c r="E10" s="7" t="s">
-        <v>326</v>
-      </c>
-      <c r="F10" s="7" t="s">
+      <c r="J10" s="7" t="s">
         <v>327</v>
       </c>
-      <c r="G10" s="7" t="s">
+      <c r="K10" s="7" t="s">
+        <v>305</v>
+      </c>
+      <c r="L10" s="7" t="s">
         <v>328</v>
-      </c>
-      <c r="H10" s="7">
-        <v>100</v>
-      </c>
-      <c r="I10" s="7">
-        <v>63673</v>
-      </c>
-      <c r="J10" s="7" t="s">
-        <v>329</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>330</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>331</v>
       </c>
       <c r="M10" s="7">
         <v>215</v>
@@ -4453,13 +4456,13 @@
         <v>145762</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4468,25 +4471,25 @@
         <v>3</v>
       </c>
       <c r="C11" s="7">
+        <v>329</v>
+      </c>
+      <c r="D11" s="7">
+        <v>208678</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="H11" s="7">
         <v>375</v>
       </c>
-      <c r="D11" s="7">
+      <c r="I11" s="7">
         <v>254884</v>
-      </c>
-      <c r="E11" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="H11" s="7">
-        <v>329</v>
-      </c>
-      <c r="I11" s="7">
-        <v>208678</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>40</v>
@@ -4521,34 +4524,34 @@
         <v>10</v>
       </c>
       <c r="C12" s="7">
+        <v>122</v>
+      </c>
+      <c r="D12" s="7">
+        <v>83394</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>332</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>333</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>334</v>
+      </c>
+      <c r="H12" s="7">
         <v>106</v>
       </c>
-      <c r="D12" s="7">
+      <c r="I12" s="7">
         <v>75066</v>
       </c>
-      <c r="E12" s="7" t="s">
+      <c r="J12" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="K12" s="7" t="s">
         <v>335</v>
       </c>
-      <c r="F12" s="7" t="s">
+      <c r="L12" s="7" t="s">
         <v>336</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>337</v>
-      </c>
-      <c r="H12" s="7">
-        <v>122</v>
-      </c>
-      <c r="I12" s="7">
-        <v>83394</v>
-      </c>
-      <c r="J12" s="7" t="s">
-        <v>338</v>
-      </c>
-      <c r="K12" s="7" t="s">
-        <v>339</v>
-      </c>
-      <c r="L12" s="7" t="s">
-        <v>340</v>
       </c>
       <c r="M12" s="7">
         <v>228</v>
@@ -4557,13 +4560,13 @@
         <v>158461</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>341</v>
+        <v>337</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>343</v>
+        <v>339</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -4572,34 +4575,34 @@
         <v>20</v>
       </c>
       <c r="C13" s="7">
+        <v>79</v>
+      </c>
+      <c r="D13" s="7">
+        <v>56126</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>340</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>341</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>342</v>
+      </c>
+      <c r="H13" s="7">
         <v>58</v>
       </c>
-      <c r="D13" s="7">
+      <c r="I13" s="7">
         <v>41878</v>
       </c>
-      <c r="E13" s="7" t="s">
+      <c r="J13" s="7" t="s">
+        <v>343</v>
+      </c>
+      <c r="K13" s="7" t="s">
         <v>344</v>
       </c>
-      <c r="F13" s="7" t="s">
+      <c r="L13" s="7" t="s">
         <v>345</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>346</v>
-      </c>
-      <c r="H13" s="7">
-        <v>79</v>
-      </c>
-      <c r="I13" s="7">
-        <v>56126</v>
-      </c>
-      <c r="J13" s="7" t="s">
-        <v>347</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>348</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>39</v>
       </c>
       <c r="M13" s="7">
         <v>137</v>
@@ -4611,10 +4614,10 @@
         <v>94</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>350</v>
+        <v>324</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4623,34 +4626,34 @@
         <v>30</v>
       </c>
       <c r="C14" s="7">
+        <v>67</v>
+      </c>
+      <c r="D14" s="7">
+        <v>46677</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>347</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>348</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>349</v>
+      </c>
+      <c r="H14" s="7">
         <v>93</v>
       </c>
-      <c r="D14" s="7">
+      <c r="I14" s="7">
         <v>67411</v>
       </c>
-      <c r="E14" s="7" t="s">
+      <c r="J14" s="7" t="s">
+        <v>350</v>
+      </c>
+      <c r="K14" s="7" t="s">
         <v>351</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="L14" s="7" t="s">
         <v>352</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>353</v>
-      </c>
-      <c r="H14" s="7">
-        <v>67</v>
-      </c>
-      <c r="I14" s="7">
-        <v>46677</v>
-      </c>
-      <c r="J14" s="7" t="s">
-        <v>354</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>355</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>356</v>
       </c>
       <c r="M14" s="7">
         <v>160</v>
@@ -4659,13 +4662,13 @@
         <v>114088</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>357</v>
+        <v>353</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>358</v>
+        <v>354</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4674,25 +4677,25 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
+        <v>268</v>
+      </c>
+      <c r="D15" s="7">
+        <v>186197</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="H15" s="7">
         <v>257</v>
       </c>
-      <c r="D15" s="7">
+      <c r="I15" s="7">
         <v>184356</v>
-      </c>
-      <c r="E15" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="H15" s="7">
-        <v>268</v>
-      </c>
-      <c r="I15" s="7">
-        <v>186197</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>40</v>
@@ -4727,34 +4730,34 @@
         <v>10</v>
       </c>
       <c r="C16" s="7">
+        <v>119</v>
+      </c>
+      <c r="D16" s="7">
+        <v>83608</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>356</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>357</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>358</v>
+      </c>
+      <c r="H16" s="7">
         <v>100</v>
       </c>
-      <c r="D16" s="7">
+      <c r="I16" s="7">
         <v>73646</v>
       </c>
-      <c r="E16" s="7" t="s">
+      <c r="J16" s="7" t="s">
+        <v>359</v>
+      </c>
+      <c r="K16" s="7" t="s">
         <v>360</v>
       </c>
-      <c r="F16" s="7" t="s">
+      <c r="L16" s="7" t="s">
         <v>361</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>362</v>
-      </c>
-      <c r="H16" s="7">
-        <v>119</v>
-      </c>
-      <c r="I16" s="7">
-        <v>83608</v>
-      </c>
-      <c r="J16" s="7" t="s">
-        <v>363</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>364</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>365</v>
       </c>
       <c r="M16" s="7">
         <v>219</v>
@@ -4763,13 +4766,13 @@
         <v>157253</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4778,34 +4781,34 @@
         <v>20</v>
       </c>
       <c r="C17" s="7">
+        <v>48</v>
+      </c>
+      <c r="D17" s="7">
+        <v>35122</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>364</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>365</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>366</v>
+      </c>
+      <c r="H17" s="7">
         <v>59</v>
       </c>
-      <c r="D17" s="7">
+      <c r="I17" s="7">
         <v>44322</v>
       </c>
-      <c r="E17" s="7" t="s">
+      <c r="J17" s="7" t="s">
+        <v>367</v>
+      </c>
+      <c r="K17" s="7" t="s">
         <v>368</v>
       </c>
-      <c r="F17" s="7" t="s">
+      <c r="L17" s="7" t="s">
         <v>369</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>370</v>
-      </c>
-      <c r="H17" s="7">
-        <v>48</v>
-      </c>
-      <c r="I17" s="7">
-        <v>35122</v>
-      </c>
-      <c r="J17" s="7" t="s">
-        <v>371</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>372</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>167</v>
       </c>
       <c r="M17" s="7">
         <v>107</v>
@@ -4814,13 +4817,13 @@
         <v>79444</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4829,34 +4832,34 @@
         <v>30</v>
       </c>
       <c r="C18" s="7">
+        <v>68</v>
+      </c>
+      <c r="D18" s="7">
+        <v>46785</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>373</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>374</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>375</v>
+      </c>
+      <c r="H18" s="7">
         <v>58</v>
       </c>
-      <c r="D18" s="7">
+      <c r="I18" s="7">
         <v>43300</v>
       </c>
-      <c r="E18" s="7" t="s">
-        <v>321</v>
-      </c>
-      <c r="F18" s="7" t="s">
+      <c r="J18" s="7" t="s">
+        <v>315</v>
+      </c>
+      <c r="K18" s="7" t="s">
         <v>376</v>
       </c>
-      <c r="G18" s="7" t="s">
+      <c r="L18" s="7" t="s">
         <v>377</v>
-      </c>
-      <c r="H18" s="7">
-        <v>68</v>
-      </c>
-      <c r="I18" s="7">
-        <v>46785</v>
-      </c>
-      <c r="J18" s="7" t="s">
-        <v>378</v>
-      </c>
-      <c r="K18" s="7" t="s">
-        <v>379</v>
-      </c>
-      <c r="L18" s="7" t="s">
-        <v>380</v>
       </c>
       <c r="M18" s="7">
         <v>126</v>
@@ -4865,13 +4868,13 @@
         <v>90085</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -4880,25 +4883,25 @@
         <v>3</v>
       </c>
       <c r="C19" s="7">
+        <v>235</v>
+      </c>
+      <c r="D19" s="7">
+        <v>165515</v>
+      </c>
+      <c r="E19" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="G19" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="H19" s="7">
         <v>217</v>
       </c>
-      <c r="D19" s="7">
+      <c r="I19" s="7">
         <v>161267</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="H19" s="7">
-        <v>235</v>
-      </c>
-      <c r="I19" s="7">
-        <v>165515</v>
       </c>
       <c r="J19" s="7" t="s">
         <v>40</v>
@@ -4933,34 +4936,34 @@
         <v>10</v>
       </c>
       <c r="C20" s="7">
+        <v>451</v>
+      </c>
+      <c r="D20" s="7">
+        <v>296343</v>
+      </c>
+      <c r="E20" s="7" t="s">
+        <v>381</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>382</v>
+      </c>
+      <c r="G20" s="7" t="s">
+        <v>383</v>
+      </c>
+      <c r="H20" s="7">
         <v>436</v>
       </c>
-      <c r="D20" s="7">
+      <c r="I20" s="7">
         <v>300387</v>
       </c>
-      <c r="E20" s="7" t="s">
+      <c r="J20" s="7" t="s">
         <v>384</v>
       </c>
-      <c r="F20" s="7" t="s">
+      <c r="K20" s="7" t="s">
         <v>385</v>
       </c>
-      <c r="G20" s="7" t="s">
+      <c r="L20" s="7" t="s">
         <v>386</v>
-      </c>
-      <c r="H20" s="7">
-        <v>451</v>
-      </c>
-      <c r="I20" s="7">
-        <v>296343</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>387</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>388</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>389</v>
       </c>
       <c r="M20" s="7">
         <v>887</v>
@@ -4969,13 +4972,13 @@
         <v>596731</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4984,34 +4987,34 @@
         <v>20</v>
       </c>
       <c r="C21" s="7">
+        <v>264</v>
+      </c>
+      <c r="D21" s="7">
+        <v>178810</v>
+      </c>
+      <c r="E21" s="7" t="s">
+        <v>390</v>
+      </c>
+      <c r="F21" s="7" t="s">
+        <v>391</v>
+      </c>
+      <c r="G21" s="7" t="s">
+        <v>392</v>
+      </c>
+      <c r="H21" s="7">
         <v>271</v>
       </c>
-      <c r="D21" s="7">
+      <c r="I21" s="7">
         <v>189261</v>
       </c>
-      <c r="E21" s="7" t="s">
+      <c r="J21" s="7" t="s">
         <v>142</v>
       </c>
-      <c r="F21" s="7" t="s">
+      <c r="K21" s="7" t="s">
         <v>393</v>
       </c>
-      <c r="G21" s="7" t="s">
+      <c r="L21" s="7" t="s">
         <v>394</v>
-      </c>
-      <c r="H21" s="7">
-        <v>264</v>
-      </c>
-      <c r="I21" s="7">
-        <v>178810</v>
-      </c>
-      <c r="J21" s="7" t="s">
-        <v>395</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>396</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>397</v>
       </c>
       <c r="M21" s="7">
         <v>535</v>
@@ -5020,13 +5023,13 @@
         <v>368071</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>92</v>
+        <v>395</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -5035,49 +5038,49 @@
         <v>30</v>
       </c>
       <c r="C22" s="7">
+        <v>304</v>
+      </c>
+      <c r="D22" s="7">
+        <v>201607</v>
+      </c>
+      <c r="E22" s="7" t="s">
+        <v>398</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>399</v>
+      </c>
+      <c r="G22" s="7" t="s">
+        <v>400</v>
+      </c>
+      <c r="H22" s="7">
         <v>311</v>
       </c>
-      <c r="D22" s="7">
+      <c r="I22" s="7">
         <v>222687</v>
       </c>
-      <c r="E22" s="7" t="s">
-        <v>400</v>
-      </c>
-      <c r="F22" s="7" t="s">
-        <v>150</v>
-      </c>
-      <c r="G22" s="7" t="s">
+      <c r="J22" s="7" t="s">
         <v>401</v>
       </c>
-      <c r="H22" s="7">
-        <v>304</v>
-      </c>
-      <c r="I22" s="7">
-        <v>201607</v>
-      </c>
-      <c r="J22" s="7" t="s">
+      <c r="K22" s="7" t="s">
         <v>402</v>
       </c>
-      <c r="K22" s="7" t="s">
+      <c r="L22" s="7" t="s">
         <v>403</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>404</v>
       </c>
       <c r="M22" s="7">
         <v>615</v>
       </c>
       <c r="N22" s="7">
-        <v>424294</v>
+        <v>424293</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>404</v>
+      </c>
+      <c r="P22" s="7" t="s">
         <v>405</v>
       </c>
-      <c r="P22" s="7" t="s">
-        <v>247</v>
-      </c>
       <c r="Q22" s="7" t="s">
-        <v>320</v>
+        <v>406</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5086,25 +5089,25 @@
         <v>3</v>
       </c>
       <c r="C23" s="7">
+        <v>1019</v>
+      </c>
+      <c r="D23" s="7">
+        <v>676760</v>
+      </c>
+      <c r="E23" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="G23" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="H23" s="7">
         <v>1018</v>
       </c>
-      <c r="D23" s="7">
+      <c r="I23" s="7">
         <v>712335</v>
-      </c>
-      <c r="E23" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="F23" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="H23" s="7">
-        <v>1019</v>
-      </c>
-      <c r="I23" s="7">
-        <v>676760</v>
       </c>
       <c r="J23" s="7" t="s">
         <v>40</v>
@@ -5119,7 +5122,7 @@
         <v>2037</v>
       </c>
       <c r="N23" s="7">
-        <v>1389096</v>
+        <v>1389095</v>
       </c>
       <c r="O23" s="7" t="s">
         <v>40</v>
